--- a/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-05-16.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-05-16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1556"/>
+  <dimension ref="A1:G1491"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37841,10 +37841,8 @@
           <t>240.0K</t>
         </is>
       </c>
-      <c r="G1438" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1438" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1439">
@@ -37874,10 +37872,8 @@
           <t>-0.6%</t>
         </is>
       </c>
-      <c r="G1439" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1439" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1440">
@@ -37907,10 +37903,8 @@
           <t>5.5%</t>
         </is>
       </c>
-      <c r="G1440" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1440" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1441">
@@ -37940,10 +37934,8 @@
           <t>1921.0K</t>
         </is>
       </c>
-      <c r="G1441" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1441" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1442">
@@ -37969,10 +37961,8 @@
           <t>230.0K</t>
         </is>
       </c>
-      <c r="G1442" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1442" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1443">
@@ -38002,10 +37992,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="G1443" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1443" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1444">
@@ -38031,10 +38019,8 @@
         </is>
       </c>
       <c r="F1444" t="inlineStr"/>
-      <c r="G1444" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1444" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1445">
@@ -38060,10 +38046,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="G1445" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1445" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1446">
@@ -38085,10 +38069,8 @@
       </c>
       <c r="E1446" t="inlineStr"/>
       <c r="F1446" t="inlineStr"/>
-      <c r="G1446" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1446" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1447">
@@ -38110,10 +38092,8 @@
       </c>
       <c r="E1447" t="inlineStr"/>
       <c r="F1447" t="inlineStr"/>
-      <c r="G1447" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1447" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1448">
@@ -38135,10 +38115,8 @@
       </c>
       <c r="E1448" t="inlineStr"/>
       <c r="F1448" t="inlineStr"/>
-      <c r="G1448" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1448" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1449">
@@ -38160,10 +38138,8 @@
       </c>
       <c r="E1449" t="inlineStr"/>
       <c r="F1449" t="inlineStr"/>
-      <c r="G1449" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1449" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1450">
@@ -38185,10 +38161,8 @@
       </c>
       <c r="E1450" t="inlineStr"/>
       <c r="F1450" t="inlineStr"/>
-      <c r="G1450" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1450" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1451">
@@ -38210,64 +38184,94 @@
       </c>
       <c r="E1451" t="inlineStr"/>
       <c r="F1451" t="inlineStr"/>
-      <c r="G1451" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1451" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1452">
       <c r="A1452" t="inlineStr">
         <is>
-          <t>Friday May 09 2025</t>
-        </is>
-      </c>
-      <c r="B1452" t="inlineStr"/>
+          <t>07:30 AM</t>
+        </is>
+      </c>
+      <c r="B1452" t="inlineStr">
+        <is>
+          <t>PPIAPR</t>
+        </is>
+      </c>
       <c r="C1452" t="inlineStr"/>
-      <c r="D1452" t="inlineStr"/>
+      <c r="D1452" t="inlineStr">
+        <is>
+          <t>147.464</t>
+        </is>
+      </c>
       <c r="E1452" t="inlineStr"/>
-      <c r="F1452" t="inlineStr"/>
-      <c r="G1452" t="inlineStr"/>
+      <c r="F1452" t="inlineStr">
+        <is>
+          <t>147.76</t>
+        </is>
+      </c>
+      <c r="G1452" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1453">
       <c r="A1453" t="inlineStr">
         <is>
-          <t>05:15 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1453" t="inlineStr">
         <is>
-          <t>Fed Williams Speech</t>
+          <t>PPI Ex Food, Energy and Trade MoMAPR</t>
         </is>
       </c>
       <c r="C1453" t="inlineStr"/>
-      <c r="D1453" t="inlineStr"/>
+      <c r="D1453" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="E1453" t="inlineStr"/>
-      <c r="F1453" t="inlineStr"/>
+      <c r="F1453" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="G1453" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1454">
       <c r="A1454" t="inlineStr">
         <is>
-          <t>05:45 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1454" t="inlineStr">
         <is>
-          <t>Fed Barr Speech</t>
+          <t>PPI Ex Food, Energy and Trade YoYAPR</t>
         </is>
       </c>
       <c r="C1454" t="inlineStr"/>
-      <c r="D1454" t="inlineStr"/>
+      <c r="D1454" t="inlineStr">
+        <is>
+          <t>3.4%</t>
+        </is>
+      </c>
       <c r="E1454" t="inlineStr"/>
-      <c r="F1454" t="inlineStr"/>
+      <c r="F1454" t="inlineStr">
+        <is>
+          <t>3.4%</t>
+        </is>
+      </c>
       <c r="G1454" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -38279,76 +38283,108 @@
       </c>
       <c r="B1455" t="inlineStr">
         <is>
-          <t>Fed Kugler Speech</t>
+          <t>PPI YoYAPR</t>
         </is>
       </c>
       <c r="C1455" t="inlineStr"/>
-      <c r="D1455" t="inlineStr"/>
+      <c r="D1455" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
       <c r="E1455" t="inlineStr"/>
-      <c r="F1455" t="inlineStr"/>
+      <c r="F1455" t="inlineStr">
+        <is>
+          <t>3.1%</t>
+        </is>
+      </c>
       <c r="G1455" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1456">
       <c r="A1456" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1456" t="inlineStr">
         <is>
-          <t>Fed Goolsbee Speech</t>
+          <t>Retail Sales Ex Gas/Autos MoMAPR</t>
         </is>
       </c>
       <c r="C1456" t="inlineStr"/>
-      <c r="D1456" t="inlineStr"/>
+      <c r="D1456" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="E1456" t="inlineStr"/>
-      <c r="F1456" t="inlineStr"/>
+      <c r="F1456" t="inlineStr">
+        <is>
+          <t>-0.3%</t>
+        </is>
+      </c>
       <c r="G1456" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1457">
       <c r="A1457" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1457" t="inlineStr">
         <is>
-          <t>Fed Waller Speech</t>
+          <t>Retail Sales YoYAPR</t>
         </is>
       </c>
       <c r="C1457" t="inlineStr"/>
-      <c r="D1457" t="inlineStr"/>
+      <c r="D1457" t="inlineStr">
+        <is>
+          <t>4.6%</t>
+        </is>
+      </c>
       <c r="E1457" t="inlineStr"/>
-      <c r="F1457" t="inlineStr"/>
+      <c r="F1457" t="inlineStr">
+        <is>
+          <t>1.1%</t>
+        </is>
+      </c>
       <c r="G1457" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1458">
       <c r="A1458" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:15 AM</t>
         </is>
       </c>
       <c r="B1458" t="inlineStr">
         <is>
-          <t>Fed Williams Speech</t>
+          <t>Industrial Production MoMAPR</t>
         </is>
       </c>
       <c r="C1458" t="inlineStr"/>
-      <c r="D1458" t="inlineStr"/>
+      <c r="D1458" t="inlineStr">
+        <is>
+          <t>-0.3%</t>
+        </is>
+      </c>
       <c r="E1458" t="inlineStr"/>
-      <c r="F1458" t="inlineStr"/>
+      <c r="F1458" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
       <c r="G1458" t="inlineStr">
         <is>
           <t>2</t>
@@ -38358,22 +38394,26 @@
     <row r="1459">
       <c r="A1459" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>08:15 AM</t>
         </is>
       </c>
       <c r="B1459" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountMAY/09</t>
+          <t>Capacity UtilizationAPR</t>
         </is>
       </c>
       <c r="C1459" t="inlineStr"/>
       <c r="D1459" t="inlineStr">
         <is>
-          <t>479</t>
+          <t>77.8%</t>
         </is>
       </c>
       <c r="E1459" t="inlineStr"/>
-      <c r="F1459" t="inlineStr"/>
+      <c r="F1459" t="inlineStr">
+        <is>
+          <t>77.8%</t>
+        </is>
+      </c>
       <c r="G1459" t="inlineStr">
         <is>
           <t>3</t>
@@ -38383,22 +38423,26 @@
     <row r="1460">
       <c r="A1460" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>08:15 AM</t>
         </is>
       </c>
       <c r="B1460" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountMAY/09</t>
+          <t>Industrial Production YoYAPR</t>
         </is>
       </c>
       <c r="C1460" t="inlineStr"/>
       <c r="D1460" t="inlineStr">
         <is>
-          <t>584</t>
+          <t>1.3%</t>
         </is>
       </c>
       <c r="E1460" t="inlineStr"/>
-      <c r="F1460" t="inlineStr"/>
+      <c r="F1460" t="inlineStr">
+        <is>
+          <t>0.9%</t>
+        </is>
+      </c>
       <c r="G1460" t="inlineStr">
         <is>
           <t>3</t>
@@ -38408,60 +38452,84 @@
     <row r="1461">
       <c r="A1461" t="inlineStr">
         <is>
-          <t>06:45 PM</t>
+          <t>08:15 AM</t>
         </is>
       </c>
       <c r="B1461" t="inlineStr">
         <is>
-          <t>Fed Cook Speech</t>
+          <t>Manufacturing Production MoMAPR</t>
         </is>
       </c>
       <c r="C1461" t="inlineStr"/>
-      <c r="D1461" t="inlineStr"/>
+      <c r="D1461" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="E1461" t="inlineStr"/>
-      <c r="F1461" t="inlineStr"/>
+      <c r="F1461" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G1461" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1462">
       <c r="A1462" t="inlineStr">
         <is>
-          <t>06:45 PM</t>
+          <t>08:15 AM</t>
         </is>
       </c>
       <c r="B1462" t="inlineStr">
         <is>
-          <t>Fed Hammack Speech</t>
+          <t>Manufacturing Production YoYAPR</t>
         </is>
       </c>
       <c r="C1462" t="inlineStr"/>
-      <c r="D1462" t="inlineStr"/>
+      <c r="D1462" t="inlineStr">
+        <is>
+          <t>1%</t>
+        </is>
+      </c>
       <c r="E1462" t="inlineStr"/>
-      <c r="F1462" t="inlineStr"/>
+      <c r="F1462" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="G1462" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1463">
       <c r="A1463" t="inlineStr">
         <is>
-          <t>06:45 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1463" t="inlineStr">
         <is>
-          <t>Fed Musalem Speech</t>
+          <t>Business Inventories MoMMAR</t>
         </is>
       </c>
       <c r="C1463" t="inlineStr"/>
-      <c r="D1463" t="inlineStr"/>
+      <c r="D1463" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="E1463" t="inlineStr"/>
-      <c r="F1463" t="inlineStr"/>
+      <c r="F1463" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="G1463" t="inlineStr">
         <is>
           <t>2</t>
@@ -38471,28 +38539,64 @@
     <row r="1464">
       <c r="A1464" t="inlineStr">
         <is>
-          <t>Sunday May 11 2025</t>
-        </is>
-      </c>
-      <c r="B1464" t="inlineStr"/>
+          <t>09:00 AM</t>
+        </is>
+      </c>
+      <c r="B1464" t="inlineStr">
+        <is>
+          <t>NAHB Housing Market IndexMAY</t>
+        </is>
+      </c>
       <c r="C1464" t="inlineStr"/>
-      <c r="D1464" t="inlineStr"/>
+      <c r="D1464" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
       <c r="E1464" t="inlineStr"/>
-      <c r="F1464" t="inlineStr"/>
-      <c r="G1464" t="inlineStr"/>
+      <c r="F1464" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="G1464" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1465">
       <c r="A1465" t="inlineStr">
         <is>
-          <t>Monday May 12 2025</t>
-        </is>
-      </c>
-      <c r="B1465" t="inlineStr"/>
+          <t>09:00 AM</t>
+        </is>
+      </c>
+      <c r="B1465" t="inlineStr">
+        <is>
+          <t>Retail Inventories Ex Autos MoMMAR</t>
+        </is>
+      </c>
       <c r="C1465" t="inlineStr"/>
-      <c r="D1465" t="inlineStr"/>
-      <c r="E1465" t="inlineStr"/>
-      <c r="F1465" t="inlineStr"/>
-      <c r="G1465" t="inlineStr"/>
+      <c r="D1465" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="E1465" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="F1465" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="G1465" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1466">
       <c r="A1466" t="inlineStr">
@@ -38502,16 +38606,12 @@
       </c>
       <c r="B1466" t="inlineStr">
         <is>
-          <t>NY Fed Treasury Purchases 4 to 6 yrs</t>
+          <t>EIA Natural Gas Stocks ChangeMAY/09</t>
         </is>
       </c>
       <c r="C1466" t="inlineStr"/>
       <c r="D1466" t="inlineStr"/>
-      <c r="E1466" t="inlineStr">
-        <is>
-          <t>$75 million</t>
-        </is>
-      </c>
+      <c r="E1466" t="inlineStr"/>
       <c r="F1466" t="inlineStr"/>
       <c r="G1466" t="inlineStr">
         <is>
@@ -38527,15 +38627,11 @@
       </c>
       <c r="B1467" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1467" t="inlineStr"/>
-      <c r="D1467" t="inlineStr">
-        <is>
-          <t>4.220%</t>
-        </is>
-      </c>
+      <c r="D1467" t="inlineStr"/>
       <c r="E1467" t="inlineStr"/>
       <c r="F1467" t="inlineStr"/>
       <c r="G1467" t="inlineStr">
@@ -38552,15 +38648,11 @@
       </c>
       <c r="B1468" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1468" t="inlineStr"/>
-      <c r="D1468" t="inlineStr">
-        <is>
-          <t>4.090%</t>
-        </is>
-      </c>
+      <c r="D1468" t="inlineStr"/>
       <c r="E1468" t="inlineStr"/>
       <c r="F1468" t="inlineStr"/>
       <c r="G1468" t="inlineStr">
@@ -38577,7 +38669,7 @@
       </c>
       <c r="B1469" t="inlineStr">
         <is>
-          <t>WASDE Report</t>
+          <t>15-Year Mortgage RateMAY/15</t>
         </is>
       </c>
       <c r="C1469" t="inlineStr"/>
@@ -38593,68 +38685,60 @@
     <row r="1470">
       <c r="A1470" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1470" t="inlineStr">
         <is>
-          <t>Monthly Budget StatementAPR</t>
+          <t>30-Year Mortgage RateMAY/15</t>
         </is>
       </c>
       <c r="C1470" t="inlineStr"/>
-      <c r="D1470" t="inlineStr">
-        <is>
-          <t>$-161B</t>
-        </is>
-      </c>
+      <c r="D1470" t="inlineStr"/>
       <c r="E1470" t="inlineStr"/>
-      <c r="F1470" t="inlineStr">
-        <is>
-          <t>$235.0B</t>
-        </is>
-      </c>
+      <c r="F1470" t="inlineStr"/>
       <c r="G1470" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1471">
       <c r="A1471" t="inlineStr">
         <is>
-          <t>Tuesday May 13 2025</t>
-        </is>
-      </c>
-      <c r="B1471" t="inlineStr"/>
+          <t>11:00 AM</t>
+        </is>
+      </c>
+      <c r="B1471" t="inlineStr">
+        <is>
+          <t>NOPA Crush Report</t>
+        </is>
+      </c>
       <c r="C1471" t="inlineStr"/>
       <c r="D1471" t="inlineStr"/>
       <c r="E1471" t="inlineStr"/>
       <c r="F1471" t="inlineStr"/>
-      <c r="G1471" t="inlineStr"/>
+      <c r="G1471" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1472">
       <c r="A1472" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1472" t="inlineStr">
         <is>
-          <t>NFIB Business Optimism IndexAPR</t>
+          <t>Fed Balance SheetMAY/14</t>
         </is>
       </c>
       <c r="C1472" t="inlineStr"/>
-      <c r="D1472" t="inlineStr">
-        <is>
-          <t>97.4</t>
-        </is>
-      </c>
+      <c r="D1472" t="inlineStr"/>
       <c r="E1472" t="inlineStr"/>
-      <c r="F1472" t="inlineStr">
-        <is>
-          <t>91.5</t>
-        </is>
-      </c>
+      <c r="F1472" t="inlineStr"/>
       <c r="G1472" t="inlineStr">
         <is>
           <t>3</t>
@@ -38664,31 +38748,15 @@
     <row r="1473">
       <c r="A1473" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1473" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate MoMAPR</t>
-        </is>
-      </c>
+          <t>Friday May 16 2025</t>
+        </is>
+      </c>
+      <c r="B1473" t="inlineStr"/>
       <c r="C1473" t="inlineStr"/>
-      <c r="D1473" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="D1473" t="inlineStr"/>
       <c r="E1473" t="inlineStr"/>
-      <c r="F1473" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G1473" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="F1473" t="inlineStr"/>
+      <c r="G1473" t="inlineStr"/>
     </row>
     <row r="1474">
       <c r="A1474" t="inlineStr">
@@ -38698,19 +38766,19 @@
       </c>
       <c r="B1474" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYAPR</t>
+          <t>Building Permits PrelAPR</t>
         </is>
       </c>
       <c r="C1474" t="inlineStr"/>
       <c r="D1474" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>1.467M</t>
         </is>
       </c>
       <c r="E1474" t="inlineStr"/>
       <c r="F1474" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>1.45M</t>
         </is>
       </c>
       <c r="G1474" t="inlineStr">
@@ -38727,19 +38795,19 @@
       </c>
       <c r="B1475" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMAPR</t>
+          <t>Housing StartsAPR</t>
         </is>
       </c>
       <c r="C1475" t="inlineStr"/>
       <c r="D1475" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>1.324M</t>
         </is>
       </c>
       <c r="E1475" t="inlineStr"/>
       <c r="F1475" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>1.31M</t>
         </is>
       </c>
       <c r="G1475" t="inlineStr">
@@ -38756,24 +38824,24 @@
       </c>
       <c r="B1476" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYAPR</t>
+          <t>Building Permits MoM PrelAPR</t>
         </is>
       </c>
       <c r="C1476" t="inlineStr"/>
       <c r="D1476" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="E1476" t="inlineStr"/>
       <c r="F1476" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>-1.2%</t>
         </is>
       </c>
       <c r="G1476" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -38785,19 +38853,19 @@
       </c>
       <c r="B1477" t="inlineStr">
         <is>
-          <t>CPIAPR</t>
+          <t>Export Prices MoMAPR</t>
         </is>
       </c>
       <c r="C1477" t="inlineStr"/>
       <c r="D1477" t="inlineStr">
         <is>
-          <t>319.799</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="E1477" t="inlineStr"/>
       <c r="F1477" t="inlineStr">
         <is>
-          <t>321.7</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G1477" t="inlineStr">
@@ -38814,19 +38882,19 @@
       </c>
       <c r="B1478" t="inlineStr">
         <is>
-          <t>CPI s.aAPR</t>
+          <t>Housing Starts MoMAPR</t>
         </is>
       </c>
       <c r="C1478" t="inlineStr"/>
       <c r="D1478" t="inlineStr">
         <is>
-          <t>319.615</t>
+          <t>-11.4%</t>
         </is>
       </c>
       <c r="E1478" t="inlineStr"/>
       <c r="F1478" t="inlineStr">
         <is>
-          <t>320.6</t>
+          <t>-1%</t>
         </is>
       </c>
       <c r="G1478" t="inlineStr">
@@ -38838,47 +38906,55 @@
     <row r="1479">
       <c r="A1479" t="inlineStr">
         <is>
-          <t>07:55 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1479" t="inlineStr">
         <is>
-          <t>Redbook YoYMAY/10</t>
+          <t>Import Prices MoMAPR</t>
         </is>
       </c>
       <c r="C1479" t="inlineStr"/>
       <c r="D1479" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="E1479" t="inlineStr"/>
-      <c r="F1479" t="inlineStr"/>
+      <c r="F1479" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="G1479" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1480">
       <c r="A1480" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1480" t="inlineStr">
         <is>
-          <t>Total Household DebtQ1</t>
+          <t>Export Prices YoYAPR</t>
         </is>
       </c>
       <c r="C1480" t="inlineStr"/>
       <c r="D1480" t="inlineStr">
         <is>
-          <t>$18.04T</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="E1480" t="inlineStr"/>
-      <c r="F1480" t="inlineStr"/>
+      <c r="F1480" t="inlineStr">
+        <is>
+          <t>2%</t>
+        </is>
+      </c>
       <c r="G1480" t="inlineStr">
         <is>
           <t>3</t>
@@ -38888,22 +38964,26 @@
     <row r="1481">
       <c r="A1481" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1481" t="inlineStr">
         <is>
-          <t>52-Week Bill Auction</t>
+          <t>Import Prices YoYAPR</t>
         </is>
       </c>
       <c r="C1481" t="inlineStr"/>
       <c r="D1481" t="inlineStr">
         <is>
-          <t>3.820%</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="E1481" t="inlineStr"/>
-      <c r="F1481" t="inlineStr"/>
+      <c r="F1481" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
       <c r="G1481" t="inlineStr">
         <is>
           <t>3</t>
@@ -38913,85 +38993,113 @@
     <row r="1482">
       <c r="A1482" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1482" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeMAY/09</t>
+          <t>Michigan Consumer Sentiment PrelMAY</t>
         </is>
       </c>
       <c r="C1482" t="inlineStr"/>
       <c r="D1482" t="inlineStr">
         <is>
-          <t>-4.49M</t>
+          <t>52.2</t>
         </is>
       </c>
       <c r="E1482" t="inlineStr"/>
-      <c r="F1482" t="inlineStr"/>
+      <c r="F1482" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
       <c r="G1482" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1483">
       <c r="A1483" t="inlineStr">
         <is>
-          <t>Wednesday May 14 2025</t>
-        </is>
-      </c>
-      <c r="B1483" t="inlineStr"/>
+          <t>09:00 AM</t>
+        </is>
+      </c>
+      <c r="B1483" t="inlineStr">
+        <is>
+          <t>Michigan 5 Year Inflation Expectations PrelMAY</t>
+        </is>
+      </c>
       <c r="C1483" t="inlineStr"/>
-      <c r="D1483" t="inlineStr"/>
+      <c r="D1483" t="inlineStr">
+        <is>
+          <t>4.4%</t>
+        </is>
+      </c>
       <c r="E1483" t="inlineStr"/>
-      <c r="F1483" t="inlineStr"/>
-      <c r="G1483" t="inlineStr"/>
+      <c r="F1483" t="inlineStr">
+        <is>
+          <t>4.5%</t>
+        </is>
+      </c>
+      <c r="G1483" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1484">
       <c r="A1484" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1484" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateMAY/09</t>
+          <t>Michigan Consumer Expectations PrelMAY</t>
         </is>
       </c>
       <c r="C1484" t="inlineStr"/>
       <c r="D1484" t="inlineStr">
         <is>
-          <t>6.84%</t>
+          <t>47.3</t>
         </is>
       </c>
       <c r="E1484" t="inlineStr"/>
-      <c r="F1484" t="inlineStr"/>
+      <c r="F1484" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
       <c r="G1484" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1485">
       <c r="A1485" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1485" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsMAY/09</t>
+          <t>Michigan Current Conditions PrelMAY</t>
         </is>
       </c>
       <c r="C1485" t="inlineStr"/>
       <c r="D1485" t="inlineStr">
         <is>
-          <t>11%</t>
+          <t>59.8</t>
         </is>
       </c>
       <c r="E1485" t="inlineStr"/>
-      <c r="F1485" t="inlineStr"/>
+      <c r="F1485" t="inlineStr">
+        <is>
+          <t>59.5</t>
+        </is>
+      </c>
       <c r="G1485" t="inlineStr">
         <is>
           <t>3</t>
@@ -39001,22 +39109,26 @@
     <row r="1486">
       <c r="A1486" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1486" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexMAY/09</t>
+          <t>Michigan Inflation Expectations PrelMAY</t>
         </is>
       </c>
       <c r="C1486" t="inlineStr"/>
       <c r="D1486" t="inlineStr">
         <is>
-          <t>248.4</t>
+          <t>6.5%</t>
         </is>
       </c>
       <c r="E1486" t="inlineStr"/>
-      <c r="F1486" t="inlineStr"/>
+      <c r="F1486" t="inlineStr">
+        <is>
+          <t>6.6%</t>
+        </is>
+      </c>
       <c r="G1486" t="inlineStr">
         <is>
           <t>3</t>
@@ -39026,20 +39138,16 @@
     <row r="1487">
       <c r="A1487" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B1487" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexMAY/09</t>
+          <t>Baker Hughes Oil Rig CountMAY/16</t>
         </is>
       </c>
       <c r="C1487" t="inlineStr"/>
-      <c r="D1487" t="inlineStr">
-        <is>
-          <t>721</t>
-        </is>
-      </c>
+      <c r="D1487" t="inlineStr"/>
       <c r="E1487" t="inlineStr"/>
       <c r="F1487" t="inlineStr"/>
       <c r="G1487" t="inlineStr">
@@ -39051,20 +39159,16 @@
     <row r="1488">
       <c r="A1488" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B1488" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexMAY/09</t>
+          <t>Baker Hughes Total Rigs CountMAY/16</t>
         </is>
       </c>
       <c r="C1488" t="inlineStr"/>
-      <c r="D1488" t="inlineStr">
-        <is>
-          <t>162.8</t>
-        </is>
-      </c>
+      <c r="D1488" t="inlineStr"/>
       <c r="E1488" t="inlineStr"/>
       <c r="F1488" t="inlineStr"/>
       <c r="G1488" t="inlineStr">
@@ -39076,18 +39180,18 @@
     <row r="1489">
       <c r="A1489" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B1489" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Stocks ChangeMAY/09</t>
+          <t>Net Long-term TIC FlowsMAR</t>
         </is>
       </c>
       <c r="C1489" t="inlineStr"/>
       <c r="D1489" t="inlineStr">
         <is>
-          <t>-2.032M</t>
+          <t>$112B</t>
         </is>
       </c>
       <c r="E1489" t="inlineStr"/>
@@ -39101,1741 +39205,48 @@
     <row r="1490">
       <c r="A1490" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B1490" t="inlineStr">
         <is>
-          <t>EIA Gasoline Stocks ChangeMAY/09</t>
+          <t>Foreign Bond InvestmentMAR</t>
         </is>
       </c>
       <c r="C1490" t="inlineStr"/>
       <c r="D1490" t="inlineStr">
         <is>
-          <t>0.188M</t>
+          <t>$106.2B</t>
         </is>
       </c>
       <c r="E1490" t="inlineStr"/>
       <c r="F1490" t="inlineStr"/>
       <c r="G1490" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1491">
       <c r="A1491" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B1491" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Imports ChangeMAY/09</t>
+          <t>Overall Net Capital FlowsMAR</t>
         </is>
       </c>
       <c r="C1491" t="inlineStr"/>
       <c r="D1491" t="inlineStr">
         <is>
-          <t>0.673M</t>
+          <t>$284.7B</t>
         </is>
       </c>
       <c r="E1491" t="inlineStr"/>
       <c r="F1491" t="inlineStr"/>
       <c r="G1491" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1492">
-      <c r="A1492" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1492" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeMAY/09</t>
-        </is>
-      </c>
-      <c r="C1492" t="inlineStr"/>
-      <c r="D1492" t="inlineStr">
-        <is>
-          <t>-0.74M</t>
-        </is>
-      </c>
-      <c r="E1492" t="inlineStr"/>
-      <c r="F1492" t="inlineStr"/>
-      <c r="G1492" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1493">
-      <c r="A1493" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1493" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeMAY/09</t>
-        </is>
-      </c>
-      <c r="C1493" t="inlineStr"/>
-      <c r="D1493" t="inlineStr">
-        <is>
-          <t>0.041M</t>
-        </is>
-      </c>
-      <c r="E1493" t="inlineStr"/>
-      <c r="F1493" t="inlineStr"/>
-      <c r="G1493" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1494">
-      <c r="A1494" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1494" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeMAY/09</t>
-        </is>
-      </c>
-      <c r="C1494" t="inlineStr"/>
-      <c r="D1494" t="inlineStr">
-        <is>
-          <t>-1.107M</t>
-        </is>
-      </c>
-      <c r="E1494" t="inlineStr"/>
-      <c r="F1494" t="inlineStr"/>
-      <c r="G1494" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1495">
-      <c r="A1495" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1495" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeMAY/09</t>
-        </is>
-      </c>
-      <c r="C1495" t="inlineStr"/>
-      <c r="D1495" t="inlineStr">
-        <is>
-          <t>0.253M</t>
-        </is>
-      </c>
-      <c r="E1495" t="inlineStr"/>
-      <c r="F1495" t="inlineStr"/>
-      <c r="G1495" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1496">
-      <c r="A1496" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1496" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeMAY/09</t>
-        </is>
-      </c>
-      <c r="C1496" t="inlineStr"/>
-      <c r="D1496" t="inlineStr">
-        <is>
-          <t>0.123M</t>
-        </is>
-      </c>
-      <c r="E1496" t="inlineStr"/>
-      <c r="F1496" t="inlineStr"/>
-      <c r="G1496" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1497">
-      <c r="A1497" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1497" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeMAY/09</t>
-        </is>
-      </c>
-      <c r="C1497" t="inlineStr"/>
-      <c r="D1497" t="inlineStr">
-        <is>
-          <t>-0.007M</t>
-        </is>
-      </c>
-      <c r="E1497" t="inlineStr"/>
-      <c r="F1497" t="inlineStr"/>
-      <c r="G1497" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1498">
-      <c r="A1498" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1498" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1498" t="inlineStr"/>
-      <c r="D1498" t="inlineStr">
-        <is>
-          <t>4.200%</t>
-        </is>
-      </c>
-      <c r="E1498" t="inlineStr"/>
-      <c r="F1498" t="inlineStr"/>
-      <c r="G1498" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1499">
-      <c r="A1499" t="inlineStr">
-        <is>
-          <t>04:40 PM</t>
-        </is>
-      </c>
-      <c r="B1499" t="inlineStr">
-        <is>
-          <t>Fed Daly Speech</t>
-        </is>
-      </c>
-      <c r="C1499" t="inlineStr"/>
-      <c r="D1499" t="inlineStr"/>
-      <c r="E1499" t="inlineStr"/>
-      <c r="F1499" t="inlineStr"/>
-      <c r="G1499" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1500">
-      <c r="A1500" t="inlineStr">
-        <is>
-          <t>Thursday May 15 2025</t>
-        </is>
-      </c>
-      <c r="B1500" t="inlineStr"/>
-      <c r="C1500" t="inlineStr"/>
-      <c r="D1500" t="inlineStr"/>
-      <c r="E1500" t="inlineStr"/>
-      <c r="F1500" t="inlineStr"/>
-      <c r="G1500" t="inlineStr"/>
-    </row>
-    <row r="1501">
-      <c r="A1501" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1501" t="inlineStr">
-        <is>
-          <t>PPI MoMAPR</t>
-        </is>
-      </c>
-      <c r="C1501" t="inlineStr"/>
-      <c r="D1501" t="inlineStr">
-        <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
-      <c r="E1501" t="inlineStr"/>
-      <c r="F1501" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G1501" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1502">
-      <c r="A1502" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1502" t="inlineStr">
-        <is>
-          <t>Retail Sales MoMAPR</t>
-        </is>
-      </c>
-      <c r="C1502" t="inlineStr"/>
-      <c r="D1502" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
-      <c r="E1502" t="inlineStr"/>
-      <c r="F1502" t="inlineStr">
-        <is>
-          <t>-0.8%</t>
-        </is>
-      </c>
-      <c r="G1502" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1503">
-      <c r="A1503" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1503" t="inlineStr">
-        <is>
-          <t>Core PPI MoMAPR</t>
-        </is>
-      </c>
-      <c r="C1503" t="inlineStr"/>
-      <c r="D1503" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E1503" t="inlineStr"/>
-      <c r="F1503" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G1503" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1504">
-      <c r="A1504" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1504" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsMAY/10</t>
-        </is>
-      </c>
-      <c r="C1504" t="inlineStr"/>
-      <c r="D1504" t="inlineStr"/>
-      <c r="E1504" t="inlineStr"/>
-      <c r="F1504" t="inlineStr"/>
-      <c r="G1504" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1505">
-      <c r="A1505" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1505" t="inlineStr">
-        <is>
-          <t>NY Empire State Manufacturing IndexMAY</t>
-        </is>
-      </c>
-      <c r="C1505" t="inlineStr"/>
-      <c r="D1505" t="inlineStr">
-        <is>
-          <t>-8.10</t>
-        </is>
-      </c>
-      <c r="E1505" t="inlineStr"/>
-      <c r="F1505" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="G1505" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1506">
-      <c r="A1506" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1506" t="inlineStr">
-        <is>
-          <t>Philadelphia Fed Manufacturing IndexMAY</t>
-        </is>
-      </c>
-      <c r="C1506" t="inlineStr"/>
-      <c r="D1506" t="inlineStr">
-        <is>
-          <t>-26.4</t>
-        </is>
-      </c>
-      <c r="E1506" t="inlineStr"/>
-      <c r="F1506" t="inlineStr">
-        <is>
-          <t>-25</t>
-        </is>
-      </c>
-      <c r="G1506" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1507">
-      <c r="A1507" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1507" t="inlineStr">
-        <is>
-          <t>Retail Sales Control Group MoMAPR</t>
-        </is>
-      </c>
-      <c r="C1507" t="inlineStr"/>
-      <c r="D1507" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E1507" t="inlineStr"/>
-      <c r="F1507" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="G1507" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1508">
-      <c r="A1508" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1508" t="inlineStr">
-        <is>
-          <t>Retail Sales Ex Autos MoMAPR</t>
-        </is>
-      </c>
-      <c r="C1508" t="inlineStr"/>
-      <c r="D1508" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E1508" t="inlineStr"/>
-      <c r="F1508" t="inlineStr">
-        <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
-      <c r="G1508" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1509">
-      <c r="A1509" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1509" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsMAY/03</t>
-        </is>
-      </c>
-      <c r="C1509" t="inlineStr"/>
-      <c r="D1509" t="inlineStr"/>
-      <c r="E1509" t="inlineStr"/>
-      <c r="F1509" t="inlineStr"/>
-      <c r="G1509" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1510">
-      <c r="A1510" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1510" t="inlineStr">
-        <is>
-          <t>Core PPI YoYAPR</t>
-        </is>
-      </c>
-      <c r="C1510" t="inlineStr"/>
-      <c r="D1510" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="E1510" t="inlineStr"/>
-      <c r="F1510" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="G1510" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1511">
-      <c r="A1511" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1511" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageMAY/10</t>
-        </is>
-      </c>
-      <c r="C1511" t="inlineStr"/>
-      <c r="D1511" t="inlineStr"/>
-      <c r="E1511" t="inlineStr"/>
-      <c r="F1511" t="inlineStr"/>
-      <c r="G1511" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1512">
-      <c r="A1512" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1512" t="inlineStr">
-        <is>
-          <t>Philly Fed Business ConditionsMAY</t>
-        </is>
-      </c>
-      <c r="C1512" t="inlineStr"/>
-      <c r="D1512" t="inlineStr">
-        <is>
-          <t>6.9</t>
-        </is>
-      </c>
-      <c r="E1512" t="inlineStr"/>
-      <c r="F1512" t="inlineStr"/>
-      <c r="G1512" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1513">
-      <c r="A1513" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1513" t="inlineStr">
-        <is>
-          <t>Philly Fed CAPEX IndexMAY</t>
-        </is>
-      </c>
-      <c r="C1513" t="inlineStr"/>
-      <c r="D1513" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E1513" t="inlineStr"/>
-      <c r="F1513" t="inlineStr"/>
-      <c r="G1513" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1514">
-      <c r="A1514" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1514" t="inlineStr">
-        <is>
-          <t>Philly Fed EmploymentMAY</t>
-        </is>
-      </c>
-      <c r="C1514" t="inlineStr"/>
-      <c r="D1514" t="inlineStr">
-        <is>
-          <t>0.2</t>
-        </is>
-      </c>
-      <c r="E1514" t="inlineStr"/>
-      <c r="F1514" t="inlineStr"/>
-      <c r="G1514" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1515">
-      <c r="A1515" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1515" t="inlineStr">
-        <is>
-          <t>Philly Fed New OrdersMAY</t>
-        </is>
-      </c>
-      <c r="C1515" t="inlineStr"/>
-      <c r="D1515" t="inlineStr">
-        <is>
-          <t>-34.2</t>
-        </is>
-      </c>
-      <c r="E1515" t="inlineStr"/>
-      <c r="F1515" t="inlineStr"/>
-      <c r="G1515" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1516">
-      <c r="A1516" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1516" t="inlineStr">
-        <is>
-          <t>Philly Fed Prices PaidMAY</t>
-        </is>
-      </c>
-      <c r="C1516" t="inlineStr"/>
-      <c r="D1516" t="inlineStr">
-        <is>
-          <t>51.00</t>
-        </is>
-      </c>
-      <c r="E1516" t="inlineStr"/>
-      <c r="F1516" t="inlineStr"/>
-      <c r="G1516" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1517">
-      <c r="A1517" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1517" t="inlineStr">
-        <is>
-          <t>PPIAPR</t>
-        </is>
-      </c>
-      <c r="C1517" t="inlineStr"/>
-      <c r="D1517" t="inlineStr">
-        <is>
-          <t>147.464</t>
-        </is>
-      </c>
-      <c r="E1517" t="inlineStr"/>
-      <c r="F1517" t="inlineStr">
-        <is>
-          <t>147.76</t>
-        </is>
-      </c>
-      <c r="G1517" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1518">
-      <c r="A1518" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1518" t="inlineStr">
-        <is>
-          <t>PPI Ex Food, Energy and Trade MoMAPR</t>
-        </is>
-      </c>
-      <c r="C1518" t="inlineStr"/>
-      <c r="D1518" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E1518" t="inlineStr"/>
-      <c r="F1518" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G1518" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1519">
-      <c r="A1519" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1519" t="inlineStr">
-        <is>
-          <t>PPI Ex Food, Energy and Trade YoYAPR</t>
-        </is>
-      </c>
-      <c r="C1519" t="inlineStr"/>
-      <c r="D1519" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="E1519" t="inlineStr"/>
-      <c r="F1519" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="G1519" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1520">
-      <c r="A1520" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1520" t="inlineStr">
-        <is>
-          <t>PPI YoYAPR</t>
-        </is>
-      </c>
-      <c r="C1520" t="inlineStr"/>
-      <c r="D1520" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="E1520" t="inlineStr"/>
-      <c r="F1520" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
-      <c r="G1520" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1521">
-      <c r="A1521" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1521" t="inlineStr">
-        <is>
-          <t>Retail Sales Ex Gas/Autos MoMAPR</t>
-        </is>
-      </c>
-      <c r="C1521" t="inlineStr"/>
-      <c r="D1521" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="E1521" t="inlineStr"/>
-      <c r="F1521" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="G1521" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1522">
-      <c r="A1522" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1522" t="inlineStr">
-        <is>
-          <t>Retail Sales YoYAPR</t>
-        </is>
-      </c>
-      <c r="C1522" t="inlineStr"/>
-      <c r="D1522" t="inlineStr">
-        <is>
-          <t>4.6%</t>
-        </is>
-      </c>
-      <c r="E1522" t="inlineStr"/>
-      <c r="F1522" t="inlineStr">
-        <is>
-          <t>1.1%</t>
-        </is>
-      </c>
-      <c r="G1522" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1523">
-      <c r="A1523" t="inlineStr">
-        <is>
-          <t>08:15 AM</t>
-        </is>
-      </c>
-      <c r="B1523" t="inlineStr">
-        <is>
-          <t>Industrial Production MoMAPR</t>
-        </is>
-      </c>
-      <c r="C1523" t="inlineStr"/>
-      <c r="D1523" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="E1523" t="inlineStr"/>
-      <c r="F1523" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="G1523" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1524">
-      <c r="A1524" t="inlineStr">
-        <is>
-          <t>08:15 AM</t>
-        </is>
-      </c>
-      <c r="B1524" t="inlineStr">
-        <is>
-          <t>Capacity UtilizationAPR</t>
-        </is>
-      </c>
-      <c r="C1524" t="inlineStr"/>
-      <c r="D1524" t="inlineStr">
-        <is>
-          <t>77.8%</t>
-        </is>
-      </c>
-      <c r="E1524" t="inlineStr"/>
-      <c r="F1524" t="inlineStr">
-        <is>
-          <t>77.8%</t>
-        </is>
-      </c>
-      <c r="G1524" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1525">
-      <c r="A1525" t="inlineStr">
-        <is>
-          <t>08:15 AM</t>
-        </is>
-      </c>
-      <c r="B1525" t="inlineStr">
-        <is>
-          <t>Industrial Production YoYAPR</t>
-        </is>
-      </c>
-      <c r="C1525" t="inlineStr"/>
-      <c r="D1525" t="inlineStr">
-        <is>
-          <t>1.3%</t>
-        </is>
-      </c>
-      <c r="E1525" t="inlineStr"/>
-      <c r="F1525" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="G1525" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1526">
-      <c r="A1526" t="inlineStr">
-        <is>
-          <t>08:15 AM</t>
-        </is>
-      </c>
-      <c r="B1526" t="inlineStr">
-        <is>
-          <t>Manufacturing Production MoMAPR</t>
-        </is>
-      </c>
-      <c r="C1526" t="inlineStr"/>
-      <c r="D1526" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E1526" t="inlineStr"/>
-      <c r="F1526" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G1526" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1527">
-      <c r="A1527" t="inlineStr">
-        <is>
-          <t>08:15 AM</t>
-        </is>
-      </c>
-      <c r="B1527" t="inlineStr">
-        <is>
-          <t>Manufacturing Production YoYAPR</t>
-        </is>
-      </c>
-      <c r="C1527" t="inlineStr"/>
-      <c r="D1527" t="inlineStr">
-        <is>
-          <t>1%</t>
-        </is>
-      </c>
-      <c r="E1527" t="inlineStr"/>
-      <c r="F1527" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="G1527" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1528">
-      <c r="A1528" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1528" t="inlineStr">
-        <is>
-          <t>Business Inventories MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1528" t="inlineStr"/>
-      <c r="D1528" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E1528" t="inlineStr"/>
-      <c r="F1528" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G1528" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1529">
-      <c r="A1529" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1529" t="inlineStr">
-        <is>
-          <t>NAHB Housing Market IndexMAY</t>
-        </is>
-      </c>
-      <c r="C1529" t="inlineStr"/>
-      <c r="D1529" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="E1529" t="inlineStr"/>
-      <c r="F1529" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="G1529" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1530">
-      <c r="A1530" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1530" t="inlineStr">
-        <is>
-          <t>Retail Inventories Ex Autos MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1530" t="inlineStr"/>
-      <c r="D1530" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E1530" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F1530" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G1530" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1531">
-      <c r="A1531" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1531" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeMAY/09</t>
-        </is>
-      </c>
-      <c r="C1531" t="inlineStr"/>
-      <c r="D1531" t="inlineStr"/>
-      <c r="E1531" t="inlineStr"/>
-      <c r="F1531" t="inlineStr"/>
-      <c r="G1531" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1532">
-      <c r="A1532" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1532" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1532" t="inlineStr"/>
-      <c r="D1532" t="inlineStr"/>
-      <c r="E1532" t="inlineStr"/>
-      <c r="F1532" t="inlineStr"/>
-      <c r="G1532" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1533">
-      <c r="A1533" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1533" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1533" t="inlineStr"/>
-      <c r="D1533" t="inlineStr"/>
-      <c r="E1533" t="inlineStr"/>
-      <c r="F1533" t="inlineStr"/>
-      <c r="G1533" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1534">
-      <c r="A1534" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B1534" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateMAY/15</t>
-        </is>
-      </c>
-      <c r="C1534" t="inlineStr"/>
-      <c r="D1534" t="inlineStr"/>
-      <c r="E1534" t="inlineStr"/>
-      <c r="F1534" t="inlineStr"/>
-      <c r="G1534" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1535">
-      <c r="A1535" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B1535" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateMAY/15</t>
-        </is>
-      </c>
-      <c r="C1535" t="inlineStr"/>
-      <c r="D1535" t="inlineStr"/>
-      <c r="E1535" t="inlineStr"/>
-      <c r="F1535" t="inlineStr"/>
-      <c r="G1535" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1536">
-      <c r="A1536" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B1536" t="inlineStr">
-        <is>
-          <t>NOPA Crush Report</t>
-        </is>
-      </c>
-      <c r="C1536" t="inlineStr"/>
-      <c r="D1536" t="inlineStr"/>
-      <c r="E1536" t="inlineStr"/>
-      <c r="F1536" t="inlineStr"/>
-      <c r="G1536" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1537">
-      <c r="A1537" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B1537" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetMAY/14</t>
-        </is>
-      </c>
-      <c r="C1537" t="inlineStr"/>
-      <c r="D1537" t="inlineStr"/>
-      <c r="E1537" t="inlineStr"/>
-      <c r="F1537" t="inlineStr"/>
-      <c r="G1537" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1538">
-      <c r="A1538" t="inlineStr">
-        <is>
-          <t>Friday May 16 2025</t>
-        </is>
-      </c>
-      <c r="B1538" t="inlineStr"/>
-      <c r="C1538" t="inlineStr"/>
-      <c r="D1538" t="inlineStr"/>
-      <c r="E1538" t="inlineStr"/>
-      <c r="F1538" t="inlineStr"/>
-      <c r="G1538" t="inlineStr"/>
-    </row>
-    <row r="1539">
-      <c r="A1539" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1539" t="inlineStr">
-        <is>
-          <t>Building Permits PrelAPR</t>
-        </is>
-      </c>
-      <c r="C1539" t="inlineStr"/>
-      <c r="D1539" t="inlineStr">
-        <is>
-          <t>1.467M</t>
-        </is>
-      </c>
-      <c r="E1539" t="inlineStr"/>
-      <c r="F1539" t="inlineStr">
-        <is>
-          <t>1.45M</t>
-        </is>
-      </c>
-      <c r="G1539" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1540">
-      <c r="A1540" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1540" t="inlineStr">
-        <is>
-          <t>Housing StartsAPR</t>
-        </is>
-      </c>
-      <c r="C1540" t="inlineStr"/>
-      <c r="D1540" t="inlineStr">
-        <is>
-          <t>1.324M</t>
-        </is>
-      </c>
-      <c r="E1540" t="inlineStr"/>
-      <c r="F1540" t="inlineStr">
-        <is>
-          <t>1.31M</t>
-        </is>
-      </c>
-      <c r="G1540" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1541">
-      <c r="A1541" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1541" t="inlineStr">
-        <is>
-          <t>Building Permits MoM PrelAPR</t>
-        </is>
-      </c>
-      <c r="C1541" t="inlineStr"/>
-      <c r="D1541" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E1541" t="inlineStr"/>
-      <c r="F1541" t="inlineStr">
-        <is>
-          <t>-1.2%</t>
-        </is>
-      </c>
-      <c r="G1541" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1542">
-      <c r="A1542" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1542" t="inlineStr">
-        <is>
-          <t>Export Prices MoMAPR</t>
-        </is>
-      </c>
-      <c r="C1542" t="inlineStr"/>
-      <c r="D1542" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="E1542" t="inlineStr"/>
-      <c r="F1542" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G1542" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1543">
-      <c r="A1543" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1543" t="inlineStr">
-        <is>
-          <t>Housing Starts MoMAPR</t>
-        </is>
-      </c>
-      <c r="C1543" t="inlineStr"/>
-      <c r="D1543" t="inlineStr">
-        <is>
-          <t>-11.4%</t>
-        </is>
-      </c>
-      <c r="E1543" t="inlineStr"/>
-      <c r="F1543" t="inlineStr">
-        <is>
-          <t>-1%</t>
-        </is>
-      </c>
-      <c r="G1543" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1544">
-      <c r="A1544" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1544" t="inlineStr">
-        <is>
-          <t>Import Prices MoMAPR</t>
-        </is>
-      </c>
-      <c r="C1544" t="inlineStr"/>
-      <c r="D1544" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E1544" t="inlineStr"/>
-      <c r="F1544" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="G1544" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1545">
-      <c r="A1545" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1545" t="inlineStr">
-        <is>
-          <t>Export Prices YoYAPR</t>
-        </is>
-      </c>
-      <c r="C1545" t="inlineStr"/>
-      <c r="D1545" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="E1545" t="inlineStr"/>
-      <c r="F1545" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
-      <c r="G1545" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1546">
-      <c r="A1546" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1546" t="inlineStr">
-        <is>
-          <t>Import Prices YoYAPR</t>
-        </is>
-      </c>
-      <c r="C1546" t="inlineStr"/>
-      <c r="D1546" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="E1546" t="inlineStr"/>
-      <c r="F1546" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
-      <c r="G1546" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1547">
-      <c r="A1547" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1547" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Sentiment PrelMAY</t>
-        </is>
-      </c>
-      <c r="C1547" t="inlineStr"/>
-      <c r="D1547" t="inlineStr">
-        <is>
-          <t>52.2</t>
-        </is>
-      </c>
-      <c r="E1547" t="inlineStr"/>
-      <c r="F1547" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="G1547" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1548">
-      <c r="A1548" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1548" t="inlineStr">
-        <is>
-          <t>Michigan 5 Year Inflation Expectations PrelMAY</t>
-        </is>
-      </c>
-      <c r="C1548" t="inlineStr"/>
-      <c r="D1548" t="inlineStr">
-        <is>
-          <t>4.4%</t>
-        </is>
-      </c>
-      <c r="E1548" t="inlineStr"/>
-      <c r="F1548" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="G1548" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1549">
-      <c r="A1549" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1549" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Expectations PrelMAY</t>
-        </is>
-      </c>
-      <c r="C1549" t="inlineStr"/>
-      <c r="D1549" t="inlineStr">
-        <is>
-          <t>47.3</t>
-        </is>
-      </c>
-      <c r="E1549" t="inlineStr"/>
-      <c r="F1549" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="G1549" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1550">
-      <c r="A1550" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1550" t="inlineStr">
-        <is>
-          <t>Michigan Current Conditions PrelMAY</t>
-        </is>
-      </c>
-      <c r="C1550" t="inlineStr"/>
-      <c r="D1550" t="inlineStr">
-        <is>
-          <t>59.8</t>
-        </is>
-      </c>
-      <c r="E1550" t="inlineStr"/>
-      <c r="F1550" t="inlineStr">
-        <is>
-          <t>59.5</t>
-        </is>
-      </c>
-      <c r="G1550" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1551">
-      <c r="A1551" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1551" t="inlineStr">
-        <is>
-          <t>Michigan Inflation Expectations PrelMAY</t>
-        </is>
-      </c>
-      <c r="C1551" t="inlineStr"/>
-      <c r="D1551" t="inlineStr">
-        <is>
-          <t>6.5%</t>
-        </is>
-      </c>
-      <c r="E1551" t="inlineStr"/>
-      <c r="F1551" t="inlineStr">
-        <is>
-          <t>6.6%</t>
-        </is>
-      </c>
-      <c r="G1551" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1552">
-      <c r="A1552" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1552" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountMAY/16</t>
-        </is>
-      </c>
-      <c r="C1552" t="inlineStr"/>
-      <c r="D1552" t="inlineStr"/>
-      <c r="E1552" t="inlineStr"/>
-      <c r="F1552" t="inlineStr"/>
-      <c r="G1552" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1553">
-      <c r="A1553" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1553" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountMAY/16</t>
-        </is>
-      </c>
-      <c r="C1553" t="inlineStr"/>
-      <c r="D1553" t="inlineStr"/>
-      <c r="E1553" t="inlineStr"/>
-      <c r="F1553" t="inlineStr"/>
-      <c r="G1553" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1554">
-      <c r="A1554" t="inlineStr">
-        <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
-      <c r="B1554" t="inlineStr">
-        <is>
-          <t>Net Long-term TIC FlowsMAR</t>
-        </is>
-      </c>
-      <c r="C1554" t="inlineStr"/>
-      <c r="D1554" t="inlineStr">
-        <is>
-          <t>$112B</t>
-        </is>
-      </c>
-      <c r="E1554" t="inlineStr"/>
-      <c r="F1554" t="inlineStr"/>
-      <c r="G1554" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1555">
-      <c r="A1555" t="inlineStr">
-        <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
-      <c r="B1555" t="inlineStr">
-        <is>
-          <t>Foreign Bond InvestmentMAR</t>
-        </is>
-      </c>
-      <c r="C1555" t="inlineStr"/>
-      <c r="D1555" t="inlineStr">
-        <is>
-          <t>$106.2B</t>
-        </is>
-      </c>
-      <c r="E1555" t="inlineStr"/>
-      <c r="F1555" t="inlineStr"/>
-      <c r="G1555" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1556">
-      <c r="A1556" t="inlineStr">
-        <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
-      <c r="B1556" t="inlineStr">
-        <is>
-          <t>Overall Net Capital FlowsMAR</t>
-        </is>
-      </c>
-      <c r="C1556" t="inlineStr"/>
-      <c r="D1556" t="inlineStr">
-        <is>
-          <t>$284.7B</t>
-        </is>
-      </c>
-      <c r="E1556" t="inlineStr"/>
-      <c r="F1556" t="inlineStr"/>
-      <c r="G1556" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-05-16.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-05-16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1573"/>
+  <dimension ref="A1:G1509"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38268,10 +38268,8 @@
           <t>240.0K</t>
         </is>
       </c>
-      <c r="G1455" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1455" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1456">
@@ -38305,10 +38303,8 @@
           <t>-0.6%</t>
         </is>
       </c>
-      <c r="G1456" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1456" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1457">
@@ -38342,10 +38338,8 @@
           <t>5.5%</t>
         </is>
       </c>
-      <c r="G1457" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1457" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1458">
@@ -38379,10 +38373,8 @@
           <t>1921.0K</t>
         </is>
       </c>
-      <c r="G1458" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1458" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1459">
@@ -38412,10 +38404,8 @@
           <t>230.0K</t>
         </is>
       </c>
-      <c r="G1459" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1459" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1460">
@@ -38449,10 +38439,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="G1460" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1460" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1461">
@@ -38482,10 +38470,8 @@
         </is>
       </c>
       <c r="F1461" t="inlineStr"/>
-      <c r="G1461" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1461" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1462">
@@ -38515,10 +38501,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="G1462" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1462" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1463">
@@ -38540,10 +38524,8 @@
       </c>
       <c r="E1463" t="inlineStr"/>
       <c r="F1463" t="inlineStr"/>
-      <c r="G1463" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1463" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1464">
@@ -38565,10 +38547,8 @@
       </c>
       <c r="E1464" t="inlineStr"/>
       <c r="F1464" t="inlineStr"/>
-      <c r="G1464" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1464" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1465">
@@ -38590,10 +38570,8 @@
       </c>
       <c r="E1465" t="inlineStr"/>
       <c r="F1465" t="inlineStr"/>
-      <c r="G1465" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1465" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1466">
@@ -38615,10 +38593,8 @@
       </c>
       <c r="E1466" t="inlineStr"/>
       <c r="F1466" t="inlineStr"/>
-      <c r="G1466" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1466" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1467">
@@ -38640,10 +38616,8 @@
       </c>
       <c r="E1467" t="inlineStr"/>
       <c r="F1467" t="inlineStr"/>
-      <c r="G1467" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1467" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1468">
@@ -38665,64 +38639,90 @@
       </c>
       <c r="E1468" t="inlineStr"/>
       <c r="F1468" t="inlineStr"/>
-      <c r="G1468" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1468" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1469">
       <c r="A1469" t="inlineStr">
         <is>
-          <t>Friday May 09 2025</t>
-        </is>
-      </c>
-      <c r="B1469" t="inlineStr"/>
+          <t>07:30 AM</t>
+        </is>
+      </c>
+      <c r="B1469" t="inlineStr">
+        <is>
+          <t>Philly Fed Prices PaidMAY</t>
+        </is>
+      </c>
       <c r="C1469" t="inlineStr"/>
-      <c r="D1469" t="inlineStr"/>
+      <c r="D1469" t="inlineStr">
+        <is>
+          <t>51.00</t>
+        </is>
+      </c>
       <c r="E1469" t="inlineStr"/>
       <c r="F1469" t="inlineStr"/>
-      <c r="G1469" t="inlineStr"/>
+      <c r="G1469" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1470">
       <c r="A1470" t="inlineStr">
         <is>
-          <t>05:15 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1470" t="inlineStr">
         <is>
-          <t>Fed Williams Speech</t>
+          <t>PPIAPR</t>
         </is>
       </c>
       <c r="C1470" t="inlineStr"/>
-      <c r="D1470" t="inlineStr"/>
+      <c r="D1470" t="inlineStr">
+        <is>
+          <t>147.464</t>
+        </is>
+      </c>
       <c r="E1470" t="inlineStr"/>
-      <c r="F1470" t="inlineStr"/>
+      <c r="F1470" t="inlineStr">
+        <is>
+          <t>147.76</t>
+        </is>
+      </c>
       <c r="G1470" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1471">
       <c r="A1471" t="inlineStr">
         <is>
-          <t>05:45 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1471" t="inlineStr">
         <is>
-          <t>Fed Barr Speech</t>
+          <t>PPI Ex Food, Energy and Trade MoMAPR</t>
         </is>
       </c>
       <c r="C1471" t="inlineStr"/>
-      <c r="D1471" t="inlineStr"/>
+      <c r="D1471" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="E1471" t="inlineStr"/>
-      <c r="F1471" t="inlineStr"/>
+      <c r="F1471" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="G1471" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -38734,126 +38734,166 @@
       </c>
       <c r="B1472" t="inlineStr">
         <is>
-          <t>Fed Kugler Speech</t>
+          <t>PPI Ex Food, Energy and Trade YoYAPR</t>
         </is>
       </c>
       <c r="C1472" t="inlineStr"/>
-      <c r="D1472" t="inlineStr"/>
+      <c r="D1472" t="inlineStr">
+        <is>
+          <t>3.4%</t>
+        </is>
+      </c>
       <c r="E1472" t="inlineStr"/>
-      <c r="F1472" t="inlineStr"/>
+      <c r="F1472" t="inlineStr">
+        <is>
+          <t>3.4%</t>
+        </is>
+      </c>
       <c r="G1472" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1473">
       <c r="A1473" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1473" t="inlineStr">
         <is>
-          <t>Fed Goolsbee Speech</t>
+          <t>PPI YoYAPR</t>
         </is>
       </c>
       <c r="C1473" t="inlineStr"/>
-      <c r="D1473" t="inlineStr"/>
+      <c r="D1473" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
       <c r="E1473" t="inlineStr"/>
-      <c r="F1473" t="inlineStr"/>
+      <c r="F1473" t="inlineStr">
+        <is>
+          <t>3.1%</t>
+        </is>
+      </c>
       <c r="G1473" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1474">
       <c r="A1474" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1474" t="inlineStr">
         <is>
-          <t>Fed Waller Speech</t>
+          <t>Retail Sales Ex Gas/Autos MoMAPR</t>
         </is>
       </c>
       <c r="C1474" t="inlineStr"/>
-      <c r="D1474" t="inlineStr"/>
+      <c r="D1474" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="E1474" t="inlineStr"/>
-      <c r="F1474" t="inlineStr"/>
+      <c r="F1474" t="inlineStr">
+        <is>
+          <t>-0.3%</t>
+        </is>
+      </c>
       <c r="G1474" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1475">
       <c r="A1475" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1475" t="inlineStr">
         <is>
-          <t>Fed Williams Speech</t>
+          <t>Retail Sales YoYAPR</t>
         </is>
       </c>
       <c r="C1475" t="inlineStr"/>
-      <c r="D1475" t="inlineStr"/>
+      <c r="D1475" t="inlineStr">
+        <is>
+          <t>4.6%</t>
+        </is>
+      </c>
       <c r="E1475" t="inlineStr"/>
-      <c r="F1475" t="inlineStr"/>
+      <c r="F1475" t="inlineStr">
+        <is>
+          <t>1.1%</t>
+        </is>
+      </c>
       <c r="G1475" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1476">
       <c r="A1476" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>08:15 AM</t>
         </is>
       </c>
       <c r="B1476" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountMAY/09</t>
+          <t>Industrial Production MoMAPR</t>
         </is>
       </c>
       <c r="C1476" t="inlineStr"/>
       <c r="D1476" t="inlineStr">
         <is>
-          <t>479</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="E1476" t="inlineStr"/>
-      <c r="F1476" t="inlineStr"/>
+      <c r="F1476" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
       <c r="G1476" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1477">
       <c r="A1477" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>08:15 AM</t>
         </is>
       </c>
       <c r="B1477" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountMAY/09</t>
+          <t>Capacity UtilizationAPR</t>
         </is>
       </c>
       <c r="C1477" t="inlineStr"/>
       <c r="D1477" t="inlineStr">
         <is>
-          <t>584</t>
+          <t>77.8%</t>
         </is>
       </c>
       <c r="E1477" t="inlineStr"/>
-      <c r="F1477" t="inlineStr"/>
+      <c r="F1477" t="inlineStr">
+        <is>
+          <t>77.8%</t>
+        </is>
+      </c>
       <c r="G1477" t="inlineStr">
         <is>
           <t>3</t>
@@ -38863,111 +38903,175 @@
     <row r="1478">
       <c r="A1478" t="inlineStr">
         <is>
-          <t>06:45 PM</t>
+          <t>08:15 AM</t>
         </is>
       </c>
       <c r="B1478" t="inlineStr">
         <is>
-          <t>Fed Cook Speech</t>
+          <t>Industrial Production YoYAPR</t>
         </is>
       </c>
       <c r="C1478" t="inlineStr"/>
-      <c r="D1478" t="inlineStr"/>
+      <c r="D1478" t="inlineStr">
+        <is>
+          <t>1.3%</t>
+        </is>
+      </c>
       <c r="E1478" t="inlineStr"/>
-      <c r="F1478" t="inlineStr"/>
+      <c r="F1478" t="inlineStr">
+        <is>
+          <t>0.9%</t>
+        </is>
+      </c>
       <c r="G1478" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1479">
       <c r="A1479" t="inlineStr">
         <is>
-          <t>06:45 PM</t>
+          <t>08:15 AM</t>
         </is>
       </c>
       <c r="B1479" t="inlineStr">
         <is>
-          <t>Fed Hammack Speech</t>
+          <t>Manufacturing Production MoMAPR</t>
         </is>
       </c>
       <c r="C1479" t="inlineStr"/>
-      <c r="D1479" t="inlineStr"/>
+      <c r="D1479" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="E1479" t="inlineStr"/>
-      <c r="F1479" t="inlineStr"/>
+      <c r="F1479" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G1479" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1480">
       <c r="A1480" t="inlineStr">
         <is>
-          <t>06:45 PM</t>
+          <t>08:15 AM</t>
         </is>
       </c>
       <c r="B1480" t="inlineStr">
         <is>
-          <t>Fed Musalem Speech</t>
+          <t>Manufacturing Production YoYAPR</t>
         </is>
       </c>
       <c r="C1480" t="inlineStr"/>
-      <c r="D1480" t="inlineStr"/>
+      <c r="D1480" t="inlineStr">
+        <is>
+          <t>1%</t>
+        </is>
+      </c>
       <c r="E1480" t="inlineStr"/>
-      <c r="F1480" t="inlineStr"/>
+      <c r="F1480" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="G1480" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1481">
       <c r="A1481" t="inlineStr">
         <is>
-          <t>Sunday May 11 2025</t>
-        </is>
-      </c>
-      <c r="B1481" t="inlineStr"/>
+          <t>09:00 AM</t>
+        </is>
+      </c>
+      <c r="B1481" t="inlineStr">
+        <is>
+          <t>Business Inventories MoMMAR</t>
+        </is>
+      </c>
       <c r="C1481" t="inlineStr"/>
-      <c r="D1481" t="inlineStr"/>
+      <c r="D1481" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="E1481" t="inlineStr"/>
-      <c r="F1481" t="inlineStr"/>
-      <c r="G1481" t="inlineStr"/>
+      <c r="F1481" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="G1481" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1482">
       <c r="A1482" t="inlineStr">
         <is>
-          <t>Monday May 12 2025</t>
-        </is>
-      </c>
-      <c r="B1482" t="inlineStr"/>
+          <t>09:00 AM</t>
+        </is>
+      </c>
+      <c r="B1482" t="inlineStr">
+        <is>
+          <t>NAHB Housing Market IndexMAY</t>
+        </is>
+      </c>
       <c r="C1482" t="inlineStr"/>
-      <c r="D1482" t="inlineStr"/>
+      <c r="D1482" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
       <c r="E1482" t="inlineStr"/>
-      <c r="F1482" t="inlineStr"/>
-      <c r="G1482" t="inlineStr"/>
+      <c r="F1482" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="G1482" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1483">
       <c r="A1483" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1483" t="inlineStr">
         <is>
-          <t>NY Fed Treasury Purchases 4 to 6 yrs</t>
+          <t>Retail Inventories Ex Autos MoMMAR</t>
         </is>
       </c>
       <c r="C1483" t="inlineStr"/>
-      <c r="D1483" t="inlineStr"/>
+      <c r="D1483" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="E1483" t="inlineStr">
         <is>
-          <t>$75 million</t>
-        </is>
-      </c>
-      <c r="F1483" t="inlineStr"/>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="F1483" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="G1483" t="inlineStr">
         <is>
           <t>3</t>
@@ -38977,18 +39081,18 @@
     <row r="1484">
       <c r="A1484" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1484" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>EIA Natural Gas Stocks ChangeMAY/09</t>
         </is>
       </c>
       <c r="C1484" t="inlineStr"/>
       <c r="D1484" t="inlineStr">
         <is>
-          <t>4.220%</t>
+          <t>104Bcf</t>
         </is>
       </c>
       <c r="E1484" t="inlineStr"/>
@@ -39007,15 +39111,11 @@
       </c>
       <c r="B1485" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1485" t="inlineStr"/>
-      <c r="D1485" t="inlineStr">
-        <is>
-          <t>4.090%</t>
-        </is>
-      </c>
+      <c r="D1485" t="inlineStr"/>
       <c r="E1485" t="inlineStr"/>
       <c r="F1485" t="inlineStr"/>
       <c r="G1485" t="inlineStr">
@@ -39027,12 +39127,12 @@
     <row r="1486">
       <c r="A1486" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1486" t="inlineStr">
         <is>
-          <t>WASDE Report</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1486" t="inlineStr"/>
@@ -39048,68 +39148,60 @@
     <row r="1487">
       <c r="A1487" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1487" t="inlineStr">
         <is>
-          <t>Monthly Budget StatementAPR</t>
+          <t>15-Year Mortgage RateMAY/15</t>
         </is>
       </c>
       <c r="C1487" t="inlineStr"/>
-      <c r="D1487" t="inlineStr">
-        <is>
-          <t>$-161B</t>
-        </is>
-      </c>
+      <c r="D1487" t="inlineStr"/>
       <c r="E1487" t="inlineStr"/>
-      <c r="F1487" t="inlineStr">
-        <is>
-          <t>$235.0B</t>
-        </is>
-      </c>
+      <c r="F1487" t="inlineStr"/>
       <c r="G1487" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1488">
       <c r="A1488" t="inlineStr">
         <is>
-          <t>Tuesday May 13 2025</t>
-        </is>
-      </c>
-      <c r="B1488" t="inlineStr"/>
+          <t>11:00 AM</t>
+        </is>
+      </c>
+      <c r="B1488" t="inlineStr">
+        <is>
+          <t>30-Year Mortgage RateMAY/15</t>
+        </is>
+      </c>
       <c r="C1488" t="inlineStr"/>
       <c r="D1488" t="inlineStr"/>
       <c r="E1488" t="inlineStr"/>
       <c r="F1488" t="inlineStr"/>
-      <c r="G1488" t="inlineStr"/>
+      <c r="G1488" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1489">
       <c r="A1489" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1489" t="inlineStr">
         <is>
-          <t>NFIB Business Optimism IndexAPR</t>
+          <t>NOPA Crush Report</t>
         </is>
       </c>
       <c r="C1489" t="inlineStr"/>
-      <c r="D1489" t="inlineStr">
-        <is>
-          <t>97.4</t>
-        </is>
-      </c>
+      <c r="D1489" t="inlineStr"/>
       <c r="E1489" t="inlineStr"/>
-      <c r="F1489" t="inlineStr">
-        <is>
-          <t>91.5</t>
-        </is>
-      </c>
+      <c r="F1489" t="inlineStr"/>
       <c r="G1489" t="inlineStr">
         <is>
           <t>3</t>
@@ -39119,60 +39211,36 @@
     <row r="1490">
       <c r="A1490" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1490" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMAPR</t>
+          <t>Fed Balance SheetMAY/14</t>
         </is>
       </c>
       <c r="C1490" t="inlineStr"/>
-      <c r="D1490" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="D1490" t="inlineStr"/>
       <c r="E1490" t="inlineStr"/>
-      <c r="F1490" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="F1490" t="inlineStr"/>
       <c r="G1490" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1491">
       <c r="A1491" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1491" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate YoYAPR</t>
-        </is>
-      </c>
+          <t>Friday May 16 2025</t>
+        </is>
+      </c>
+      <c r="B1491" t="inlineStr"/>
       <c r="C1491" t="inlineStr"/>
-      <c r="D1491" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+      <c r="D1491" t="inlineStr"/>
       <c r="E1491" t="inlineStr"/>
-      <c r="F1491" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="G1491" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="F1491" t="inlineStr"/>
+      <c r="G1491" t="inlineStr"/>
     </row>
     <row r="1492">
       <c r="A1492" t="inlineStr">
@@ -39182,19 +39250,19 @@
       </c>
       <c r="B1492" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMAPR</t>
+          <t>Building Permits PrelAPR</t>
         </is>
       </c>
       <c r="C1492" t="inlineStr"/>
       <c r="D1492" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>1.467M</t>
         </is>
       </c>
       <c r="E1492" t="inlineStr"/>
       <c r="F1492" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>1.45M</t>
         </is>
       </c>
       <c r="G1492" t="inlineStr">
@@ -39211,19 +39279,19 @@
       </c>
       <c r="B1493" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYAPR</t>
+          <t>Housing StartsAPR</t>
         </is>
       </c>
       <c r="C1493" t="inlineStr"/>
       <c r="D1493" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>1.324M</t>
         </is>
       </c>
       <c r="E1493" t="inlineStr"/>
       <c r="F1493" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>1.31M</t>
         </is>
       </c>
       <c r="G1493" t="inlineStr">
@@ -39240,19 +39308,19 @@
       </c>
       <c r="B1494" t="inlineStr">
         <is>
-          <t>CPIAPR</t>
+          <t>Building Permits MoM PrelAPR</t>
         </is>
       </c>
       <c r="C1494" t="inlineStr"/>
       <c r="D1494" t="inlineStr">
         <is>
-          <t>319.799</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="E1494" t="inlineStr"/>
       <c r="F1494" t="inlineStr">
         <is>
-          <t>321.7</t>
+          <t>-1.2%</t>
         </is>
       </c>
       <c r="G1494" t="inlineStr">
@@ -39269,19 +39337,19 @@
       </c>
       <c r="B1495" t="inlineStr">
         <is>
-          <t>CPI s.aAPR</t>
+          <t>Export Prices MoMAPR</t>
         </is>
       </c>
       <c r="C1495" t="inlineStr"/>
       <c r="D1495" t="inlineStr">
         <is>
-          <t>319.615</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="E1495" t="inlineStr"/>
       <c r="F1495" t="inlineStr">
         <is>
-          <t>320.6</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G1495" t="inlineStr">
@@ -39293,72 +39361,84 @@
     <row r="1496">
       <c r="A1496" t="inlineStr">
         <is>
-          <t>07:55 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1496" t="inlineStr">
         <is>
-          <t>Redbook YoYMAY/10</t>
+          <t>Housing Starts MoMAPR</t>
         </is>
       </c>
       <c r="C1496" t="inlineStr"/>
       <c r="D1496" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>-11.4%</t>
         </is>
       </c>
       <c r="E1496" t="inlineStr"/>
-      <c r="F1496" t="inlineStr"/>
+      <c r="F1496" t="inlineStr">
+        <is>
+          <t>-1%</t>
+        </is>
+      </c>
       <c r="G1496" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1497">
       <c r="A1497" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1497" t="inlineStr">
         <is>
-          <t>Total Household DebtQ1</t>
+          <t>Import Prices MoMAPR</t>
         </is>
       </c>
       <c r="C1497" t="inlineStr"/>
       <c r="D1497" t="inlineStr">
         <is>
-          <t>$18.04T</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="E1497" t="inlineStr"/>
-      <c r="F1497" t="inlineStr"/>
+      <c r="F1497" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="G1497" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1498">
       <c r="A1498" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1498" t="inlineStr">
         <is>
-          <t>52-Week Bill Auction</t>
+          <t>Export Prices YoYAPR</t>
         </is>
       </c>
       <c r="C1498" t="inlineStr"/>
       <c r="D1498" t="inlineStr">
         <is>
-          <t>3.820%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="E1498" t="inlineStr"/>
-      <c r="F1498" t="inlineStr"/>
+      <c r="F1498" t="inlineStr">
+        <is>
+          <t>2%</t>
+        </is>
+      </c>
       <c r="G1498" t="inlineStr">
         <is>
           <t>3</t>
@@ -39368,85 +39448,113 @@
     <row r="1499">
       <c r="A1499" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1499" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeMAY/09</t>
+          <t>Import Prices YoYAPR</t>
         </is>
       </c>
       <c r="C1499" t="inlineStr"/>
       <c r="D1499" t="inlineStr">
         <is>
-          <t>-4.49M</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="E1499" t="inlineStr"/>
-      <c r="F1499" t="inlineStr"/>
+      <c r="F1499" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
       <c r="G1499" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1500">
       <c r="A1500" t="inlineStr">
         <is>
-          <t>Wednesday May 14 2025</t>
-        </is>
-      </c>
-      <c r="B1500" t="inlineStr"/>
+          <t>09:00 AM</t>
+        </is>
+      </c>
+      <c r="B1500" t="inlineStr">
+        <is>
+          <t>Michigan Consumer Sentiment PrelMAY</t>
+        </is>
+      </c>
       <c r="C1500" t="inlineStr"/>
-      <c r="D1500" t="inlineStr"/>
+      <c r="D1500" t="inlineStr">
+        <is>
+          <t>52.2</t>
+        </is>
+      </c>
       <c r="E1500" t="inlineStr"/>
-      <c r="F1500" t="inlineStr"/>
-      <c r="G1500" t="inlineStr"/>
+      <c r="F1500" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="G1500" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="1501">
       <c r="A1501" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1501" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateMAY/09</t>
+          <t>Michigan 5 Year Inflation Expectations PrelMAY</t>
         </is>
       </c>
       <c r="C1501" t="inlineStr"/>
       <c r="D1501" t="inlineStr">
         <is>
-          <t>6.84%</t>
+          <t>4.4%</t>
         </is>
       </c>
       <c r="E1501" t="inlineStr"/>
-      <c r="F1501" t="inlineStr"/>
+      <c r="F1501" t="inlineStr">
+        <is>
+          <t>4.5%</t>
+        </is>
+      </c>
       <c r="G1501" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1502">
       <c r="A1502" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1502" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsMAY/09</t>
+          <t>Michigan Consumer Expectations PrelMAY</t>
         </is>
       </c>
       <c r="C1502" t="inlineStr"/>
       <c r="D1502" t="inlineStr">
         <is>
-          <t>11%</t>
+          <t>47.3</t>
         </is>
       </c>
       <c r="E1502" t="inlineStr"/>
-      <c r="F1502" t="inlineStr"/>
+      <c r="F1502" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
       <c r="G1502" t="inlineStr">
         <is>
           <t>3</t>
@@ -39456,22 +39564,26 @@
     <row r="1503">
       <c r="A1503" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1503" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexMAY/09</t>
+          <t>Michigan Current Conditions PrelMAY</t>
         </is>
       </c>
       <c r="C1503" t="inlineStr"/>
       <c r="D1503" t="inlineStr">
         <is>
-          <t>248.4</t>
+          <t>59.8</t>
         </is>
       </c>
       <c r="E1503" t="inlineStr"/>
-      <c r="F1503" t="inlineStr"/>
+      <c r="F1503" t="inlineStr">
+        <is>
+          <t>59.5</t>
+        </is>
+      </c>
       <c r="G1503" t="inlineStr">
         <is>
           <t>3</t>
@@ -39481,22 +39593,26 @@
     <row r="1504">
       <c r="A1504" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1504" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexMAY/09</t>
+          <t>Michigan Inflation Expectations PrelMAY</t>
         </is>
       </c>
       <c r="C1504" t="inlineStr"/>
       <c r="D1504" t="inlineStr">
         <is>
-          <t>721</t>
+          <t>6.5%</t>
         </is>
       </c>
       <c r="E1504" t="inlineStr"/>
-      <c r="F1504" t="inlineStr"/>
+      <c r="F1504" t="inlineStr">
+        <is>
+          <t>6.6%</t>
+        </is>
+      </c>
       <c r="G1504" t="inlineStr">
         <is>
           <t>3</t>
@@ -39506,20 +39622,16 @@
     <row r="1505">
       <c r="A1505" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B1505" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexMAY/09</t>
+          <t>Baker Hughes Oil Rig CountMAY/16</t>
         </is>
       </c>
       <c r="C1505" t="inlineStr"/>
-      <c r="D1505" t="inlineStr">
-        <is>
-          <t>162.8</t>
-        </is>
-      </c>
+      <c r="D1505" t="inlineStr"/>
       <c r="E1505" t="inlineStr"/>
       <c r="F1505" t="inlineStr"/>
       <c r="G1505" t="inlineStr">
@@ -39531,43 +39643,39 @@
     <row r="1506">
       <c r="A1506" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B1506" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Stocks ChangeMAY/09</t>
+          <t>Baker Hughes Total Rigs CountMAY/16</t>
         </is>
       </c>
       <c r="C1506" t="inlineStr"/>
-      <c r="D1506" t="inlineStr">
-        <is>
-          <t>-2.032M</t>
-        </is>
-      </c>
+      <c r="D1506" t="inlineStr"/>
       <c r="E1506" t="inlineStr"/>
       <c r="F1506" t="inlineStr"/>
       <c r="G1506" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1507">
       <c r="A1507" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B1507" t="inlineStr">
         <is>
-          <t>EIA Gasoline Stocks ChangeMAY/09</t>
+          <t>Net Long-term TIC FlowsMAR</t>
         </is>
       </c>
       <c r="C1507" t="inlineStr"/>
       <c r="D1507" t="inlineStr">
         <is>
-          <t>0.188M</t>
+          <t>$112B</t>
         </is>
       </c>
       <c r="E1507" t="inlineStr"/>
@@ -39581,18 +39689,18 @@
     <row r="1508">
       <c r="A1508" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B1508" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Imports ChangeMAY/09</t>
+          <t>Foreign Bond InvestmentMAR</t>
         </is>
       </c>
       <c r="C1508" t="inlineStr"/>
       <c r="D1508" t="inlineStr">
         <is>
-          <t>0.673M</t>
+          <t>$106.2B</t>
         </is>
       </c>
       <c r="E1508" t="inlineStr"/>
@@ -39606,1707 +39714,23 @@
     <row r="1509">
       <c r="A1509" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B1509" t="inlineStr">
         <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeMAY/09</t>
+          <t>Overall Net Capital FlowsMAR</t>
         </is>
       </c>
       <c r="C1509" t="inlineStr"/>
       <c r="D1509" t="inlineStr">
         <is>
-          <t>-0.74M</t>
+          <t>$284.7B</t>
         </is>
       </c>
       <c r="E1509" t="inlineStr"/>
       <c r="F1509" t="inlineStr"/>
       <c r="G1509" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1510">
-      <c r="A1510" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1510" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeMAY/09</t>
-        </is>
-      </c>
-      <c r="C1510" t="inlineStr"/>
-      <c r="D1510" t="inlineStr">
-        <is>
-          <t>0.041M</t>
-        </is>
-      </c>
-      <c r="E1510" t="inlineStr"/>
-      <c r="F1510" t="inlineStr"/>
-      <c r="G1510" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1511">
-      <c r="A1511" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1511" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeMAY/09</t>
-        </is>
-      </c>
-      <c r="C1511" t="inlineStr"/>
-      <c r="D1511" t="inlineStr">
-        <is>
-          <t>-1.107M</t>
-        </is>
-      </c>
-      <c r="E1511" t="inlineStr"/>
-      <c r="F1511" t="inlineStr"/>
-      <c r="G1511" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1512">
-      <c r="A1512" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1512" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeMAY/09</t>
-        </is>
-      </c>
-      <c r="C1512" t="inlineStr"/>
-      <c r="D1512" t="inlineStr">
-        <is>
-          <t>0.253M</t>
-        </is>
-      </c>
-      <c r="E1512" t="inlineStr"/>
-      <c r="F1512" t="inlineStr"/>
-      <c r="G1512" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1513">
-      <c r="A1513" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1513" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeMAY/09</t>
-        </is>
-      </c>
-      <c r="C1513" t="inlineStr"/>
-      <c r="D1513" t="inlineStr">
-        <is>
-          <t>0.123M</t>
-        </is>
-      </c>
-      <c r="E1513" t="inlineStr"/>
-      <c r="F1513" t="inlineStr"/>
-      <c r="G1513" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1514">
-      <c r="A1514" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1514" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeMAY/09</t>
-        </is>
-      </c>
-      <c r="C1514" t="inlineStr"/>
-      <c r="D1514" t="inlineStr">
-        <is>
-          <t>-0.007M</t>
-        </is>
-      </c>
-      <c r="E1514" t="inlineStr"/>
-      <c r="F1514" t="inlineStr"/>
-      <c r="G1514" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1515">
-      <c r="A1515" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1515" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1515" t="inlineStr"/>
-      <c r="D1515" t="inlineStr">
-        <is>
-          <t>4.200%</t>
-        </is>
-      </c>
-      <c r="E1515" t="inlineStr"/>
-      <c r="F1515" t="inlineStr"/>
-      <c r="G1515" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1516">
-      <c r="A1516" t="inlineStr">
-        <is>
-          <t>04:40 PM</t>
-        </is>
-      </c>
-      <c r="B1516" t="inlineStr">
-        <is>
-          <t>Fed Daly Speech</t>
-        </is>
-      </c>
-      <c r="C1516" t="inlineStr"/>
-      <c r="D1516" t="inlineStr"/>
-      <c r="E1516" t="inlineStr"/>
-      <c r="F1516" t="inlineStr"/>
-      <c r="G1516" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1517">
-      <c r="A1517" t="inlineStr">
-        <is>
-          <t>Thursday May 15 2025</t>
-        </is>
-      </c>
-      <c r="B1517" t="inlineStr"/>
-      <c r="C1517" t="inlineStr"/>
-      <c r="D1517" t="inlineStr"/>
-      <c r="E1517" t="inlineStr"/>
-      <c r="F1517" t="inlineStr"/>
-      <c r="G1517" t="inlineStr"/>
-    </row>
-    <row r="1518">
-      <c r="A1518" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1518" t="inlineStr">
-        <is>
-          <t>PPI MoMAPR</t>
-        </is>
-      </c>
-      <c r="C1518" t="inlineStr"/>
-      <c r="D1518" t="inlineStr">
-        <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
-      <c r="E1518" t="inlineStr"/>
-      <c r="F1518" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G1518" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1519">
-      <c r="A1519" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1519" t="inlineStr">
-        <is>
-          <t>Retail Sales MoMAPR</t>
-        </is>
-      </c>
-      <c r="C1519" t="inlineStr"/>
-      <c r="D1519" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
-      <c r="E1519" t="inlineStr"/>
-      <c r="F1519" t="inlineStr">
-        <is>
-          <t>-0.8%</t>
-        </is>
-      </c>
-      <c r="G1519" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1520">
-      <c r="A1520" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1520" t="inlineStr">
-        <is>
-          <t>Core PPI MoMAPR</t>
-        </is>
-      </c>
-      <c r="C1520" t="inlineStr"/>
-      <c r="D1520" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E1520" t="inlineStr"/>
-      <c r="F1520" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G1520" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1521">
-      <c r="A1521" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1521" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsMAY/10</t>
-        </is>
-      </c>
-      <c r="C1521" t="inlineStr"/>
-      <c r="D1521" t="inlineStr">
-        <is>
-          <t>228K</t>
-        </is>
-      </c>
-      <c r="E1521" t="inlineStr"/>
-      <c r="F1521" t="inlineStr"/>
-      <c r="G1521" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1522">
-      <c r="A1522" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1522" t="inlineStr">
-        <is>
-          <t>NY Empire State Manufacturing IndexMAY</t>
-        </is>
-      </c>
-      <c r="C1522" t="inlineStr"/>
-      <c r="D1522" t="inlineStr">
-        <is>
-          <t>-8.10</t>
-        </is>
-      </c>
-      <c r="E1522" t="inlineStr"/>
-      <c r="F1522" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="G1522" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1523">
-      <c r="A1523" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1523" t="inlineStr">
-        <is>
-          <t>Philadelphia Fed Manufacturing IndexMAY</t>
-        </is>
-      </c>
-      <c r="C1523" t="inlineStr"/>
-      <c r="D1523" t="inlineStr">
-        <is>
-          <t>-26.4</t>
-        </is>
-      </c>
-      <c r="E1523" t="inlineStr"/>
-      <c r="F1523" t="inlineStr">
-        <is>
-          <t>-25</t>
-        </is>
-      </c>
-      <c r="G1523" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1524">
-      <c r="A1524" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1524" t="inlineStr">
-        <is>
-          <t>Retail Sales Control Group MoMAPR</t>
-        </is>
-      </c>
-      <c r="C1524" t="inlineStr"/>
-      <c r="D1524" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E1524" t="inlineStr"/>
-      <c r="F1524" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="G1524" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1525">
-      <c r="A1525" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1525" t="inlineStr">
-        <is>
-          <t>Retail Sales Ex Autos MoMAPR</t>
-        </is>
-      </c>
-      <c r="C1525" t="inlineStr"/>
-      <c r="D1525" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E1525" t="inlineStr"/>
-      <c r="F1525" t="inlineStr">
-        <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
-      <c r="G1525" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1526">
-      <c r="A1526" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1526" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsMAY/03</t>
-        </is>
-      </c>
-      <c r="C1526" t="inlineStr"/>
-      <c r="D1526" t="inlineStr">
-        <is>
-          <t>1879K</t>
-        </is>
-      </c>
-      <c r="E1526" t="inlineStr"/>
-      <c r="F1526" t="inlineStr"/>
-      <c r="G1526" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1527">
-      <c r="A1527" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1527" t="inlineStr">
-        <is>
-          <t>Core PPI YoYAPR</t>
-        </is>
-      </c>
-      <c r="C1527" t="inlineStr"/>
-      <c r="D1527" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="E1527" t="inlineStr"/>
-      <c r="F1527" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="G1527" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1528">
-      <c r="A1528" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1528" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageMAY/10</t>
-        </is>
-      </c>
-      <c r="C1528" t="inlineStr"/>
-      <c r="D1528" t="inlineStr">
-        <is>
-          <t>227K</t>
-        </is>
-      </c>
-      <c r="E1528" t="inlineStr"/>
-      <c r="F1528" t="inlineStr"/>
-      <c r="G1528" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1529">
-      <c r="A1529" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1529" t="inlineStr">
-        <is>
-          <t>Philly Fed Business ConditionsMAY</t>
-        </is>
-      </c>
-      <c r="C1529" t="inlineStr"/>
-      <c r="D1529" t="inlineStr">
-        <is>
-          <t>6.9</t>
-        </is>
-      </c>
-      <c r="E1529" t="inlineStr"/>
-      <c r="F1529" t="inlineStr"/>
-      <c r="G1529" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1530">
-      <c r="A1530" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1530" t="inlineStr">
-        <is>
-          <t>Philly Fed CAPEX IndexMAY</t>
-        </is>
-      </c>
-      <c r="C1530" t="inlineStr"/>
-      <c r="D1530" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E1530" t="inlineStr"/>
-      <c r="F1530" t="inlineStr"/>
-      <c r="G1530" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1531">
-      <c r="A1531" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1531" t="inlineStr">
-        <is>
-          <t>Philly Fed EmploymentMAY</t>
-        </is>
-      </c>
-      <c r="C1531" t="inlineStr"/>
-      <c r="D1531" t="inlineStr">
-        <is>
-          <t>0.2</t>
-        </is>
-      </c>
-      <c r="E1531" t="inlineStr"/>
-      <c r="F1531" t="inlineStr"/>
-      <c r="G1531" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1532">
-      <c r="A1532" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1532" t="inlineStr">
-        <is>
-          <t>Philly Fed New OrdersMAY</t>
-        </is>
-      </c>
-      <c r="C1532" t="inlineStr"/>
-      <c r="D1532" t="inlineStr">
-        <is>
-          <t>-34.2</t>
-        </is>
-      </c>
-      <c r="E1532" t="inlineStr"/>
-      <c r="F1532" t="inlineStr"/>
-      <c r="G1532" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1533">
-      <c r="A1533" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1533" t="inlineStr">
-        <is>
-          <t>Philly Fed Prices PaidMAY</t>
-        </is>
-      </c>
-      <c r="C1533" t="inlineStr"/>
-      <c r="D1533" t="inlineStr">
-        <is>
-          <t>51.00</t>
-        </is>
-      </c>
-      <c r="E1533" t="inlineStr"/>
-      <c r="F1533" t="inlineStr"/>
-      <c r="G1533" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1534">
-      <c r="A1534" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1534" t="inlineStr">
-        <is>
-          <t>PPIAPR</t>
-        </is>
-      </c>
-      <c r="C1534" t="inlineStr"/>
-      <c r="D1534" t="inlineStr">
-        <is>
-          <t>147.464</t>
-        </is>
-      </c>
-      <c r="E1534" t="inlineStr"/>
-      <c r="F1534" t="inlineStr">
-        <is>
-          <t>147.76</t>
-        </is>
-      </c>
-      <c r="G1534" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1535">
-      <c r="A1535" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1535" t="inlineStr">
-        <is>
-          <t>PPI Ex Food, Energy and Trade MoMAPR</t>
-        </is>
-      </c>
-      <c r="C1535" t="inlineStr"/>
-      <c r="D1535" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E1535" t="inlineStr"/>
-      <c r="F1535" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G1535" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1536">
-      <c r="A1536" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1536" t="inlineStr">
-        <is>
-          <t>PPI Ex Food, Energy and Trade YoYAPR</t>
-        </is>
-      </c>
-      <c r="C1536" t="inlineStr"/>
-      <c r="D1536" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="E1536" t="inlineStr"/>
-      <c r="F1536" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="G1536" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1537">
-      <c r="A1537" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1537" t="inlineStr">
-        <is>
-          <t>PPI YoYAPR</t>
-        </is>
-      </c>
-      <c r="C1537" t="inlineStr"/>
-      <c r="D1537" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="E1537" t="inlineStr"/>
-      <c r="F1537" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
-      <c r="G1537" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1538">
-      <c r="A1538" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1538" t="inlineStr">
-        <is>
-          <t>Retail Sales Ex Gas/Autos MoMAPR</t>
-        </is>
-      </c>
-      <c r="C1538" t="inlineStr"/>
-      <c r="D1538" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="E1538" t="inlineStr"/>
-      <c r="F1538" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="G1538" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1539">
-      <c r="A1539" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1539" t="inlineStr">
-        <is>
-          <t>Retail Sales YoYAPR</t>
-        </is>
-      </c>
-      <c r="C1539" t="inlineStr"/>
-      <c r="D1539" t="inlineStr">
-        <is>
-          <t>4.6%</t>
-        </is>
-      </c>
-      <c r="E1539" t="inlineStr"/>
-      <c r="F1539" t="inlineStr">
-        <is>
-          <t>1.1%</t>
-        </is>
-      </c>
-      <c r="G1539" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1540">
-      <c r="A1540" t="inlineStr">
-        <is>
-          <t>08:15 AM</t>
-        </is>
-      </c>
-      <c r="B1540" t="inlineStr">
-        <is>
-          <t>Industrial Production MoMAPR</t>
-        </is>
-      </c>
-      <c r="C1540" t="inlineStr"/>
-      <c r="D1540" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="E1540" t="inlineStr"/>
-      <c r="F1540" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="G1540" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1541">
-      <c r="A1541" t="inlineStr">
-        <is>
-          <t>08:15 AM</t>
-        </is>
-      </c>
-      <c r="B1541" t="inlineStr">
-        <is>
-          <t>Capacity UtilizationAPR</t>
-        </is>
-      </c>
-      <c r="C1541" t="inlineStr"/>
-      <c r="D1541" t="inlineStr">
-        <is>
-          <t>77.8%</t>
-        </is>
-      </c>
-      <c r="E1541" t="inlineStr"/>
-      <c r="F1541" t="inlineStr">
-        <is>
-          <t>77.8%</t>
-        </is>
-      </c>
-      <c r="G1541" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1542">
-      <c r="A1542" t="inlineStr">
-        <is>
-          <t>08:15 AM</t>
-        </is>
-      </c>
-      <c r="B1542" t="inlineStr">
-        <is>
-          <t>Industrial Production YoYAPR</t>
-        </is>
-      </c>
-      <c r="C1542" t="inlineStr"/>
-      <c r="D1542" t="inlineStr">
-        <is>
-          <t>1.3%</t>
-        </is>
-      </c>
-      <c r="E1542" t="inlineStr"/>
-      <c r="F1542" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="G1542" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1543">
-      <c r="A1543" t="inlineStr">
-        <is>
-          <t>08:15 AM</t>
-        </is>
-      </c>
-      <c r="B1543" t="inlineStr">
-        <is>
-          <t>Manufacturing Production MoMAPR</t>
-        </is>
-      </c>
-      <c r="C1543" t="inlineStr"/>
-      <c r="D1543" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E1543" t="inlineStr"/>
-      <c r="F1543" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G1543" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1544">
-      <c r="A1544" t="inlineStr">
-        <is>
-          <t>08:15 AM</t>
-        </is>
-      </c>
-      <c r="B1544" t="inlineStr">
-        <is>
-          <t>Manufacturing Production YoYAPR</t>
-        </is>
-      </c>
-      <c r="C1544" t="inlineStr"/>
-      <c r="D1544" t="inlineStr">
-        <is>
-          <t>1%</t>
-        </is>
-      </c>
-      <c r="E1544" t="inlineStr"/>
-      <c r="F1544" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="G1544" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1545">
-      <c r="A1545" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1545" t="inlineStr">
-        <is>
-          <t>Business Inventories MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1545" t="inlineStr"/>
-      <c r="D1545" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E1545" t="inlineStr"/>
-      <c r="F1545" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G1545" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1546">
-      <c r="A1546" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1546" t="inlineStr">
-        <is>
-          <t>NAHB Housing Market IndexMAY</t>
-        </is>
-      </c>
-      <c r="C1546" t="inlineStr"/>
-      <c r="D1546" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="E1546" t="inlineStr"/>
-      <c r="F1546" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="G1546" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1547">
-      <c r="A1547" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1547" t="inlineStr">
-        <is>
-          <t>Retail Inventories Ex Autos MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1547" t="inlineStr"/>
-      <c r="D1547" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E1547" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F1547" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G1547" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1548">
-      <c r="A1548" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1548" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeMAY/09</t>
-        </is>
-      </c>
-      <c r="C1548" t="inlineStr"/>
-      <c r="D1548" t="inlineStr">
-        <is>
-          <t>104Bcf</t>
-        </is>
-      </c>
-      <c r="E1548" t="inlineStr"/>
-      <c r="F1548" t="inlineStr"/>
-      <c r="G1548" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1549">
-      <c r="A1549" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1549" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1549" t="inlineStr"/>
-      <c r="D1549" t="inlineStr"/>
-      <c r="E1549" t="inlineStr"/>
-      <c r="F1549" t="inlineStr"/>
-      <c r="G1549" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1550">
-      <c r="A1550" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1550" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1550" t="inlineStr"/>
-      <c r="D1550" t="inlineStr"/>
-      <c r="E1550" t="inlineStr"/>
-      <c r="F1550" t="inlineStr"/>
-      <c r="G1550" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1551">
-      <c r="A1551" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B1551" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateMAY/15</t>
-        </is>
-      </c>
-      <c r="C1551" t="inlineStr"/>
-      <c r="D1551" t="inlineStr"/>
-      <c r="E1551" t="inlineStr"/>
-      <c r="F1551" t="inlineStr"/>
-      <c r="G1551" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1552">
-      <c r="A1552" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B1552" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateMAY/15</t>
-        </is>
-      </c>
-      <c r="C1552" t="inlineStr"/>
-      <c r="D1552" t="inlineStr"/>
-      <c r="E1552" t="inlineStr"/>
-      <c r="F1552" t="inlineStr"/>
-      <c r="G1552" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1553">
-      <c r="A1553" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B1553" t="inlineStr">
-        <is>
-          <t>NOPA Crush Report</t>
-        </is>
-      </c>
-      <c r="C1553" t="inlineStr"/>
-      <c r="D1553" t="inlineStr"/>
-      <c r="E1553" t="inlineStr"/>
-      <c r="F1553" t="inlineStr"/>
-      <c r="G1553" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1554">
-      <c r="A1554" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B1554" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetMAY/14</t>
-        </is>
-      </c>
-      <c r="C1554" t="inlineStr"/>
-      <c r="D1554" t="inlineStr"/>
-      <c r="E1554" t="inlineStr"/>
-      <c r="F1554" t="inlineStr"/>
-      <c r="G1554" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1555">
-      <c r="A1555" t="inlineStr">
-        <is>
-          <t>Friday May 16 2025</t>
-        </is>
-      </c>
-      <c r="B1555" t="inlineStr"/>
-      <c r="C1555" t="inlineStr"/>
-      <c r="D1555" t="inlineStr"/>
-      <c r="E1555" t="inlineStr"/>
-      <c r="F1555" t="inlineStr"/>
-      <c r="G1555" t="inlineStr"/>
-    </row>
-    <row r="1556">
-      <c r="A1556" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1556" t="inlineStr">
-        <is>
-          <t>Building Permits PrelAPR</t>
-        </is>
-      </c>
-      <c r="C1556" t="inlineStr"/>
-      <c r="D1556" t="inlineStr">
-        <is>
-          <t>1.467M</t>
-        </is>
-      </c>
-      <c r="E1556" t="inlineStr"/>
-      <c r="F1556" t="inlineStr">
-        <is>
-          <t>1.45M</t>
-        </is>
-      </c>
-      <c r="G1556" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1557">
-      <c r="A1557" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1557" t="inlineStr">
-        <is>
-          <t>Housing StartsAPR</t>
-        </is>
-      </c>
-      <c r="C1557" t="inlineStr"/>
-      <c r="D1557" t="inlineStr">
-        <is>
-          <t>1.324M</t>
-        </is>
-      </c>
-      <c r="E1557" t="inlineStr"/>
-      <c r="F1557" t="inlineStr">
-        <is>
-          <t>1.31M</t>
-        </is>
-      </c>
-      <c r="G1557" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1558">
-      <c r="A1558" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1558" t="inlineStr">
-        <is>
-          <t>Building Permits MoM PrelAPR</t>
-        </is>
-      </c>
-      <c r="C1558" t="inlineStr"/>
-      <c r="D1558" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E1558" t="inlineStr"/>
-      <c r="F1558" t="inlineStr">
-        <is>
-          <t>-1.2%</t>
-        </is>
-      </c>
-      <c r="G1558" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1559">
-      <c r="A1559" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1559" t="inlineStr">
-        <is>
-          <t>Export Prices MoMAPR</t>
-        </is>
-      </c>
-      <c r="C1559" t="inlineStr"/>
-      <c r="D1559" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="E1559" t="inlineStr"/>
-      <c r="F1559" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G1559" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1560">
-      <c r="A1560" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1560" t="inlineStr">
-        <is>
-          <t>Housing Starts MoMAPR</t>
-        </is>
-      </c>
-      <c r="C1560" t="inlineStr"/>
-      <c r="D1560" t="inlineStr">
-        <is>
-          <t>-11.4%</t>
-        </is>
-      </c>
-      <c r="E1560" t="inlineStr"/>
-      <c r="F1560" t="inlineStr">
-        <is>
-          <t>-1%</t>
-        </is>
-      </c>
-      <c r="G1560" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1561">
-      <c r="A1561" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1561" t="inlineStr">
-        <is>
-          <t>Import Prices MoMAPR</t>
-        </is>
-      </c>
-      <c r="C1561" t="inlineStr"/>
-      <c r="D1561" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E1561" t="inlineStr"/>
-      <c r="F1561" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="G1561" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1562">
-      <c r="A1562" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1562" t="inlineStr">
-        <is>
-          <t>Export Prices YoYAPR</t>
-        </is>
-      </c>
-      <c r="C1562" t="inlineStr"/>
-      <c r="D1562" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="E1562" t="inlineStr"/>
-      <c r="F1562" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
-      <c r="G1562" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1563">
-      <c r="A1563" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1563" t="inlineStr">
-        <is>
-          <t>Import Prices YoYAPR</t>
-        </is>
-      </c>
-      <c r="C1563" t="inlineStr"/>
-      <c r="D1563" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="E1563" t="inlineStr"/>
-      <c r="F1563" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
-      <c r="G1563" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1564">
-      <c r="A1564" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1564" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Sentiment PrelMAY</t>
-        </is>
-      </c>
-      <c r="C1564" t="inlineStr"/>
-      <c r="D1564" t="inlineStr">
-        <is>
-          <t>52.2</t>
-        </is>
-      </c>
-      <c r="E1564" t="inlineStr"/>
-      <c r="F1564" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="G1564" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1565">
-      <c r="A1565" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1565" t="inlineStr">
-        <is>
-          <t>Michigan 5 Year Inflation Expectations PrelMAY</t>
-        </is>
-      </c>
-      <c r="C1565" t="inlineStr"/>
-      <c r="D1565" t="inlineStr">
-        <is>
-          <t>4.4%</t>
-        </is>
-      </c>
-      <c r="E1565" t="inlineStr"/>
-      <c r="F1565" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="G1565" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1566">
-      <c r="A1566" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1566" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Expectations PrelMAY</t>
-        </is>
-      </c>
-      <c r="C1566" t="inlineStr"/>
-      <c r="D1566" t="inlineStr">
-        <is>
-          <t>47.3</t>
-        </is>
-      </c>
-      <c r="E1566" t="inlineStr"/>
-      <c r="F1566" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="G1566" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1567">
-      <c r="A1567" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1567" t="inlineStr">
-        <is>
-          <t>Michigan Current Conditions PrelMAY</t>
-        </is>
-      </c>
-      <c r="C1567" t="inlineStr"/>
-      <c r="D1567" t="inlineStr">
-        <is>
-          <t>59.8</t>
-        </is>
-      </c>
-      <c r="E1567" t="inlineStr"/>
-      <c r="F1567" t="inlineStr">
-        <is>
-          <t>59.5</t>
-        </is>
-      </c>
-      <c r="G1567" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1568">
-      <c r="A1568" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1568" t="inlineStr">
-        <is>
-          <t>Michigan Inflation Expectations PrelMAY</t>
-        </is>
-      </c>
-      <c r="C1568" t="inlineStr"/>
-      <c r="D1568" t="inlineStr">
-        <is>
-          <t>6.5%</t>
-        </is>
-      </c>
-      <c r="E1568" t="inlineStr"/>
-      <c r="F1568" t="inlineStr">
-        <is>
-          <t>6.6%</t>
-        </is>
-      </c>
-      <c r="G1568" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1569">
-      <c r="A1569" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1569" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountMAY/16</t>
-        </is>
-      </c>
-      <c r="C1569" t="inlineStr"/>
-      <c r="D1569" t="inlineStr"/>
-      <c r="E1569" t="inlineStr"/>
-      <c r="F1569" t="inlineStr"/>
-      <c r="G1569" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1570">
-      <c r="A1570" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1570" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountMAY/16</t>
-        </is>
-      </c>
-      <c r="C1570" t="inlineStr"/>
-      <c r="D1570" t="inlineStr"/>
-      <c r="E1570" t="inlineStr"/>
-      <c r="F1570" t="inlineStr"/>
-      <c r="G1570" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1571">
-      <c r="A1571" t="inlineStr">
-        <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
-      <c r="B1571" t="inlineStr">
-        <is>
-          <t>Net Long-term TIC FlowsMAR</t>
-        </is>
-      </c>
-      <c r="C1571" t="inlineStr"/>
-      <c r="D1571" t="inlineStr">
-        <is>
-          <t>$112B</t>
-        </is>
-      </c>
-      <c r="E1571" t="inlineStr"/>
-      <c r="F1571" t="inlineStr"/>
-      <c r="G1571" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1572">
-      <c r="A1572" t="inlineStr">
-        <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
-      <c r="B1572" t="inlineStr">
-        <is>
-          <t>Foreign Bond InvestmentMAR</t>
-        </is>
-      </c>
-      <c r="C1572" t="inlineStr"/>
-      <c r="D1572" t="inlineStr">
-        <is>
-          <t>$106.2B</t>
-        </is>
-      </c>
-      <c r="E1572" t="inlineStr"/>
-      <c r="F1572" t="inlineStr"/>
-      <c r="G1572" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1573">
-      <c r="A1573" t="inlineStr">
-        <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
-      <c r="B1573" t="inlineStr">
-        <is>
-          <t>Overall Net Capital FlowsMAR</t>
-        </is>
-      </c>
-      <c r="C1573" t="inlineStr"/>
-      <c r="D1573" t="inlineStr">
-        <is>
-          <t>$284.7B</t>
-        </is>
-      </c>
-      <c r="E1573" t="inlineStr"/>
-      <c r="F1573" t="inlineStr"/>
-      <c r="G1573" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-05-16.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-05-16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1573"/>
+  <dimension ref="A1:G1509"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38268,10 +38268,8 @@
           <t>240.0K</t>
         </is>
       </c>
-      <c r="G1455" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1455" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1456">
@@ -38305,10 +38303,8 @@
           <t>-0.6%</t>
         </is>
       </c>
-      <c r="G1456" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1456" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1457">
@@ -38342,10 +38338,8 @@
           <t>5.5%</t>
         </is>
       </c>
-      <c r="G1457" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1457" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1458">
@@ -38379,10 +38373,8 @@
           <t>1921.0K</t>
         </is>
       </c>
-      <c r="G1458" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1458" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1459">
@@ -38412,10 +38404,8 @@
           <t>230.0K</t>
         </is>
       </c>
-      <c r="G1459" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1459" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1460">
@@ -38449,10 +38439,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="G1460" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1460" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1461">
@@ -38482,10 +38470,8 @@
         </is>
       </c>
       <c r="F1461" t="inlineStr"/>
-      <c r="G1461" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1461" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1462">
@@ -38515,10 +38501,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="G1462" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1462" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1463">
@@ -38544,10 +38528,8 @@
       </c>
       <c r="E1463" t="inlineStr"/>
       <c r="F1463" t="inlineStr"/>
-      <c r="G1463" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1463" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1464">
@@ -38573,10 +38555,8 @@
       </c>
       <c r="E1464" t="inlineStr"/>
       <c r="F1464" t="inlineStr"/>
-      <c r="G1464" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1464" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1465">
@@ -38602,10 +38582,8 @@
       </c>
       <c r="E1465" t="inlineStr"/>
       <c r="F1465" t="inlineStr"/>
-      <c r="G1465" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1465" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1466">
@@ -38631,10 +38609,8 @@
       </c>
       <c r="E1466" t="inlineStr"/>
       <c r="F1466" t="inlineStr"/>
-      <c r="G1466" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1466" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1467">
@@ -38660,10 +38636,8 @@
       </c>
       <c r="E1467" t="inlineStr"/>
       <c r="F1467" t="inlineStr"/>
-      <c r="G1467" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1467" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1468">
@@ -38685,64 +38659,90 @@
       </c>
       <c r="E1468" t="inlineStr"/>
       <c r="F1468" t="inlineStr"/>
-      <c r="G1468" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1468" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1469">
       <c r="A1469" t="inlineStr">
         <is>
-          <t>Friday May 09 2025</t>
-        </is>
-      </c>
-      <c r="B1469" t="inlineStr"/>
+          <t>07:30 AM</t>
+        </is>
+      </c>
+      <c r="B1469" t="inlineStr">
+        <is>
+          <t>Philly Fed Prices PaidMAY</t>
+        </is>
+      </c>
       <c r="C1469" t="inlineStr"/>
-      <c r="D1469" t="inlineStr"/>
+      <c r="D1469" t="inlineStr">
+        <is>
+          <t>51.00</t>
+        </is>
+      </c>
       <c r="E1469" t="inlineStr"/>
       <c r="F1469" t="inlineStr"/>
-      <c r="G1469" t="inlineStr"/>
+      <c r="G1469" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1470">
       <c r="A1470" t="inlineStr">
         <is>
-          <t>05:15 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1470" t="inlineStr">
         <is>
-          <t>Fed Williams Speech</t>
+          <t>PPIAPR</t>
         </is>
       </c>
       <c r="C1470" t="inlineStr"/>
-      <c r="D1470" t="inlineStr"/>
+      <c r="D1470" t="inlineStr">
+        <is>
+          <t>147.464</t>
+        </is>
+      </c>
       <c r="E1470" t="inlineStr"/>
-      <c r="F1470" t="inlineStr"/>
+      <c r="F1470" t="inlineStr">
+        <is>
+          <t>147.76</t>
+        </is>
+      </c>
       <c r="G1470" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1471">
       <c r="A1471" t="inlineStr">
         <is>
-          <t>05:45 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1471" t="inlineStr">
         <is>
-          <t>Fed Barr Speech</t>
+          <t>PPI Ex Food, Energy and Trade MoMAPR</t>
         </is>
       </c>
       <c r="C1471" t="inlineStr"/>
-      <c r="D1471" t="inlineStr"/>
+      <c r="D1471" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="E1471" t="inlineStr"/>
-      <c r="F1471" t="inlineStr"/>
+      <c r="F1471" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="G1471" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -38754,126 +38754,166 @@
       </c>
       <c r="B1472" t="inlineStr">
         <is>
-          <t>Fed Kugler Speech</t>
+          <t>PPI Ex Food, Energy and Trade YoYAPR</t>
         </is>
       </c>
       <c r="C1472" t="inlineStr"/>
-      <c r="D1472" t="inlineStr"/>
+      <c r="D1472" t="inlineStr">
+        <is>
+          <t>3.4%</t>
+        </is>
+      </c>
       <c r="E1472" t="inlineStr"/>
-      <c r="F1472" t="inlineStr"/>
+      <c r="F1472" t="inlineStr">
+        <is>
+          <t>3.4%</t>
+        </is>
+      </c>
       <c r="G1472" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1473">
       <c r="A1473" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1473" t="inlineStr">
         <is>
-          <t>Fed Goolsbee Speech</t>
+          <t>PPI YoYAPR</t>
         </is>
       </c>
       <c r="C1473" t="inlineStr"/>
-      <c r="D1473" t="inlineStr"/>
+      <c r="D1473" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
       <c r="E1473" t="inlineStr"/>
-      <c r="F1473" t="inlineStr"/>
+      <c r="F1473" t="inlineStr">
+        <is>
+          <t>3.1%</t>
+        </is>
+      </c>
       <c r="G1473" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1474">
       <c r="A1474" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1474" t="inlineStr">
         <is>
-          <t>Fed Waller Speech</t>
+          <t>Retail Sales Ex Gas/Autos MoMAPR</t>
         </is>
       </c>
       <c r="C1474" t="inlineStr"/>
-      <c r="D1474" t="inlineStr"/>
+      <c r="D1474" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="E1474" t="inlineStr"/>
-      <c r="F1474" t="inlineStr"/>
+      <c r="F1474" t="inlineStr">
+        <is>
+          <t>-0.3%</t>
+        </is>
+      </c>
       <c r="G1474" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1475">
       <c r="A1475" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1475" t="inlineStr">
         <is>
-          <t>Fed Williams Speech</t>
+          <t>Retail Sales YoYAPR</t>
         </is>
       </c>
       <c r="C1475" t="inlineStr"/>
-      <c r="D1475" t="inlineStr"/>
+      <c r="D1475" t="inlineStr">
+        <is>
+          <t>4.6%</t>
+        </is>
+      </c>
       <c r="E1475" t="inlineStr"/>
-      <c r="F1475" t="inlineStr"/>
+      <c r="F1475" t="inlineStr">
+        <is>
+          <t>1.1%</t>
+        </is>
+      </c>
       <c r="G1475" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1476">
       <c r="A1476" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>08:15 AM</t>
         </is>
       </c>
       <c r="B1476" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountMAY/09</t>
+          <t>Industrial Production MoMAPR</t>
         </is>
       </c>
       <c r="C1476" t="inlineStr"/>
       <c r="D1476" t="inlineStr">
         <is>
-          <t>479</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="E1476" t="inlineStr"/>
-      <c r="F1476" t="inlineStr"/>
+      <c r="F1476" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
       <c r="G1476" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1477">
       <c r="A1477" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>08:15 AM</t>
         </is>
       </c>
       <c r="B1477" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountMAY/09</t>
+          <t>Capacity UtilizationAPR</t>
         </is>
       </c>
       <c r="C1477" t="inlineStr"/>
       <c r="D1477" t="inlineStr">
         <is>
-          <t>584</t>
+          <t>77.8%</t>
         </is>
       </c>
       <c r="E1477" t="inlineStr"/>
-      <c r="F1477" t="inlineStr"/>
+      <c r="F1477" t="inlineStr">
+        <is>
+          <t>77.8%</t>
+        </is>
+      </c>
       <c r="G1477" t="inlineStr">
         <is>
           <t>3</t>
@@ -38883,111 +38923,175 @@
     <row r="1478">
       <c r="A1478" t="inlineStr">
         <is>
-          <t>06:45 PM</t>
+          <t>08:15 AM</t>
         </is>
       </c>
       <c r="B1478" t="inlineStr">
         <is>
-          <t>Fed Cook Speech</t>
+          <t>Industrial Production YoYAPR</t>
         </is>
       </c>
       <c r="C1478" t="inlineStr"/>
-      <c r="D1478" t="inlineStr"/>
+      <c r="D1478" t="inlineStr">
+        <is>
+          <t>1.3%</t>
+        </is>
+      </c>
       <c r="E1478" t="inlineStr"/>
-      <c r="F1478" t="inlineStr"/>
+      <c r="F1478" t="inlineStr">
+        <is>
+          <t>0.9%</t>
+        </is>
+      </c>
       <c r="G1478" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1479">
       <c r="A1479" t="inlineStr">
         <is>
-          <t>06:45 PM</t>
+          <t>08:15 AM</t>
         </is>
       </c>
       <c r="B1479" t="inlineStr">
         <is>
-          <t>Fed Hammack Speech</t>
+          <t>Manufacturing Production MoMAPR</t>
         </is>
       </c>
       <c r="C1479" t="inlineStr"/>
-      <c r="D1479" t="inlineStr"/>
+      <c r="D1479" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="E1479" t="inlineStr"/>
-      <c r="F1479" t="inlineStr"/>
+      <c r="F1479" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G1479" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1480">
       <c r="A1480" t="inlineStr">
         <is>
-          <t>06:45 PM</t>
+          <t>08:15 AM</t>
         </is>
       </c>
       <c r="B1480" t="inlineStr">
         <is>
-          <t>Fed Musalem Speech</t>
+          <t>Manufacturing Production YoYAPR</t>
         </is>
       </c>
       <c r="C1480" t="inlineStr"/>
-      <c r="D1480" t="inlineStr"/>
+      <c r="D1480" t="inlineStr">
+        <is>
+          <t>1%</t>
+        </is>
+      </c>
       <c r="E1480" t="inlineStr"/>
-      <c r="F1480" t="inlineStr"/>
+      <c r="F1480" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="G1480" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1481">
       <c r="A1481" t="inlineStr">
         <is>
-          <t>Sunday May 11 2025</t>
-        </is>
-      </c>
-      <c r="B1481" t="inlineStr"/>
+          <t>09:00 AM</t>
+        </is>
+      </c>
+      <c r="B1481" t="inlineStr">
+        <is>
+          <t>Business Inventories MoMMAR</t>
+        </is>
+      </c>
       <c r="C1481" t="inlineStr"/>
-      <c r="D1481" t="inlineStr"/>
+      <c r="D1481" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="E1481" t="inlineStr"/>
-      <c r="F1481" t="inlineStr"/>
-      <c r="G1481" t="inlineStr"/>
+      <c r="F1481" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="G1481" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1482">
       <c r="A1482" t="inlineStr">
         <is>
-          <t>Monday May 12 2025</t>
-        </is>
-      </c>
-      <c r="B1482" t="inlineStr"/>
+          <t>09:00 AM</t>
+        </is>
+      </c>
+      <c r="B1482" t="inlineStr">
+        <is>
+          <t>NAHB Housing Market IndexMAY</t>
+        </is>
+      </c>
       <c r="C1482" t="inlineStr"/>
-      <c r="D1482" t="inlineStr"/>
+      <c r="D1482" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
       <c r="E1482" t="inlineStr"/>
-      <c r="F1482" t="inlineStr"/>
-      <c r="G1482" t="inlineStr"/>
+      <c r="F1482" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="G1482" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1483">
       <c r="A1483" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1483" t="inlineStr">
         <is>
-          <t>NY Fed Treasury Purchases 4 to 6 yrs</t>
+          <t>Retail Inventories Ex Autos MoMMAR</t>
         </is>
       </c>
       <c r="C1483" t="inlineStr"/>
-      <c r="D1483" t="inlineStr"/>
+      <c r="D1483" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="E1483" t="inlineStr">
         <is>
-          <t>$75 million</t>
-        </is>
-      </c>
-      <c r="F1483" t="inlineStr"/>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="F1483" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="G1483" t="inlineStr">
         <is>
           <t>3</t>
@@ -38997,18 +39101,18 @@
     <row r="1484">
       <c r="A1484" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1484" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>EIA Natural Gas Stocks ChangeMAY/09</t>
         </is>
       </c>
       <c r="C1484" t="inlineStr"/>
       <c r="D1484" t="inlineStr">
         <is>
-          <t>4.220%</t>
+          <t>104Bcf</t>
         </is>
       </c>
       <c r="E1484" t="inlineStr"/>
@@ -39027,15 +39131,11 @@
       </c>
       <c r="B1485" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1485" t="inlineStr"/>
-      <c r="D1485" t="inlineStr">
-        <is>
-          <t>4.090%</t>
-        </is>
-      </c>
+      <c r="D1485" t="inlineStr"/>
       <c r="E1485" t="inlineStr"/>
       <c r="F1485" t="inlineStr"/>
       <c r="G1485" t="inlineStr">
@@ -39047,12 +39147,12 @@
     <row r="1486">
       <c r="A1486" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1486" t="inlineStr">
         <is>
-          <t>WASDE Report</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1486" t="inlineStr"/>
@@ -39068,68 +39168,68 @@
     <row r="1487">
       <c r="A1487" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1487" t="inlineStr">
         <is>
-          <t>Monthly Budget StatementAPR</t>
+          <t>15-Year Mortgage RateMAY/15</t>
         </is>
       </c>
       <c r="C1487" t="inlineStr"/>
       <c r="D1487" t="inlineStr">
         <is>
-          <t>$-161B</t>
+          <t>5.89%</t>
         </is>
       </c>
       <c r="E1487" t="inlineStr"/>
-      <c r="F1487" t="inlineStr">
-        <is>
-          <t>$235.0B</t>
-        </is>
-      </c>
+      <c r="F1487" t="inlineStr"/>
       <c r="G1487" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1488">
       <c r="A1488" t="inlineStr">
         <is>
-          <t>Tuesday May 13 2025</t>
-        </is>
-      </c>
-      <c r="B1488" t="inlineStr"/>
+          <t>11:00 AM</t>
+        </is>
+      </c>
+      <c r="B1488" t="inlineStr">
+        <is>
+          <t>30-Year Mortgage RateMAY/15</t>
+        </is>
+      </c>
       <c r="C1488" t="inlineStr"/>
-      <c r="D1488" t="inlineStr"/>
+      <c r="D1488" t="inlineStr">
+        <is>
+          <t>6.76%</t>
+        </is>
+      </c>
       <c r="E1488" t="inlineStr"/>
       <c r="F1488" t="inlineStr"/>
-      <c r="G1488" t="inlineStr"/>
+      <c r="G1488" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1489">
       <c r="A1489" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1489" t="inlineStr">
         <is>
-          <t>NFIB Business Optimism IndexAPR</t>
+          <t>NOPA Crush Report</t>
         </is>
       </c>
       <c r="C1489" t="inlineStr"/>
-      <c r="D1489" t="inlineStr">
-        <is>
-          <t>97.4</t>
-        </is>
-      </c>
+      <c r="D1489" t="inlineStr"/>
       <c r="E1489" t="inlineStr"/>
-      <c r="F1489" t="inlineStr">
-        <is>
-          <t>91.5</t>
-        </is>
-      </c>
+      <c r="F1489" t="inlineStr"/>
       <c r="G1489" t="inlineStr">
         <is>
           <t>3</t>
@@ -39139,64 +39239,36 @@
     <row r="1490">
       <c r="A1490" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1490" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMAPR</t>
+          <t>Fed Balance SheetMAY/14</t>
         </is>
       </c>
       <c r="C1490" t="inlineStr"/>
-      <c r="D1490" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E1490" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F1490" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="D1490" t="inlineStr"/>
+      <c r="E1490" t="inlineStr"/>
+      <c r="F1490" t="inlineStr"/>
       <c r="G1490" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1491">
       <c r="A1491" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1491" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate YoYAPR</t>
-        </is>
-      </c>
+          <t>Friday May 16 2025</t>
+        </is>
+      </c>
+      <c r="B1491" t="inlineStr"/>
       <c r="C1491" t="inlineStr"/>
-      <c r="D1491" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+      <c r="D1491" t="inlineStr"/>
       <c r="E1491" t="inlineStr"/>
-      <c r="F1491" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="G1491" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="F1491" t="inlineStr"/>
+      <c r="G1491" t="inlineStr"/>
     </row>
     <row r="1492">
       <c r="A1492" t="inlineStr">
@@ -39206,23 +39278,19 @@
       </c>
       <c r="B1492" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMAPR</t>
+          <t>Building Permits PrelAPR</t>
         </is>
       </c>
       <c r="C1492" t="inlineStr"/>
       <c r="D1492" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E1492" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>1.467M</t>
+        </is>
+      </c>
+      <c r="E1492" t="inlineStr"/>
       <c r="F1492" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>1.45M</t>
         </is>
       </c>
       <c r="G1492" t="inlineStr">
@@ -39239,19 +39307,19 @@
       </c>
       <c r="B1493" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYAPR</t>
+          <t>Housing StartsAPR</t>
         </is>
       </c>
       <c r="C1493" t="inlineStr"/>
       <c r="D1493" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>1.324M</t>
         </is>
       </c>
       <c r="E1493" t="inlineStr"/>
       <c r="F1493" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>1.31M</t>
         </is>
       </c>
       <c r="G1493" t="inlineStr">
@@ -39268,19 +39336,19 @@
       </c>
       <c r="B1494" t="inlineStr">
         <is>
-          <t>CPIAPR</t>
+          <t>Building Permits MoM PrelAPR</t>
         </is>
       </c>
       <c r="C1494" t="inlineStr"/>
       <c r="D1494" t="inlineStr">
         <is>
-          <t>319.799</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="E1494" t="inlineStr"/>
       <c r="F1494" t="inlineStr">
         <is>
-          <t>321.7</t>
+          <t>-1.2%</t>
         </is>
       </c>
       <c r="G1494" t="inlineStr">
@@ -39297,19 +39365,19 @@
       </c>
       <c r="B1495" t="inlineStr">
         <is>
-          <t>CPI s.aAPR</t>
+          <t>Export Prices MoMAPR</t>
         </is>
       </c>
       <c r="C1495" t="inlineStr"/>
       <c r="D1495" t="inlineStr">
         <is>
-          <t>319.615</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="E1495" t="inlineStr"/>
       <c r="F1495" t="inlineStr">
         <is>
-          <t>320.6</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G1495" t="inlineStr">
@@ -39321,72 +39389,84 @@
     <row r="1496">
       <c r="A1496" t="inlineStr">
         <is>
-          <t>07:55 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1496" t="inlineStr">
         <is>
-          <t>Redbook YoYMAY/10</t>
+          <t>Housing Starts MoMAPR</t>
         </is>
       </c>
       <c r="C1496" t="inlineStr"/>
       <c r="D1496" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>-11.4%</t>
         </is>
       </c>
       <c r="E1496" t="inlineStr"/>
-      <c r="F1496" t="inlineStr"/>
+      <c r="F1496" t="inlineStr">
+        <is>
+          <t>-1%</t>
+        </is>
+      </c>
       <c r="G1496" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1497">
       <c r="A1497" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1497" t="inlineStr">
         <is>
-          <t>Total Household DebtQ1</t>
+          <t>Import Prices MoMAPR</t>
         </is>
       </c>
       <c r="C1497" t="inlineStr"/>
       <c r="D1497" t="inlineStr">
         <is>
-          <t>$18.04T</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="E1497" t="inlineStr"/>
-      <c r="F1497" t="inlineStr"/>
+      <c r="F1497" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="G1497" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1498">
       <c r="A1498" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1498" t="inlineStr">
         <is>
-          <t>52-Week Bill Auction</t>
+          <t>Export Prices YoYAPR</t>
         </is>
       </c>
       <c r="C1498" t="inlineStr"/>
       <c r="D1498" t="inlineStr">
         <is>
-          <t>3.820%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="E1498" t="inlineStr"/>
-      <c r="F1498" t="inlineStr"/>
+      <c r="F1498" t="inlineStr">
+        <is>
+          <t>2%</t>
+        </is>
+      </c>
       <c r="G1498" t="inlineStr">
         <is>
           <t>3</t>
@@ -39396,85 +39476,113 @@
     <row r="1499">
       <c r="A1499" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1499" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeMAY/09</t>
+          <t>Import Prices YoYAPR</t>
         </is>
       </c>
       <c r="C1499" t="inlineStr"/>
       <c r="D1499" t="inlineStr">
         <is>
-          <t>-4.49M</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="E1499" t="inlineStr"/>
-      <c r="F1499" t="inlineStr"/>
+      <c r="F1499" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
       <c r="G1499" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1500">
       <c r="A1500" t="inlineStr">
         <is>
-          <t>Wednesday May 14 2025</t>
-        </is>
-      </c>
-      <c r="B1500" t="inlineStr"/>
+          <t>09:00 AM</t>
+        </is>
+      </c>
+      <c r="B1500" t="inlineStr">
+        <is>
+          <t>Michigan Consumer Sentiment PrelMAY</t>
+        </is>
+      </c>
       <c r="C1500" t="inlineStr"/>
-      <c r="D1500" t="inlineStr"/>
+      <c r="D1500" t="inlineStr">
+        <is>
+          <t>52.2</t>
+        </is>
+      </c>
       <c r="E1500" t="inlineStr"/>
-      <c r="F1500" t="inlineStr"/>
-      <c r="G1500" t="inlineStr"/>
+      <c r="F1500" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="G1500" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="1501">
       <c r="A1501" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1501" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateMAY/09</t>
+          <t>Michigan 5 Year Inflation Expectations PrelMAY</t>
         </is>
       </c>
       <c r="C1501" t="inlineStr"/>
       <c r="D1501" t="inlineStr">
         <is>
-          <t>6.84%</t>
+          <t>4.4%</t>
         </is>
       </c>
       <c r="E1501" t="inlineStr"/>
-      <c r="F1501" t="inlineStr"/>
+      <c r="F1501" t="inlineStr">
+        <is>
+          <t>4.5%</t>
+        </is>
+      </c>
       <c r="G1501" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1502">
       <c r="A1502" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1502" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsMAY/09</t>
+          <t>Michigan Consumer Expectations PrelMAY</t>
         </is>
       </c>
       <c r="C1502" t="inlineStr"/>
       <c r="D1502" t="inlineStr">
         <is>
-          <t>11%</t>
+          <t>47.3</t>
         </is>
       </c>
       <c r="E1502" t="inlineStr"/>
-      <c r="F1502" t="inlineStr"/>
+      <c r="F1502" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
       <c r="G1502" t="inlineStr">
         <is>
           <t>3</t>
@@ -39484,22 +39592,26 @@
     <row r="1503">
       <c r="A1503" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1503" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexMAY/09</t>
+          <t>Michigan Current Conditions PrelMAY</t>
         </is>
       </c>
       <c r="C1503" t="inlineStr"/>
       <c r="D1503" t="inlineStr">
         <is>
-          <t>248.4</t>
+          <t>59.8</t>
         </is>
       </c>
       <c r="E1503" t="inlineStr"/>
-      <c r="F1503" t="inlineStr"/>
+      <c r="F1503" t="inlineStr">
+        <is>
+          <t>59.5</t>
+        </is>
+      </c>
       <c r="G1503" t="inlineStr">
         <is>
           <t>3</t>
@@ -39509,22 +39621,26 @@
     <row r="1504">
       <c r="A1504" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1504" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexMAY/09</t>
+          <t>Michigan Inflation Expectations PrelMAY</t>
         </is>
       </c>
       <c r="C1504" t="inlineStr"/>
       <c r="D1504" t="inlineStr">
         <is>
-          <t>721</t>
+          <t>6.5%</t>
         </is>
       </c>
       <c r="E1504" t="inlineStr"/>
-      <c r="F1504" t="inlineStr"/>
+      <c r="F1504" t="inlineStr">
+        <is>
+          <t>6.6%</t>
+        </is>
+      </c>
       <c r="G1504" t="inlineStr">
         <is>
           <t>3</t>
@@ -39534,20 +39650,16 @@
     <row r="1505">
       <c r="A1505" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B1505" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexMAY/09</t>
+          <t>Baker Hughes Oil Rig CountMAY/16</t>
         </is>
       </c>
       <c r="C1505" t="inlineStr"/>
-      <c r="D1505" t="inlineStr">
-        <is>
-          <t>162.8</t>
-        </is>
-      </c>
+      <c r="D1505" t="inlineStr"/>
       <c r="E1505" t="inlineStr"/>
       <c r="F1505" t="inlineStr"/>
       <c r="G1505" t="inlineStr">
@@ -39559,43 +39671,39 @@
     <row r="1506">
       <c r="A1506" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B1506" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Stocks ChangeMAY/09</t>
+          <t>Baker Hughes Total Rigs CountMAY/16</t>
         </is>
       </c>
       <c r="C1506" t="inlineStr"/>
-      <c r="D1506" t="inlineStr">
-        <is>
-          <t>-2.032M</t>
-        </is>
-      </c>
+      <c r="D1506" t="inlineStr"/>
       <c r="E1506" t="inlineStr"/>
       <c r="F1506" t="inlineStr"/>
       <c r="G1506" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1507">
       <c r="A1507" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B1507" t="inlineStr">
         <is>
-          <t>EIA Gasoline Stocks ChangeMAY/09</t>
+          <t>Net Long-term TIC FlowsMAR</t>
         </is>
       </c>
       <c r="C1507" t="inlineStr"/>
       <c r="D1507" t="inlineStr">
         <is>
-          <t>0.188M</t>
+          <t>$112B</t>
         </is>
       </c>
       <c r="E1507" t="inlineStr"/>
@@ -39609,18 +39717,18 @@
     <row r="1508">
       <c r="A1508" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B1508" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Imports ChangeMAY/09</t>
+          <t>Foreign Bond InvestmentMAR</t>
         </is>
       </c>
       <c r="C1508" t="inlineStr"/>
       <c r="D1508" t="inlineStr">
         <is>
-          <t>0.673M</t>
+          <t>$106.2B</t>
         </is>
       </c>
       <c r="E1508" t="inlineStr"/>
@@ -39634,1715 +39742,23 @@
     <row r="1509">
       <c r="A1509" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B1509" t="inlineStr">
         <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeMAY/09</t>
+          <t>Overall Net Capital FlowsMAR</t>
         </is>
       </c>
       <c r="C1509" t="inlineStr"/>
       <c r="D1509" t="inlineStr">
         <is>
-          <t>-0.74M</t>
+          <t>$284.7B</t>
         </is>
       </c>
       <c r="E1509" t="inlineStr"/>
       <c r="F1509" t="inlineStr"/>
       <c r="G1509" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1510">
-      <c r="A1510" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1510" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeMAY/09</t>
-        </is>
-      </c>
-      <c r="C1510" t="inlineStr"/>
-      <c r="D1510" t="inlineStr">
-        <is>
-          <t>0.041M</t>
-        </is>
-      </c>
-      <c r="E1510" t="inlineStr"/>
-      <c r="F1510" t="inlineStr"/>
-      <c r="G1510" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1511">
-      <c r="A1511" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1511" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeMAY/09</t>
-        </is>
-      </c>
-      <c r="C1511" t="inlineStr"/>
-      <c r="D1511" t="inlineStr">
-        <is>
-          <t>-1.107M</t>
-        </is>
-      </c>
-      <c r="E1511" t="inlineStr"/>
-      <c r="F1511" t="inlineStr"/>
-      <c r="G1511" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1512">
-      <c r="A1512" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1512" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeMAY/09</t>
-        </is>
-      </c>
-      <c r="C1512" t="inlineStr"/>
-      <c r="D1512" t="inlineStr">
-        <is>
-          <t>0.253M</t>
-        </is>
-      </c>
-      <c r="E1512" t="inlineStr"/>
-      <c r="F1512" t="inlineStr"/>
-      <c r="G1512" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1513">
-      <c r="A1513" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1513" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeMAY/09</t>
-        </is>
-      </c>
-      <c r="C1513" t="inlineStr"/>
-      <c r="D1513" t="inlineStr">
-        <is>
-          <t>0.123M</t>
-        </is>
-      </c>
-      <c r="E1513" t="inlineStr"/>
-      <c r="F1513" t="inlineStr"/>
-      <c r="G1513" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1514">
-      <c r="A1514" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1514" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeMAY/09</t>
-        </is>
-      </c>
-      <c r="C1514" t="inlineStr"/>
-      <c r="D1514" t="inlineStr">
-        <is>
-          <t>-0.007M</t>
-        </is>
-      </c>
-      <c r="E1514" t="inlineStr"/>
-      <c r="F1514" t="inlineStr"/>
-      <c r="G1514" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1515">
-      <c r="A1515" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1515" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1515" t="inlineStr"/>
-      <c r="D1515" t="inlineStr">
-        <is>
-          <t>4.200%</t>
-        </is>
-      </c>
-      <c r="E1515" t="inlineStr"/>
-      <c r="F1515" t="inlineStr"/>
-      <c r="G1515" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1516">
-      <c r="A1516" t="inlineStr">
-        <is>
-          <t>04:40 PM</t>
-        </is>
-      </c>
-      <c r="B1516" t="inlineStr">
-        <is>
-          <t>Fed Daly Speech</t>
-        </is>
-      </c>
-      <c r="C1516" t="inlineStr"/>
-      <c r="D1516" t="inlineStr"/>
-      <c r="E1516" t="inlineStr"/>
-      <c r="F1516" t="inlineStr"/>
-      <c r="G1516" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1517">
-      <c r="A1517" t="inlineStr">
-        <is>
-          <t>Thursday May 15 2025</t>
-        </is>
-      </c>
-      <c r="B1517" t="inlineStr"/>
-      <c r="C1517" t="inlineStr"/>
-      <c r="D1517" t="inlineStr"/>
-      <c r="E1517" t="inlineStr"/>
-      <c r="F1517" t="inlineStr"/>
-      <c r="G1517" t="inlineStr"/>
-    </row>
-    <row r="1518">
-      <c r="A1518" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1518" t="inlineStr">
-        <is>
-          <t>PPI MoMAPR</t>
-        </is>
-      </c>
-      <c r="C1518" t="inlineStr"/>
-      <c r="D1518" t="inlineStr">
-        <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
-      <c r="E1518" t="inlineStr"/>
-      <c r="F1518" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G1518" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1519">
-      <c r="A1519" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1519" t="inlineStr">
-        <is>
-          <t>Retail Sales MoMAPR</t>
-        </is>
-      </c>
-      <c r="C1519" t="inlineStr"/>
-      <c r="D1519" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
-      <c r="E1519" t="inlineStr"/>
-      <c r="F1519" t="inlineStr">
-        <is>
-          <t>-0.8%</t>
-        </is>
-      </c>
-      <c r="G1519" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1520">
-      <c r="A1520" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1520" t="inlineStr">
-        <is>
-          <t>Core PPI MoMAPR</t>
-        </is>
-      </c>
-      <c r="C1520" t="inlineStr"/>
-      <c r="D1520" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E1520" t="inlineStr"/>
-      <c r="F1520" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G1520" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1521">
-      <c r="A1521" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1521" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsMAY/10</t>
-        </is>
-      </c>
-      <c r="C1521" t="inlineStr"/>
-      <c r="D1521" t="inlineStr">
-        <is>
-          <t>228K</t>
-        </is>
-      </c>
-      <c r="E1521" t="inlineStr"/>
-      <c r="F1521" t="inlineStr"/>
-      <c r="G1521" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1522">
-      <c r="A1522" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1522" t="inlineStr">
-        <is>
-          <t>NY Empire State Manufacturing IndexMAY</t>
-        </is>
-      </c>
-      <c r="C1522" t="inlineStr"/>
-      <c r="D1522" t="inlineStr">
-        <is>
-          <t>-8.10</t>
-        </is>
-      </c>
-      <c r="E1522" t="inlineStr"/>
-      <c r="F1522" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="G1522" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1523">
-      <c r="A1523" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1523" t="inlineStr">
-        <is>
-          <t>Philadelphia Fed Manufacturing IndexMAY</t>
-        </is>
-      </c>
-      <c r="C1523" t="inlineStr"/>
-      <c r="D1523" t="inlineStr">
-        <is>
-          <t>-26.4</t>
-        </is>
-      </c>
-      <c r="E1523" t="inlineStr"/>
-      <c r="F1523" t="inlineStr">
-        <is>
-          <t>-25</t>
-        </is>
-      </c>
-      <c r="G1523" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1524">
-      <c r="A1524" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1524" t="inlineStr">
-        <is>
-          <t>Retail Sales Control Group MoMAPR</t>
-        </is>
-      </c>
-      <c r="C1524" t="inlineStr"/>
-      <c r="D1524" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E1524" t="inlineStr"/>
-      <c r="F1524" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="G1524" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1525">
-      <c r="A1525" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1525" t="inlineStr">
-        <is>
-          <t>Retail Sales Ex Autos MoMAPR</t>
-        </is>
-      </c>
-      <c r="C1525" t="inlineStr"/>
-      <c r="D1525" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E1525" t="inlineStr"/>
-      <c r="F1525" t="inlineStr">
-        <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
-      <c r="G1525" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1526">
-      <c r="A1526" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1526" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsMAY/03</t>
-        </is>
-      </c>
-      <c r="C1526" t="inlineStr"/>
-      <c r="D1526" t="inlineStr">
-        <is>
-          <t>1879K</t>
-        </is>
-      </c>
-      <c r="E1526" t="inlineStr"/>
-      <c r="F1526" t="inlineStr"/>
-      <c r="G1526" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1527">
-      <c r="A1527" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1527" t="inlineStr">
-        <is>
-          <t>Core PPI YoYAPR</t>
-        </is>
-      </c>
-      <c r="C1527" t="inlineStr"/>
-      <c r="D1527" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="E1527" t="inlineStr"/>
-      <c r="F1527" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="G1527" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1528">
-      <c r="A1528" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1528" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageMAY/10</t>
-        </is>
-      </c>
-      <c r="C1528" t="inlineStr"/>
-      <c r="D1528" t="inlineStr">
-        <is>
-          <t>227K</t>
-        </is>
-      </c>
-      <c r="E1528" t="inlineStr"/>
-      <c r="F1528" t="inlineStr"/>
-      <c r="G1528" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1529">
-      <c r="A1529" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1529" t="inlineStr">
-        <is>
-          <t>Philly Fed Business ConditionsMAY</t>
-        </is>
-      </c>
-      <c r="C1529" t="inlineStr"/>
-      <c r="D1529" t="inlineStr">
-        <is>
-          <t>6.9</t>
-        </is>
-      </c>
-      <c r="E1529" t="inlineStr"/>
-      <c r="F1529" t="inlineStr"/>
-      <c r="G1529" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1530">
-      <c r="A1530" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1530" t="inlineStr">
-        <is>
-          <t>Philly Fed CAPEX IndexMAY</t>
-        </is>
-      </c>
-      <c r="C1530" t="inlineStr"/>
-      <c r="D1530" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E1530" t="inlineStr"/>
-      <c r="F1530" t="inlineStr"/>
-      <c r="G1530" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1531">
-      <c r="A1531" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1531" t="inlineStr">
-        <is>
-          <t>Philly Fed EmploymentMAY</t>
-        </is>
-      </c>
-      <c r="C1531" t="inlineStr"/>
-      <c r="D1531" t="inlineStr">
-        <is>
-          <t>0.2</t>
-        </is>
-      </c>
-      <c r="E1531" t="inlineStr"/>
-      <c r="F1531" t="inlineStr"/>
-      <c r="G1531" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1532">
-      <c r="A1532" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1532" t="inlineStr">
-        <is>
-          <t>Philly Fed New OrdersMAY</t>
-        </is>
-      </c>
-      <c r="C1532" t="inlineStr"/>
-      <c r="D1532" t="inlineStr">
-        <is>
-          <t>-34.2</t>
-        </is>
-      </c>
-      <c r="E1532" t="inlineStr"/>
-      <c r="F1532" t="inlineStr"/>
-      <c r="G1532" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1533">
-      <c r="A1533" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1533" t="inlineStr">
-        <is>
-          <t>Philly Fed Prices PaidMAY</t>
-        </is>
-      </c>
-      <c r="C1533" t="inlineStr"/>
-      <c r="D1533" t="inlineStr">
-        <is>
-          <t>51.00</t>
-        </is>
-      </c>
-      <c r="E1533" t="inlineStr"/>
-      <c r="F1533" t="inlineStr"/>
-      <c r="G1533" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1534">
-      <c r="A1534" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1534" t="inlineStr">
-        <is>
-          <t>PPIAPR</t>
-        </is>
-      </c>
-      <c r="C1534" t="inlineStr"/>
-      <c r="D1534" t="inlineStr">
-        <is>
-          <t>147.464</t>
-        </is>
-      </c>
-      <c r="E1534" t="inlineStr"/>
-      <c r="F1534" t="inlineStr">
-        <is>
-          <t>147.76</t>
-        </is>
-      </c>
-      <c r="G1534" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1535">
-      <c r="A1535" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1535" t="inlineStr">
-        <is>
-          <t>PPI Ex Food, Energy and Trade MoMAPR</t>
-        </is>
-      </c>
-      <c r="C1535" t="inlineStr"/>
-      <c r="D1535" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E1535" t="inlineStr"/>
-      <c r="F1535" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G1535" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1536">
-      <c r="A1536" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1536" t="inlineStr">
-        <is>
-          <t>PPI Ex Food, Energy and Trade YoYAPR</t>
-        </is>
-      </c>
-      <c r="C1536" t="inlineStr"/>
-      <c r="D1536" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="E1536" t="inlineStr"/>
-      <c r="F1536" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="G1536" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1537">
-      <c r="A1537" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1537" t="inlineStr">
-        <is>
-          <t>PPI YoYAPR</t>
-        </is>
-      </c>
-      <c r="C1537" t="inlineStr"/>
-      <c r="D1537" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="E1537" t="inlineStr"/>
-      <c r="F1537" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
-      <c r="G1537" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1538">
-      <c r="A1538" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1538" t="inlineStr">
-        <is>
-          <t>Retail Sales Ex Gas/Autos MoMAPR</t>
-        </is>
-      </c>
-      <c r="C1538" t="inlineStr"/>
-      <c r="D1538" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="E1538" t="inlineStr"/>
-      <c r="F1538" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="G1538" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1539">
-      <c r="A1539" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1539" t="inlineStr">
-        <is>
-          <t>Retail Sales YoYAPR</t>
-        </is>
-      </c>
-      <c r="C1539" t="inlineStr"/>
-      <c r="D1539" t="inlineStr">
-        <is>
-          <t>4.6%</t>
-        </is>
-      </c>
-      <c r="E1539" t="inlineStr"/>
-      <c r="F1539" t="inlineStr">
-        <is>
-          <t>1.1%</t>
-        </is>
-      </c>
-      <c r="G1539" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1540">
-      <c r="A1540" t="inlineStr">
-        <is>
-          <t>08:15 AM</t>
-        </is>
-      </c>
-      <c r="B1540" t="inlineStr">
-        <is>
-          <t>Industrial Production MoMAPR</t>
-        </is>
-      </c>
-      <c r="C1540" t="inlineStr"/>
-      <c r="D1540" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="E1540" t="inlineStr"/>
-      <c r="F1540" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="G1540" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1541">
-      <c r="A1541" t="inlineStr">
-        <is>
-          <t>08:15 AM</t>
-        </is>
-      </c>
-      <c r="B1541" t="inlineStr">
-        <is>
-          <t>Capacity UtilizationAPR</t>
-        </is>
-      </c>
-      <c r="C1541" t="inlineStr"/>
-      <c r="D1541" t="inlineStr">
-        <is>
-          <t>77.8%</t>
-        </is>
-      </c>
-      <c r="E1541" t="inlineStr"/>
-      <c r="F1541" t="inlineStr">
-        <is>
-          <t>77.8%</t>
-        </is>
-      </c>
-      <c r="G1541" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1542">
-      <c r="A1542" t="inlineStr">
-        <is>
-          <t>08:15 AM</t>
-        </is>
-      </c>
-      <c r="B1542" t="inlineStr">
-        <is>
-          <t>Industrial Production YoYAPR</t>
-        </is>
-      </c>
-      <c r="C1542" t="inlineStr"/>
-      <c r="D1542" t="inlineStr">
-        <is>
-          <t>1.3%</t>
-        </is>
-      </c>
-      <c r="E1542" t="inlineStr"/>
-      <c r="F1542" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="G1542" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1543">
-      <c r="A1543" t="inlineStr">
-        <is>
-          <t>08:15 AM</t>
-        </is>
-      </c>
-      <c r="B1543" t="inlineStr">
-        <is>
-          <t>Manufacturing Production MoMAPR</t>
-        </is>
-      </c>
-      <c r="C1543" t="inlineStr"/>
-      <c r="D1543" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E1543" t="inlineStr"/>
-      <c r="F1543" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G1543" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1544">
-      <c r="A1544" t="inlineStr">
-        <is>
-          <t>08:15 AM</t>
-        </is>
-      </c>
-      <c r="B1544" t="inlineStr">
-        <is>
-          <t>Manufacturing Production YoYAPR</t>
-        </is>
-      </c>
-      <c r="C1544" t="inlineStr"/>
-      <c r="D1544" t="inlineStr">
-        <is>
-          <t>1%</t>
-        </is>
-      </c>
-      <c r="E1544" t="inlineStr"/>
-      <c r="F1544" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="G1544" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1545">
-      <c r="A1545" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1545" t="inlineStr">
-        <is>
-          <t>Business Inventories MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1545" t="inlineStr"/>
-      <c r="D1545" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E1545" t="inlineStr"/>
-      <c r="F1545" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G1545" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1546">
-      <c r="A1546" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1546" t="inlineStr">
-        <is>
-          <t>NAHB Housing Market IndexMAY</t>
-        </is>
-      </c>
-      <c r="C1546" t="inlineStr"/>
-      <c r="D1546" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="E1546" t="inlineStr"/>
-      <c r="F1546" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="G1546" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1547">
-      <c r="A1547" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1547" t="inlineStr">
-        <is>
-          <t>Retail Inventories Ex Autos MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1547" t="inlineStr"/>
-      <c r="D1547" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E1547" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F1547" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G1547" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1548">
-      <c r="A1548" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1548" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeMAY/09</t>
-        </is>
-      </c>
-      <c r="C1548" t="inlineStr"/>
-      <c r="D1548" t="inlineStr">
-        <is>
-          <t>104Bcf</t>
-        </is>
-      </c>
-      <c r="E1548" t="inlineStr"/>
-      <c r="F1548" t="inlineStr"/>
-      <c r="G1548" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1549">
-      <c r="A1549" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1549" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1549" t="inlineStr"/>
-      <c r="D1549" t="inlineStr"/>
-      <c r="E1549" t="inlineStr"/>
-      <c r="F1549" t="inlineStr"/>
-      <c r="G1549" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1550">
-      <c r="A1550" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1550" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1550" t="inlineStr"/>
-      <c r="D1550" t="inlineStr"/>
-      <c r="E1550" t="inlineStr"/>
-      <c r="F1550" t="inlineStr"/>
-      <c r="G1550" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1551">
-      <c r="A1551" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B1551" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateMAY/15</t>
-        </is>
-      </c>
-      <c r="C1551" t="inlineStr"/>
-      <c r="D1551" t="inlineStr">
-        <is>
-          <t>5.89%</t>
-        </is>
-      </c>
-      <c r="E1551" t="inlineStr"/>
-      <c r="F1551" t="inlineStr"/>
-      <c r="G1551" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1552">
-      <c r="A1552" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B1552" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateMAY/15</t>
-        </is>
-      </c>
-      <c r="C1552" t="inlineStr"/>
-      <c r="D1552" t="inlineStr">
-        <is>
-          <t>6.76%</t>
-        </is>
-      </c>
-      <c r="E1552" t="inlineStr"/>
-      <c r="F1552" t="inlineStr"/>
-      <c r="G1552" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1553">
-      <c r="A1553" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B1553" t="inlineStr">
-        <is>
-          <t>NOPA Crush Report</t>
-        </is>
-      </c>
-      <c r="C1553" t="inlineStr"/>
-      <c r="D1553" t="inlineStr"/>
-      <c r="E1553" t="inlineStr"/>
-      <c r="F1553" t="inlineStr"/>
-      <c r="G1553" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1554">
-      <c r="A1554" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B1554" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetMAY/14</t>
-        </is>
-      </c>
-      <c r="C1554" t="inlineStr"/>
-      <c r="D1554" t="inlineStr"/>
-      <c r="E1554" t="inlineStr"/>
-      <c r="F1554" t="inlineStr"/>
-      <c r="G1554" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1555">
-      <c r="A1555" t="inlineStr">
-        <is>
-          <t>Friday May 16 2025</t>
-        </is>
-      </c>
-      <c r="B1555" t="inlineStr"/>
-      <c r="C1555" t="inlineStr"/>
-      <c r="D1555" t="inlineStr"/>
-      <c r="E1555" t="inlineStr"/>
-      <c r="F1555" t="inlineStr"/>
-      <c r="G1555" t="inlineStr"/>
-    </row>
-    <row r="1556">
-      <c r="A1556" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1556" t="inlineStr">
-        <is>
-          <t>Building Permits PrelAPR</t>
-        </is>
-      </c>
-      <c r="C1556" t="inlineStr"/>
-      <c r="D1556" t="inlineStr">
-        <is>
-          <t>1.467M</t>
-        </is>
-      </c>
-      <c r="E1556" t="inlineStr"/>
-      <c r="F1556" t="inlineStr">
-        <is>
-          <t>1.45M</t>
-        </is>
-      </c>
-      <c r="G1556" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1557">
-      <c r="A1557" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1557" t="inlineStr">
-        <is>
-          <t>Housing StartsAPR</t>
-        </is>
-      </c>
-      <c r="C1557" t="inlineStr"/>
-      <c r="D1557" t="inlineStr">
-        <is>
-          <t>1.324M</t>
-        </is>
-      </c>
-      <c r="E1557" t="inlineStr"/>
-      <c r="F1557" t="inlineStr">
-        <is>
-          <t>1.31M</t>
-        </is>
-      </c>
-      <c r="G1557" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1558">
-      <c r="A1558" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1558" t="inlineStr">
-        <is>
-          <t>Building Permits MoM PrelAPR</t>
-        </is>
-      </c>
-      <c r="C1558" t="inlineStr"/>
-      <c r="D1558" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E1558" t="inlineStr"/>
-      <c r="F1558" t="inlineStr">
-        <is>
-          <t>-1.2%</t>
-        </is>
-      </c>
-      <c r="G1558" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1559">
-      <c r="A1559" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1559" t="inlineStr">
-        <is>
-          <t>Export Prices MoMAPR</t>
-        </is>
-      </c>
-      <c r="C1559" t="inlineStr"/>
-      <c r="D1559" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="E1559" t="inlineStr"/>
-      <c r="F1559" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G1559" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1560">
-      <c r="A1560" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1560" t="inlineStr">
-        <is>
-          <t>Housing Starts MoMAPR</t>
-        </is>
-      </c>
-      <c r="C1560" t="inlineStr"/>
-      <c r="D1560" t="inlineStr">
-        <is>
-          <t>-11.4%</t>
-        </is>
-      </c>
-      <c r="E1560" t="inlineStr"/>
-      <c r="F1560" t="inlineStr">
-        <is>
-          <t>-1%</t>
-        </is>
-      </c>
-      <c r="G1560" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1561">
-      <c r="A1561" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1561" t="inlineStr">
-        <is>
-          <t>Import Prices MoMAPR</t>
-        </is>
-      </c>
-      <c r="C1561" t="inlineStr"/>
-      <c r="D1561" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E1561" t="inlineStr"/>
-      <c r="F1561" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="G1561" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1562">
-      <c r="A1562" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1562" t="inlineStr">
-        <is>
-          <t>Export Prices YoYAPR</t>
-        </is>
-      </c>
-      <c r="C1562" t="inlineStr"/>
-      <c r="D1562" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="E1562" t="inlineStr"/>
-      <c r="F1562" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
-      <c r="G1562" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1563">
-      <c r="A1563" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1563" t="inlineStr">
-        <is>
-          <t>Import Prices YoYAPR</t>
-        </is>
-      </c>
-      <c r="C1563" t="inlineStr"/>
-      <c r="D1563" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="E1563" t="inlineStr"/>
-      <c r="F1563" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
-      <c r="G1563" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1564">
-      <c r="A1564" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1564" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Sentiment PrelMAY</t>
-        </is>
-      </c>
-      <c r="C1564" t="inlineStr"/>
-      <c r="D1564" t="inlineStr">
-        <is>
-          <t>52.2</t>
-        </is>
-      </c>
-      <c r="E1564" t="inlineStr"/>
-      <c r="F1564" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="G1564" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1565">
-      <c r="A1565" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1565" t="inlineStr">
-        <is>
-          <t>Michigan 5 Year Inflation Expectations PrelMAY</t>
-        </is>
-      </c>
-      <c r="C1565" t="inlineStr"/>
-      <c r="D1565" t="inlineStr">
-        <is>
-          <t>4.4%</t>
-        </is>
-      </c>
-      <c r="E1565" t="inlineStr"/>
-      <c r="F1565" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="G1565" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1566">
-      <c r="A1566" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1566" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Expectations PrelMAY</t>
-        </is>
-      </c>
-      <c r="C1566" t="inlineStr"/>
-      <c r="D1566" t="inlineStr">
-        <is>
-          <t>47.3</t>
-        </is>
-      </c>
-      <c r="E1566" t="inlineStr"/>
-      <c r="F1566" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="G1566" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1567">
-      <c r="A1567" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1567" t="inlineStr">
-        <is>
-          <t>Michigan Current Conditions PrelMAY</t>
-        </is>
-      </c>
-      <c r="C1567" t="inlineStr"/>
-      <c r="D1567" t="inlineStr">
-        <is>
-          <t>59.8</t>
-        </is>
-      </c>
-      <c r="E1567" t="inlineStr"/>
-      <c r="F1567" t="inlineStr">
-        <is>
-          <t>59.5</t>
-        </is>
-      </c>
-      <c r="G1567" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1568">
-      <c r="A1568" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1568" t="inlineStr">
-        <is>
-          <t>Michigan Inflation Expectations PrelMAY</t>
-        </is>
-      </c>
-      <c r="C1568" t="inlineStr"/>
-      <c r="D1568" t="inlineStr">
-        <is>
-          <t>6.5%</t>
-        </is>
-      </c>
-      <c r="E1568" t="inlineStr"/>
-      <c r="F1568" t="inlineStr">
-        <is>
-          <t>6.6%</t>
-        </is>
-      </c>
-      <c r="G1568" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1569">
-      <c r="A1569" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1569" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountMAY/16</t>
-        </is>
-      </c>
-      <c r="C1569" t="inlineStr"/>
-      <c r="D1569" t="inlineStr"/>
-      <c r="E1569" t="inlineStr"/>
-      <c r="F1569" t="inlineStr"/>
-      <c r="G1569" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1570">
-      <c r="A1570" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1570" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountMAY/16</t>
-        </is>
-      </c>
-      <c r="C1570" t="inlineStr"/>
-      <c r="D1570" t="inlineStr"/>
-      <c r="E1570" t="inlineStr"/>
-      <c r="F1570" t="inlineStr"/>
-      <c r="G1570" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1571">
-      <c r="A1571" t="inlineStr">
-        <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
-      <c r="B1571" t="inlineStr">
-        <is>
-          <t>Net Long-term TIC FlowsMAR</t>
-        </is>
-      </c>
-      <c r="C1571" t="inlineStr"/>
-      <c r="D1571" t="inlineStr">
-        <is>
-          <t>$112B</t>
-        </is>
-      </c>
-      <c r="E1571" t="inlineStr"/>
-      <c r="F1571" t="inlineStr"/>
-      <c r="G1571" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1572">
-      <c r="A1572" t="inlineStr">
-        <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
-      <c r="B1572" t="inlineStr">
-        <is>
-          <t>Foreign Bond InvestmentMAR</t>
-        </is>
-      </c>
-      <c r="C1572" t="inlineStr"/>
-      <c r="D1572" t="inlineStr">
-        <is>
-          <t>$106.2B</t>
-        </is>
-      </c>
-      <c r="E1572" t="inlineStr"/>
-      <c r="F1572" t="inlineStr"/>
-      <c r="G1572" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1573">
-      <c r="A1573" t="inlineStr">
-        <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
-      <c r="B1573" t="inlineStr">
-        <is>
-          <t>Overall Net Capital FlowsMAR</t>
-        </is>
-      </c>
-      <c r="C1573" t="inlineStr"/>
-      <c r="D1573" t="inlineStr">
-        <is>
-          <t>$284.7B</t>
-        </is>
-      </c>
-      <c r="E1573" t="inlineStr"/>
-      <c r="F1573" t="inlineStr"/>
-      <c r="G1573" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-05-16.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-05-16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1573"/>
+  <dimension ref="A1:G1509"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38268,10 +38268,8 @@
           <t>240.0K</t>
         </is>
       </c>
-      <c r="G1455" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1455" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1456">
@@ -38305,10 +38303,8 @@
           <t>-0.6%</t>
         </is>
       </c>
-      <c r="G1456" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1456" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1457">
@@ -38342,10 +38338,8 @@
           <t>5.5%</t>
         </is>
       </c>
-      <c r="G1457" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1457" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1458">
@@ -38379,10 +38373,8 @@
           <t>1921.0K</t>
         </is>
       </c>
-      <c r="G1458" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1458" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1459">
@@ -38412,10 +38404,8 @@
           <t>230.0K</t>
         </is>
       </c>
-      <c r="G1459" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1459" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1460">
@@ -38449,10 +38439,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="G1460" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1460" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1461">
@@ -38482,10 +38470,8 @@
         </is>
       </c>
       <c r="F1461" t="inlineStr"/>
-      <c r="G1461" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1461" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1462">
@@ -38515,10 +38501,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="G1462" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1462" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1463">
@@ -38544,10 +38528,8 @@
       </c>
       <c r="E1463" t="inlineStr"/>
       <c r="F1463" t="inlineStr"/>
-      <c r="G1463" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1463" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1464">
@@ -38573,10 +38555,8 @@
       </c>
       <c r="E1464" t="inlineStr"/>
       <c r="F1464" t="inlineStr"/>
-      <c r="G1464" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1464" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1465">
@@ -38602,10 +38582,8 @@
       </c>
       <c r="E1465" t="inlineStr"/>
       <c r="F1465" t="inlineStr"/>
-      <c r="G1465" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1465" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1466">
@@ -38631,10 +38609,8 @@
       </c>
       <c r="E1466" t="inlineStr"/>
       <c r="F1466" t="inlineStr"/>
-      <c r="G1466" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1466" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1467">
@@ -38660,10 +38636,8 @@
       </c>
       <c r="E1467" t="inlineStr"/>
       <c r="F1467" t="inlineStr"/>
-      <c r="G1467" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1467" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1468">
@@ -38689,64 +38663,90 @@
       </c>
       <c r="E1468" t="inlineStr"/>
       <c r="F1468" t="inlineStr"/>
-      <c r="G1468" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1468" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1469">
       <c r="A1469" t="inlineStr">
         <is>
-          <t>Friday May 09 2025</t>
-        </is>
-      </c>
-      <c r="B1469" t="inlineStr"/>
+          <t>07:30 AM</t>
+        </is>
+      </c>
+      <c r="B1469" t="inlineStr">
+        <is>
+          <t>Philly Fed Prices PaidMAY</t>
+        </is>
+      </c>
       <c r="C1469" t="inlineStr"/>
-      <c r="D1469" t="inlineStr"/>
+      <c r="D1469" t="inlineStr">
+        <is>
+          <t>51.00</t>
+        </is>
+      </c>
       <c r="E1469" t="inlineStr"/>
       <c r="F1469" t="inlineStr"/>
-      <c r="G1469" t="inlineStr"/>
+      <c r="G1469" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1470">
       <c r="A1470" t="inlineStr">
         <is>
-          <t>05:15 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1470" t="inlineStr">
         <is>
-          <t>Fed Williams Speech</t>
+          <t>PPIAPR</t>
         </is>
       </c>
       <c r="C1470" t="inlineStr"/>
-      <c r="D1470" t="inlineStr"/>
+      <c r="D1470" t="inlineStr">
+        <is>
+          <t>147.464</t>
+        </is>
+      </c>
       <c r="E1470" t="inlineStr"/>
-      <c r="F1470" t="inlineStr"/>
+      <c r="F1470" t="inlineStr">
+        <is>
+          <t>147.76</t>
+        </is>
+      </c>
       <c r="G1470" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1471">
       <c r="A1471" t="inlineStr">
         <is>
-          <t>05:45 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1471" t="inlineStr">
         <is>
-          <t>Fed Barr Speech</t>
+          <t>PPI Ex Food, Energy and Trade MoMAPR</t>
         </is>
       </c>
       <c r="C1471" t="inlineStr"/>
-      <c r="D1471" t="inlineStr"/>
+      <c r="D1471" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="E1471" t="inlineStr"/>
-      <c r="F1471" t="inlineStr"/>
+      <c r="F1471" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="G1471" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -38758,126 +38758,166 @@
       </c>
       <c r="B1472" t="inlineStr">
         <is>
-          <t>Fed Kugler Speech</t>
+          <t>PPI Ex Food, Energy and Trade YoYAPR</t>
         </is>
       </c>
       <c r="C1472" t="inlineStr"/>
-      <c r="D1472" t="inlineStr"/>
+      <c r="D1472" t="inlineStr">
+        <is>
+          <t>3.4%</t>
+        </is>
+      </c>
       <c r="E1472" t="inlineStr"/>
-      <c r="F1472" t="inlineStr"/>
+      <c r="F1472" t="inlineStr">
+        <is>
+          <t>3.4%</t>
+        </is>
+      </c>
       <c r="G1472" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1473">
       <c r="A1473" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1473" t="inlineStr">
         <is>
-          <t>Fed Goolsbee Speech</t>
+          <t>PPI YoYAPR</t>
         </is>
       </c>
       <c r="C1473" t="inlineStr"/>
-      <c r="D1473" t="inlineStr"/>
+      <c r="D1473" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
       <c r="E1473" t="inlineStr"/>
-      <c r="F1473" t="inlineStr"/>
+      <c r="F1473" t="inlineStr">
+        <is>
+          <t>3.1%</t>
+        </is>
+      </c>
       <c r="G1473" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1474">
       <c r="A1474" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1474" t="inlineStr">
         <is>
-          <t>Fed Waller Speech</t>
+          <t>Retail Sales Ex Gas/Autos MoMAPR</t>
         </is>
       </c>
       <c r="C1474" t="inlineStr"/>
-      <c r="D1474" t="inlineStr"/>
+      <c r="D1474" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="E1474" t="inlineStr"/>
-      <c r="F1474" t="inlineStr"/>
+      <c r="F1474" t="inlineStr">
+        <is>
+          <t>-0.3%</t>
+        </is>
+      </c>
       <c r="G1474" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1475">
       <c r="A1475" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1475" t="inlineStr">
         <is>
-          <t>Fed Williams Speech</t>
+          <t>Retail Sales YoYAPR</t>
         </is>
       </c>
       <c r="C1475" t="inlineStr"/>
-      <c r="D1475" t="inlineStr"/>
+      <c r="D1475" t="inlineStr">
+        <is>
+          <t>4.6%</t>
+        </is>
+      </c>
       <c r="E1475" t="inlineStr"/>
-      <c r="F1475" t="inlineStr"/>
+      <c r="F1475" t="inlineStr">
+        <is>
+          <t>1.1%</t>
+        </is>
+      </c>
       <c r="G1475" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1476">
       <c r="A1476" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>08:15 AM</t>
         </is>
       </c>
       <c r="B1476" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountMAY/09</t>
+          <t>Industrial Production MoMAPR</t>
         </is>
       </c>
       <c r="C1476" t="inlineStr"/>
       <c r="D1476" t="inlineStr">
         <is>
-          <t>479</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="E1476" t="inlineStr"/>
-      <c r="F1476" t="inlineStr"/>
+      <c r="F1476" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
       <c r="G1476" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1477">
       <c r="A1477" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>08:15 AM</t>
         </is>
       </c>
       <c r="B1477" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountMAY/09</t>
+          <t>Capacity UtilizationAPR</t>
         </is>
       </c>
       <c r="C1477" t="inlineStr"/>
       <c r="D1477" t="inlineStr">
         <is>
-          <t>584</t>
+          <t>77.8%</t>
         </is>
       </c>
       <c r="E1477" t="inlineStr"/>
-      <c r="F1477" t="inlineStr"/>
+      <c r="F1477" t="inlineStr">
+        <is>
+          <t>77.8%</t>
+        </is>
+      </c>
       <c r="G1477" t="inlineStr">
         <is>
           <t>3</t>
@@ -38887,111 +38927,175 @@
     <row r="1478">
       <c r="A1478" t="inlineStr">
         <is>
-          <t>06:45 PM</t>
+          <t>08:15 AM</t>
         </is>
       </c>
       <c r="B1478" t="inlineStr">
         <is>
-          <t>Fed Cook Speech</t>
+          <t>Industrial Production YoYAPR</t>
         </is>
       </c>
       <c r="C1478" t="inlineStr"/>
-      <c r="D1478" t="inlineStr"/>
+      <c r="D1478" t="inlineStr">
+        <is>
+          <t>1.3%</t>
+        </is>
+      </c>
       <c r="E1478" t="inlineStr"/>
-      <c r="F1478" t="inlineStr"/>
+      <c r="F1478" t="inlineStr">
+        <is>
+          <t>0.9%</t>
+        </is>
+      </c>
       <c r="G1478" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1479">
       <c r="A1479" t="inlineStr">
         <is>
-          <t>06:45 PM</t>
+          <t>08:15 AM</t>
         </is>
       </c>
       <c r="B1479" t="inlineStr">
         <is>
-          <t>Fed Hammack Speech</t>
+          <t>Manufacturing Production MoMAPR</t>
         </is>
       </c>
       <c r="C1479" t="inlineStr"/>
-      <c r="D1479" t="inlineStr"/>
+      <c r="D1479" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="E1479" t="inlineStr"/>
-      <c r="F1479" t="inlineStr"/>
+      <c r="F1479" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G1479" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1480">
       <c r="A1480" t="inlineStr">
         <is>
-          <t>06:45 PM</t>
+          <t>08:15 AM</t>
         </is>
       </c>
       <c r="B1480" t="inlineStr">
         <is>
-          <t>Fed Musalem Speech</t>
+          <t>Manufacturing Production YoYAPR</t>
         </is>
       </c>
       <c r="C1480" t="inlineStr"/>
-      <c r="D1480" t="inlineStr"/>
+      <c r="D1480" t="inlineStr">
+        <is>
+          <t>1%</t>
+        </is>
+      </c>
       <c r="E1480" t="inlineStr"/>
-      <c r="F1480" t="inlineStr"/>
+      <c r="F1480" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="G1480" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1481">
       <c r="A1481" t="inlineStr">
         <is>
-          <t>Sunday May 11 2025</t>
-        </is>
-      </c>
-      <c r="B1481" t="inlineStr"/>
+          <t>09:00 AM</t>
+        </is>
+      </c>
+      <c r="B1481" t="inlineStr">
+        <is>
+          <t>Business Inventories MoMMAR</t>
+        </is>
+      </c>
       <c r="C1481" t="inlineStr"/>
-      <c r="D1481" t="inlineStr"/>
+      <c r="D1481" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="E1481" t="inlineStr"/>
-      <c r="F1481" t="inlineStr"/>
-      <c r="G1481" t="inlineStr"/>
+      <c r="F1481" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="G1481" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1482">
       <c r="A1482" t="inlineStr">
         <is>
-          <t>Monday May 12 2025</t>
-        </is>
-      </c>
-      <c r="B1482" t="inlineStr"/>
+          <t>09:00 AM</t>
+        </is>
+      </c>
+      <c r="B1482" t="inlineStr">
+        <is>
+          <t>NAHB Housing Market IndexMAY</t>
+        </is>
+      </c>
       <c r="C1482" t="inlineStr"/>
-      <c r="D1482" t="inlineStr"/>
+      <c r="D1482" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
       <c r="E1482" t="inlineStr"/>
-      <c r="F1482" t="inlineStr"/>
-      <c r="G1482" t="inlineStr"/>
+      <c r="F1482" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="G1482" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1483">
       <c r="A1483" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1483" t="inlineStr">
         <is>
-          <t>NY Fed Treasury Purchases 4 to 6 yrs</t>
+          <t>Retail Inventories Ex Autos MoMMAR</t>
         </is>
       </c>
       <c r="C1483" t="inlineStr"/>
-      <c r="D1483" t="inlineStr"/>
+      <c r="D1483" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="E1483" t="inlineStr">
         <is>
-          <t>$75 million</t>
-        </is>
-      </c>
-      <c r="F1483" t="inlineStr"/>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="F1483" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="G1483" t="inlineStr">
         <is>
           <t>3</t>
@@ -39001,18 +39105,18 @@
     <row r="1484">
       <c r="A1484" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1484" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>EIA Natural Gas Stocks ChangeMAY/09</t>
         </is>
       </c>
       <c r="C1484" t="inlineStr"/>
       <c r="D1484" t="inlineStr">
         <is>
-          <t>4.220%</t>
+          <t>104Bcf</t>
         </is>
       </c>
       <c r="E1484" t="inlineStr"/>
@@ -39031,15 +39135,11 @@
       </c>
       <c r="B1485" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1485" t="inlineStr"/>
-      <c r="D1485" t="inlineStr">
-        <is>
-          <t>4.090%</t>
-        </is>
-      </c>
+      <c r="D1485" t="inlineStr"/>
       <c r="E1485" t="inlineStr"/>
       <c r="F1485" t="inlineStr"/>
       <c r="G1485" t="inlineStr">
@@ -39051,12 +39151,12 @@
     <row r="1486">
       <c r="A1486" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1486" t="inlineStr">
         <is>
-          <t>WASDE Report</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1486" t="inlineStr"/>
@@ -39072,68 +39172,68 @@
     <row r="1487">
       <c r="A1487" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1487" t="inlineStr">
         <is>
-          <t>Monthly Budget StatementAPR</t>
+          <t>15-Year Mortgage RateMAY/15</t>
         </is>
       </c>
       <c r="C1487" t="inlineStr"/>
       <c r="D1487" t="inlineStr">
         <is>
-          <t>$-161B</t>
+          <t>5.89%</t>
         </is>
       </c>
       <c r="E1487" t="inlineStr"/>
-      <c r="F1487" t="inlineStr">
-        <is>
-          <t>$235.0B</t>
-        </is>
-      </c>
+      <c r="F1487" t="inlineStr"/>
       <c r="G1487" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1488">
       <c r="A1488" t="inlineStr">
         <is>
-          <t>Tuesday May 13 2025</t>
-        </is>
-      </c>
-      <c r="B1488" t="inlineStr"/>
+          <t>11:00 AM</t>
+        </is>
+      </c>
+      <c r="B1488" t="inlineStr">
+        <is>
+          <t>30-Year Mortgage RateMAY/15</t>
+        </is>
+      </c>
       <c r="C1488" t="inlineStr"/>
-      <c r="D1488" t="inlineStr"/>
+      <c r="D1488" t="inlineStr">
+        <is>
+          <t>6.76%</t>
+        </is>
+      </c>
       <c r="E1488" t="inlineStr"/>
       <c r="F1488" t="inlineStr"/>
-      <c r="G1488" t="inlineStr"/>
+      <c r="G1488" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1489">
       <c r="A1489" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1489" t="inlineStr">
         <is>
-          <t>NFIB Business Optimism IndexAPR</t>
+          <t>NOPA Crush Report</t>
         </is>
       </c>
       <c r="C1489" t="inlineStr"/>
-      <c r="D1489" t="inlineStr">
-        <is>
-          <t>97.4</t>
-        </is>
-      </c>
+      <c r="D1489" t="inlineStr"/>
       <c r="E1489" t="inlineStr"/>
-      <c r="F1489" t="inlineStr">
-        <is>
-          <t>91.5</t>
-        </is>
-      </c>
+      <c r="F1489" t="inlineStr"/>
       <c r="G1489" t="inlineStr">
         <is>
           <t>3</t>
@@ -39143,64 +39243,40 @@
     <row r="1490">
       <c r="A1490" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1490" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMAPR</t>
+          <t>Fed Balance SheetMAY/14</t>
         </is>
       </c>
       <c r="C1490" t="inlineStr"/>
       <c r="D1490" t="inlineStr">
         <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E1490" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F1490" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>$6.71T</t>
+        </is>
+      </c>
+      <c r="E1490" t="inlineStr"/>
+      <c r="F1490" t="inlineStr"/>
       <c r="G1490" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1491">
       <c r="A1491" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1491" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate YoYAPR</t>
-        </is>
-      </c>
+          <t>Friday May 16 2025</t>
+        </is>
+      </c>
+      <c r="B1491" t="inlineStr"/>
       <c r="C1491" t="inlineStr"/>
-      <c r="D1491" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+      <c r="D1491" t="inlineStr"/>
       <c r="E1491" t="inlineStr"/>
-      <c r="F1491" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="G1491" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="F1491" t="inlineStr"/>
+      <c r="G1491" t="inlineStr"/>
     </row>
     <row r="1492">
       <c r="A1492" t="inlineStr">
@@ -39210,23 +39286,19 @@
       </c>
       <c r="B1492" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMAPR</t>
+          <t>Building Permits PrelAPR</t>
         </is>
       </c>
       <c r="C1492" t="inlineStr"/>
       <c r="D1492" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E1492" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>1.467M</t>
+        </is>
+      </c>
+      <c r="E1492" t="inlineStr"/>
       <c r="F1492" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>1.45M</t>
         </is>
       </c>
       <c r="G1492" t="inlineStr">
@@ -39243,19 +39315,19 @@
       </c>
       <c r="B1493" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYAPR</t>
+          <t>Housing StartsAPR</t>
         </is>
       </c>
       <c r="C1493" t="inlineStr"/>
       <c r="D1493" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>1.324M</t>
         </is>
       </c>
       <c r="E1493" t="inlineStr"/>
       <c r="F1493" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>1.31M</t>
         </is>
       </c>
       <c r="G1493" t="inlineStr">
@@ -39272,19 +39344,19 @@
       </c>
       <c r="B1494" t="inlineStr">
         <is>
-          <t>CPIAPR</t>
+          <t>Building Permits MoM PrelAPR</t>
         </is>
       </c>
       <c r="C1494" t="inlineStr"/>
       <c r="D1494" t="inlineStr">
         <is>
-          <t>319.799</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="E1494" t="inlineStr"/>
       <c r="F1494" t="inlineStr">
         <is>
-          <t>321.7</t>
+          <t>-1.2%</t>
         </is>
       </c>
       <c r="G1494" t="inlineStr">
@@ -39301,19 +39373,19 @@
       </c>
       <c r="B1495" t="inlineStr">
         <is>
-          <t>CPI s.aAPR</t>
+          <t>Export Prices MoMAPR</t>
         </is>
       </c>
       <c r="C1495" t="inlineStr"/>
       <c r="D1495" t="inlineStr">
         <is>
-          <t>319.615</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="E1495" t="inlineStr"/>
       <c r="F1495" t="inlineStr">
         <is>
-          <t>320.6</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G1495" t="inlineStr">
@@ -39325,72 +39397,84 @@
     <row r="1496">
       <c r="A1496" t="inlineStr">
         <is>
-          <t>07:55 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1496" t="inlineStr">
         <is>
-          <t>Redbook YoYMAY/10</t>
+          <t>Housing Starts MoMAPR</t>
         </is>
       </c>
       <c r="C1496" t="inlineStr"/>
       <c r="D1496" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>-11.4%</t>
         </is>
       </c>
       <c r="E1496" t="inlineStr"/>
-      <c r="F1496" t="inlineStr"/>
+      <c r="F1496" t="inlineStr">
+        <is>
+          <t>-1%</t>
+        </is>
+      </c>
       <c r="G1496" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1497">
       <c r="A1497" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1497" t="inlineStr">
         <is>
-          <t>Total Household DebtQ1</t>
+          <t>Import Prices MoMAPR</t>
         </is>
       </c>
       <c r="C1497" t="inlineStr"/>
       <c r="D1497" t="inlineStr">
         <is>
-          <t>$18.04T</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="E1497" t="inlineStr"/>
-      <c r="F1497" t="inlineStr"/>
+      <c r="F1497" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="G1497" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1498">
       <c r="A1498" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1498" t="inlineStr">
         <is>
-          <t>52-Week Bill Auction</t>
+          <t>Export Prices YoYAPR</t>
         </is>
       </c>
       <c r="C1498" t="inlineStr"/>
       <c r="D1498" t="inlineStr">
         <is>
-          <t>3.820%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="E1498" t="inlineStr"/>
-      <c r="F1498" t="inlineStr"/>
+      <c r="F1498" t="inlineStr">
+        <is>
+          <t>2%</t>
+        </is>
+      </c>
       <c r="G1498" t="inlineStr">
         <is>
           <t>3</t>
@@ -39400,85 +39484,113 @@
     <row r="1499">
       <c r="A1499" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1499" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeMAY/09</t>
+          <t>Import Prices YoYAPR</t>
         </is>
       </c>
       <c r="C1499" t="inlineStr"/>
       <c r="D1499" t="inlineStr">
         <is>
-          <t>-4.49M</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="E1499" t="inlineStr"/>
-      <c r="F1499" t="inlineStr"/>
+      <c r="F1499" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
       <c r="G1499" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1500">
       <c r="A1500" t="inlineStr">
         <is>
-          <t>Wednesday May 14 2025</t>
-        </is>
-      </c>
-      <c r="B1500" t="inlineStr"/>
+          <t>09:00 AM</t>
+        </is>
+      </c>
+      <c r="B1500" t="inlineStr">
+        <is>
+          <t>Michigan Consumer Sentiment PrelMAY</t>
+        </is>
+      </c>
       <c r="C1500" t="inlineStr"/>
-      <c r="D1500" t="inlineStr"/>
+      <c r="D1500" t="inlineStr">
+        <is>
+          <t>52.2</t>
+        </is>
+      </c>
       <c r="E1500" t="inlineStr"/>
-      <c r="F1500" t="inlineStr"/>
-      <c r="G1500" t="inlineStr"/>
+      <c r="F1500" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="G1500" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="1501">
       <c r="A1501" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1501" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateMAY/09</t>
+          <t>Michigan 5 Year Inflation Expectations PrelMAY</t>
         </is>
       </c>
       <c r="C1501" t="inlineStr"/>
       <c r="D1501" t="inlineStr">
         <is>
-          <t>6.84%</t>
+          <t>4.4%</t>
         </is>
       </c>
       <c r="E1501" t="inlineStr"/>
-      <c r="F1501" t="inlineStr"/>
+      <c r="F1501" t="inlineStr">
+        <is>
+          <t>4.5%</t>
+        </is>
+      </c>
       <c r="G1501" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1502">
       <c r="A1502" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1502" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsMAY/09</t>
+          <t>Michigan Consumer Expectations PrelMAY</t>
         </is>
       </c>
       <c r="C1502" t="inlineStr"/>
       <c r="D1502" t="inlineStr">
         <is>
-          <t>11%</t>
+          <t>47.3</t>
         </is>
       </c>
       <c r="E1502" t="inlineStr"/>
-      <c r="F1502" t="inlineStr"/>
+      <c r="F1502" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
       <c r="G1502" t="inlineStr">
         <is>
           <t>3</t>
@@ -39488,22 +39600,26 @@
     <row r="1503">
       <c r="A1503" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1503" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexMAY/09</t>
+          <t>Michigan Current Conditions PrelMAY</t>
         </is>
       </c>
       <c r="C1503" t="inlineStr"/>
       <c r="D1503" t="inlineStr">
         <is>
-          <t>248.4</t>
+          <t>59.8</t>
         </is>
       </c>
       <c r="E1503" t="inlineStr"/>
-      <c r="F1503" t="inlineStr"/>
+      <c r="F1503" t="inlineStr">
+        <is>
+          <t>59.5</t>
+        </is>
+      </c>
       <c r="G1503" t="inlineStr">
         <is>
           <t>3</t>
@@ -39513,22 +39629,26 @@
     <row r="1504">
       <c r="A1504" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1504" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexMAY/09</t>
+          <t>Michigan Inflation Expectations PrelMAY</t>
         </is>
       </c>
       <c r="C1504" t="inlineStr"/>
       <c r="D1504" t="inlineStr">
         <is>
-          <t>721</t>
+          <t>6.5%</t>
         </is>
       </c>
       <c r="E1504" t="inlineStr"/>
-      <c r="F1504" t="inlineStr"/>
+      <c r="F1504" t="inlineStr">
+        <is>
+          <t>6.6%</t>
+        </is>
+      </c>
       <c r="G1504" t="inlineStr">
         <is>
           <t>3</t>
@@ -39538,20 +39658,16 @@
     <row r="1505">
       <c r="A1505" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B1505" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexMAY/09</t>
+          <t>Baker Hughes Oil Rig CountMAY/16</t>
         </is>
       </c>
       <c r="C1505" t="inlineStr"/>
-      <c r="D1505" t="inlineStr">
-        <is>
-          <t>162.8</t>
-        </is>
-      </c>
+      <c r="D1505" t="inlineStr"/>
       <c r="E1505" t="inlineStr"/>
       <c r="F1505" t="inlineStr"/>
       <c r="G1505" t="inlineStr">
@@ -39563,43 +39679,39 @@
     <row r="1506">
       <c r="A1506" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B1506" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Stocks ChangeMAY/09</t>
+          <t>Baker Hughes Total Rigs CountMAY/16</t>
         </is>
       </c>
       <c r="C1506" t="inlineStr"/>
-      <c r="D1506" t="inlineStr">
-        <is>
-          <t>-2.032M</t>
-        </is>
-      </c>
+      <c r="D1506" t="inlineStr"/>
       <c r="E1506" t="inlineStr"/>
       <c r="F1506" t="inlineStr"/>
       <c r="G1506" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1507">
       <c r="A1507" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B1507" t="inlineStr">
         <is>
-          <t>EIA Gasoline Stocks ChangeMAY/09</t>
+          <t>Net Long-term TIC FlowsMAR</t>
         </is>
       </c>
       <c r="C1507" t="inlineStr"/>
       <c r="D1507" t="inlineStr">
         <is>
-          <t>0.188M</t>
+          <t>$112B</t>
         </is>
       </c>
       <c r="E1507" t="inlineStr"/>
@@ -39613,18 +39725,18 @@
     <row r="1508">
       <c r="A1508" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B1508" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Imports ChangeMAY/09</t>
+          <t>Foreign Bond InvestmentMAR</t>
         </is>
       </c>
       <c r="C1508" t="inlineStr"/>
       <c r="D1508" t="inlineStr">
         <is>
-          <t>0.673M</t>
+          <t>$106.2B</t>
         </is>
       </c>
       <c r="E1508" t="inlineStr"/>
@@ -39638,1719 +39750,23 @@
     <row r="1509">
       <c r="A1509" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B1509" t="inlineStr">
         <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeMAY/09</t>
+          <t>Overall Net Capital FlowsMAR</t>
         </is>
       </c>
       <c r="C1509" t="inlineStr"/>
       <c r="D1509" t="inlineStr">
         <is>
-          <t>-0.74M</t>
+          <t>$284.7B</t>
         </is>
       </c>
       <c r="E1509" t="inlineStr"/>
       <c r="F1509" t="inlineStr"/>
       <c r="G1509" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1510">
-      <c r="A1510" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1510" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeMAY/09</t>
-        </is>
-      </c>
-      <c r="C1510" t="inlineStr"/>
-      <c r="D1510" t="inlineStr">
-        <is>
-          <t>0.041M</t>
-        </is>
-      </c>
-      <c r="E1510" t="inlineStr"/>
-      <c r="F1510" t="inlineStr"/>
-      <c r="G1510" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1511">
-      <c r="A1511" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1511" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeMAY/09</t>
-        </is>
-      </c>
-      <c r="C1511" t="inlineStr"/>
-      <c r="D1511" t="inlineStr">
-        <is>
-          <t>-1.107M</t>
-        </is>
-      </c>
-      <c r="E1511" t="inlineStr"/>
-      <c r="F1511" t="inlineStr"/>
-      <c r="G1511" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1512">
-      <c r="A1512" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1512" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeMAY/09</t>
-        </is>
-      </c>
-      <c r="C1512" t="inlineStr"/>
-      <c r="D1512" t="inlineStr">
-        <is>
-          <t>0.253M</t>
-        </is>
-      </c>
-      <c r="E1512" t="inlineStr"/>
-      <c r="F1512" t="inlineStr"/>
-      <c r="G1512" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1513">
-      <c r="A1513" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1513" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeMAY/09</t>
-        </is>
-      </c>
-      <c r="C1513" t="inlineStr"/>
-      <c r="D1513" t="inlineStr">
-        <is>
-          <t>0.123M</t>
-        </is>
-      </c>
-      <c r="E1513" t="inlineStr"/>
-      <c r="F1513" t="inlineStr"/>
-      <c r="G1513" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1514">
-      <c r="A1514" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1514" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeMAY/09</t>
-        </is>
-      </c>
-      <c r="C1514" t="inlineStr"/>
-      <c r="D1514" t="inlineStr">
-        <is>
-          <t>-0.007M</t>
-        </is>
-      </c>
-      <c r="E1514" t="inlineStr"/>
-      <c r="F1514" t="inlineStr"/>
-      <c r="G1514" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1515">
-      <c r="A1515" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1515" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1515" t="inlineStr"/>
-      <c r="D1515" t="inlineStr">
-        <is>
-          <t>4.200%</t>
-        </is>
-      </c>
-      <c r="E1515" t="inlineStr"/>
-      <c r="F1515" t="inlineStr"/>
-      <c r="G1515" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1516">
-      <c r="A1516" t="inlineStr">
-        <is>
-          <t>04:40 PM</t>
-        </is>
-      </c>
-      <c r="B1516" t="inlineStr">
-        <is>
-          <t>Fed Daly Speech</t>
-        </is>
-      </c>
-      <c r="C1516" t="inlineStr"/>
-      <c r="D1516" t="inlineStr"/>
-      <c r="E1516" t="inlineStr"/>
-      <c r="F1516" t="inlineStr"/>
-      <c r="G1516" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1517">
-      <c r="A1517" t="inlineStr">
-        <is>
-          <t>Thursday May 15 2025</t>
-        </is>
-      </c>
-      <c r="B1517" t="inlineStr"/>
-      <c r="C1517" t="inlineStr"/>
-      <c r="D1517" t="inlineStr"/>
-      <c r="E1517" t="inlineStr"/>
-      <c r="F1517" t="inlineStr"/>
-      <c r="G1517" t="inlineStr"/>
-    </row>
-    <row r="1518">
-      <c r="A1518" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1518" t="inlineStr">
-        <is>
-          <t>PPI MoMAPR</t>
-        </is>
-      </c>
-      <c r="C1518" t="inlineStr"/>
-      <c r="D1518" t="inlineStr">
-        <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
-      <c r="E1518" t="inlineStr"/>
-      <c r="F1518" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G1518" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1519">
-      <c r="A1519" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1519" t="inlineStr">
-        <is>
-          <t>Retail Sales MoMAPR</t>
-        </is>
-      </c>
-      <c r="C1519" t="inlineStr"/>
-      <c r="D1519" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
-      <c r="E1519" t="inlineStr"/>
-      <c r="F1519" t="inlineStr">
-        <is>
-          <t>-0.8%</t>
-        </is>
-      </c>
-      <c r="G1519" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1520">
-      <c r="A1520" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1520" t="inlineStr">
-        <is>
-          <t>Core PPI MoMAPR</t>
-        </is>
-      </c>
-      <c r="C1520" t="inlineStr"/>
-      <c r="D1520" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E1520" t="inlineStr"/>
-      <c r="F1520" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G1520" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1521">
-      <c r="A1521" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1521" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsMAY/10</t>
-        </is>
-      </c>
-      <c r="C1521" t="inlineStr"/>
-      <c r="D1521" t="inlineStr">
-        <is>
-          <t>228K</t>
-        </is>
-      </c>
-      <c r="E1521" t="inlineStr"/>
-      <c r="F1521" t="inlineStr"/>
-      <c r="G1521" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1522">
-      <c r="A1522" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1522" t="inlineStr">
-        <is>
-          <t>NY Empire State Manufacturing IndexMAY</t>
-        </is>
-      </c>
-      <c r="C1522" t="inlineStr"/>
-      <c r="D1522" t="inlineStr">
-        <is>
-          <t>-8.10</t>
-        </is>
-      </c>
-      <c r="E1522" t="inlineStr"/>
-      <c r="F1522" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="G1522" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1523">
-      <c r="A1523" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1523" t="inlineStr">
-        <is>
-          <t>Philadelphia Fed Manufacturing IndexMAY</t>
-        </is>
-      </c>
-      <c r="C1523" t="inlineStr"/>
-      <c r="D1523" t="inlineStr">
-        <is>
-          <t>-26.4</t>
-        </is>
-      </c>
-      <c r="E1523" t="inlineStr"/>
-      <c r="F1523" t="inlineStr">
-        <is>
-          <t>-25</t>
-        </is>
-      </c>
-      <c r="G1523" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1524">
-      <c r="A1524" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1524" t="inlineStr">
-        <is>
-          <t>Retail Sales Control Group MoMAPR</t>
-        </is>
-      </c>
-      <c r="C1524" t="inlineStr"/>
-      <c r="D1524" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E1524" t="inlineStr"/>
-      <c r="F1524" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="G1524" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1525">
-      <c r="A1525" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1525" t="inlineStr">
-        <is>
-          <t>Retail Sales Ex Autos MoMAPR</t>
-        </is>
-      </c>
-      <c r="C1525" t="inlineStr"/>
-      <c r="D1525" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E1525" t="inlineStr"/>
-      <c r="F1525" t="inlineStr">
-        <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
-      <c r="G1525" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1526">
-      <c r="A1526" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1526" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsMAY/03</t>
-        </is>
-      </c>
-      <c r="C1526" t="inlineStr"/>
-      <c r="D1526" t="inlineStr">
-        <is>
-          <t>1879K</t>
-        </is>
-      </c>
-      <c r="E1526" t="inlineStr"/>
-      <c r="F1526" t="inlineStr"/>
-      <c r="G1526" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1527">
-      <c r="A1527" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1527" t="inlineStr">
-        <is>
-          <t>Core PPI YoYAPR</t>
-        </is>
-      </c>
-      <c r="C1527" t="inlineStr"/>
-      <c r="D1527" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="E1527" t="inlineStr"/>
-      <c r="F1527" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="G1527" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1528">
-      <c r="A1528" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1528" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageMAY/10</t>
-        </is>
-      </c>
-      <c r="C1528" t="inlineStr"/>
-      <c r="D1528" t="inlineStr">
-        <is>
-          <t>227K</t>
-        </is>
-      </c>
-      <c r="E1528" t="inlineStr"/>
-      <c r="F1528" t="inlineStr"/>
-      <c r="G1528" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1529">
-      <c r="A1529" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1529" t="inlineStr">
-        <is>
-          <t>Philly Fed Business ConditionsMAY</t>
-        </is>
-      </c>
-      <c r="C1529" t="inlineStr"/>
-      <c r="D1529" t="inlineStr">
-        <is>
-          <t>6.9</t>
-        </is>
-      </c>
-      <c r="E1529" t="inlineStr"/>
-      <c r="F1529" t="inlineStr"/>
-      <c r="G1529" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1530">
-      <c r="A1530" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1530" t="inlineStr">
-        <is>
-          <t>Philly Fed CAPEX IndexMAY</t>
-        </is>
-      </c>
-      <c r="C1530" t="inlineStr"/>
-      <c r="D1530" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E1530" t="inlineStr"/>
-      <c r="F1530" t="inlineStr"/>
-      <c r="G1530" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1531">
-      <c r="A1531" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1531" t="inlineStr">
-        <is>
-          <t>Philly Fed EmploymentMAY</t>
-        </is>
-      </c>
-      <c r="C1531" t="inlineStr"/>
-      <c r="D1531" t="inlineStr">
-        <is>
-          <t>0.2</t>
-        </is>
-      </c>
-      <c r="E1531" t="inlineStr"/>
-      <c r="F1531" t="inlineStr"/>
-      <c r="G1531" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1532">
-      <c r="A1532" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1532" t="inlineStr">
-        <is>
-          <t>Philly Fed New OrdersMAY</t>
-        </is>
-      </c>
-      <c r="C1532" t="inlineStr"/>
-      <c r="D1532" t="inlineStr">
-        <is>
-          <t>-34.2</t>
-        </is>
-      </c>
-      <c r="E1532" t="inlineStr"/>
-      <c r="F1532" t="inlineStr"/>
-      <c r="G1532" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1533">
-      <c r="A1533" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1533" t="inlineStr">
-        <is>
-          <t>Philly Fed Prices PaidMAY</t>
-        </is>
-      </c>
-      <c r="C1533" t="inlineStr"/>
-      <c r="D1533" t="inlineStr">
-        <is>
-          <t>51.00</t>
-        </is>
-      </c>
-      <c r="E1533" t="inlineStr"/>
-      <c r="F1533" t="inlineStr"/>
-      <c r="G1533" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1534">
-      <c r="A1534" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1534" t="inlineStr">
-        <is>
-          <t>PPIAPR</t>
-        </is>
-      </c>
-      <c r="C1534" t="inlineStr"/>
-      <c r="D1534" t="inlineStr">
-        <is>
-          <t>147.464</t>
-        </is>
-      </c>
-      <c r="E1534" t="inlineStr"/>
-      <c r="F1534" t="inlineStr">
-        <is>
-          <t>147.76</t>
-        </is>
-      </c>
-      <c r="G1534" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1535">
-      <c r="A1535" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1535" t="inlineStr">
-        <is>
-          <t>PPI Ex Food, Energy and Trade MoMAPR</t>
-        </is>
-      </c>
-      <c r="C1535" t="inlineStr"/>
-      <c r="D1535" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E1535" t="inlineStr"/>
-      <c r="F1535" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G1535" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1536">
-      <c r="A1536" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1536" t="inlineStr">
-        <is>
-          <t>PPI Ex Food, Energy and Trade YoYAPR</t>
-        </is>
-      </c>
-      <c r="C1536" t="inlineStr"/>
-      <c r="D1536" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="E1536" t="inlineStr"/>
-      <c r="F1536" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="G1536" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1537">
-      <c r="A1537" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1537" t="inlineStr">
-        <is>
-          <t>PPI YoYAPR</t>
-        </is>
-      </c>
-      <c r="C1537" t="inlineStr"/>
-      <c r="D1537" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="E1537" t="inlineStr"/>
-      <c r="F1537" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
-      <c r="G1537" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1538">
-      <c r="A1538" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1538" t="inlineStr">
-        <is>
-          <t>Retail Sales Ex Gas/Autos MoMAPR</t>
-        </is>
-      </c>
-      <c r="C1538" t="inlineStr"/>
-      <c r="D1538" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="E1538" t="inlineStr"/>
-      <c r="F1538" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="G1538" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1539">
-      <c r="A1539" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1539" t="inlineStr">
-        <is>
-          <t>Retail Sales YoYAPR</t>
-        </is>
-      </c>
-      <c r="C1539" t="inlineStr"/>
-      <c r="D1539" t="inlineStr">
-        <is>
-          <t>4.6%</t>
-        </is>
-      </c>
-      <c r="E1539" t="inlineStr"/>
-      <c r="F1539" t="inlineStr">
-        <is>
-          <t>1.1%</t>
-        </is>
-      </c>
-      <c r="G1539" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1540">
-      <c r="A1540" t="inlineStr">
-        <is>
-          <t>08:15 AM</t>
-        </is>
-      </c>
-      <c r="B1540" t="inlineStr">
-        <is>
-          <t>Industrial Production MoMAPR</t>
-        </is>
-      </c>
-      <c r="C1540" t="inlineStr"/>
-      <c r="D1540" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="E1540" t="inlineStr"/>
-      <c r="F1540" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="G1540" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1541">
-      <c r="A1541" t="inlineStr">
-        <is>
-          <t>08:15 AM</t>
-        </is>
-      </c>
-      <c r="B1541" t="inlineStr">
-        <is>
-          <t>Capacity UtilizationAPR</t>
-        </is>
-      </c>
-      <c r="C1541" t="inlineStr"/>
-      <c r="D1541" t="inlineStr">
-        <is>
-          <t>77.8%</t>
-        </is>
-      </c>
-      <c r="E1541" t="inlineStr"/>
-      <c r="F1541" t="inlineStr">
-        <is>
-          <t>77.8%</t>
-        </is>
-      </c>
-      <c r="G1541" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1542">
-      <c r="A1542" t="inlineStr">
-        <is>
-          <t>08:15 AM</t>
-        </is>
-      </c>
-      <c r="B1542" t="inlineStr">
-        <is>
-          <t>Industrial Production YoYAPR</t>
-        </is>
-      </c>
-      <c r="C1542" t="inlineStr"/>
-      <c r="D1542" t="inlineStr">
-        <is>
-          <t>1.3%</t>
-        </is>
-      </c>
-      <c r="E1542" t="inlineStr"/>
-      <c r="F1542" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="G1542" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1543">
-      <c r="A1543" t="inlineStr">
-        <is>
-          <t>08:15 AM</t>
-        </is>
-      </c>
-      <c r="B1543" t="inlineStr">
-        <is>
-          <t>Manufacturing Production MoMAPR</t>
-        </is>
-      </c>
-      <c r="C1543" t="inlineStr"/>
-      <c r="D1543" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E1543" t="inlineStr"/>
-      <c r="F1543" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G1543" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1544">
-      <c r="A1544" t="inlineStr">
-        <is>
-          <t>08:15 AM</t>
-        </is>
-      </c>
-      <c r="B1544" t="inlineStr">
-        <is>
-          <t>Manufacturing Production YoYAPR</t>
-        </is>
-      </c>
-      <c r="C1544" t="inlineStr"/>
-      <c r="D1544" t="inlineStr">
-        <is>
-          <t>1%</t>
-        </is>
-      </c>
-      <c r="E1544" t="inlineStr"/>
-      <c r="F1544" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="G1544" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1545">
-      <c r="A1545" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1545" t="inlineStr">
-        <is>
-          <t>Business Inventories MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1545" t="inlineStr"/>
-      <c r="D1545" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E1545" t="inlineStr"/>
-      <c r="F1545" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G1545" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1546">
-      <c r="A1546" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1546" t="inlineStr">
-        <is>
-          <t>NAHB Housing Market IndexMAY</t>
-        </is>
-      </c>
-      <c r="C1546" t="inlineStr"/>
-      <c r="D1546" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="E1546" t="inlineStr"/>
-      <c r="F1546" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="G1546" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1547">
-      <c r="A1547" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1547" t="inlineStr">
-        <is>
-          <t>Retail Inventories Ex Autos MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1547" t="inlineStr"/>
-      <c r="D1547" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E1547" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F1547" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G1547" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1548">
-      <c r="A1548" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1548" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeMAY/09</t>
-        </is>
-      </c>
-      <c r="C1548" t="inlineStr"/>
-      <c r="D1548" t="inlineStr">
-        <is>
-          <t>104Bcf</t>
-        </is>
-      </c>
-      <c r="E1548" t="inlineStr"/>
-      <c r="F1548" t="inlineStr"/>
-      <c r="G1548" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1549">
-      <c r="A1549" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1549" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1549" t="inlineStr"/>
-      <c r="D1549" t="inlineStr"/>
-      <c r="E1549" t="inlineStr"/>
-      <c r="F1549" t="inlineStr"/>
-      <c r="G1549" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1550">
-      <c r="A1550" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1550" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1550" t="inlineStr"/>
-      <c r="D1550" t="inlineStr"/>
-      <c r="E1550" t="inlineStr"/>
-      <c r="F1550" t="inlineStr"/>
-      <c r="G1550" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1551">
-      <c r="A1551" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B1551" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateMAY/15</t>
-        </is>
-      </c>
-      <c r="C1551" t="inlineStr"/>
-      <c r="D1551" t="inlineStr">
-        <is>
-          <t>5.89%</t>
-        </is>
-      </c>
-      <c r="E1551" t="inlineStr"/>
-      <c r="F1551" t="inlineStr"/>
-      <c r="G1551" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1552">
-      <c r="A1552" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B1552" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateMAY/15</t>
-        </is>
-      </c>
-      <c r="C1552" t="inlineStr"/>
-      <c r="D1552" t="inlineStr">
-        <is>
-          <t>6.76%</t>
-        </is>
-      </c>
-      <c r="E1552" t="inlineStr"/>
-      <c r="F1552" t="inlineStr"/>
-      <c r="G1552" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1553">
-      <c r="A1553" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B1553" t="inlineStr">
-        <is>
-          <t>NOPA Crush Report</t>
-        </is>
-      </c>
-      <c r="C1553" t="inlineStr"/>
-      <c r="D1553" t="inlineStr"/>
-      <c r="E1553" t="inlineStr"/>
-      <c r="F1553" t="inlineStr"/>
-      <c r="G1553" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1554">
-      <c r="A1554" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B1554" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetMAY/14</t>
-        </is>
-      </c>
-      <c r="C1554" t="inlineStr"/>
-      <c r="D1554" t="inlineStr">
-        <is>
-          <t>$6.71T</t>
-        </is>
-      </c>
-      <c r="E1554" t="inlineStr"/>
-      <c r="F1554" t="inlineStr"/>
-      <c r="G1554" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1555">
-      <c r="A1555" t="inlineStr">
-        <is>
-          <t>Friday May 16 2025</t>
-        </is>
-      </c>
-      <c r="B1555" t="inlineStr"/>
-      <c r="C1555" t="inlineStr"/>
-      <c r="D1555" t="inlineStr"/>
-      <c r="E1555" t="inlineStr"/>
-      <c r="F1555" t="inlineStr"/>
-      <c r="G1555" t="inlineStr"/>
-    </row>
-    <row r="1556">
-      <c r="A1556" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1556" t="inlineStr">
-        <is>
-          <t>Building Permits PrelAPR</t>
-        </is>
-      </c>
-      <c r="C1556" t="inlineStr"/>
-      <c r="D1556" t="inlineStr">
-        <is>
-          <t>1.467M</t>
-        </is>
-      </c>
-      <c r="E1556" t="inlineStr"/>
-      <c r="F1556" t="inlineStr">
-        <is>
-          <t>1.45M</t>
-        </is>
-      </c>
-      <c r="G1556" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1557">
-      <c r="A1557" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1557" t="inlineStr">
-        <is>
-          <t>Housing StartsAPR</t>
-        </is>
-      </c>
-      <c r="C1557" t="inlineStr"/>
-      <c r="D1557" t="inlineStr">
-        <is>
-          <t>1.324M</t>
-        </is>
-      </c>
-      <c r="E1557" t="inlineStr"/>
-      <c r="F1557" t="inlineStr">
-        <is>
-          <t>1.31M</t>
-        </is>
-      </c>
-      <c r="G1557" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1558">
-      <c r="A1558" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1558" t="inlineStr">
-        <is>
-          <t>Building Permits MoM PrelAPR</t>
-        </is>
-      </c>
-      <c r="C1558" t="inlineStr"/>
-      <c r="D1558" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E1558" t="inlineStr"/>
-      <c r="F1558" t="inlineStr">
-        <is>
-          <t>-1.2%</t>
-        </is>
-      </c>
-      <c r="G1558" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1559">
-      <c r="A1559" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1559" t="inlineStr">
-        <is>
-          <t>Export Prices MoMAPR</t>
-        </is>
-      </c>
-      <c r="C1559" t="inlineStr"/>
-      <c r="D1559" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="E1559" t="inlineStr"/>
-      <c r="F1559" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G1559" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1560">
-      <c r="A1560" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1560" t="inlineStr">
-        <is>
-          <t>Housing Starts MoMAPR</t>
-        </is>
-      </c>
-      <c r="C1560" t="inlineStr"/>
-      <c r="D1560" t="inlineStr">
-        <is>
-          <t>-11.4%</t>
-        </is>
-      </c>
-      <c r="E1560" t="inlineStr"/>
-      <c r="F1560" t="inlineStr">
-        <is>
-          <t>-1%</t>
-        </is>
-      </c>
-      <c r="G1560" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1561">
-      <c r="A1561" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1561" t="inlineStr">
-        <is>
-          <t>Import Prices MoMAPR</t>
-        </is>
-      </c>
-      <c r="C1561" t="inlineStr"/>
-      <c r="D1561" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E1561" t="inlineStr"/>
-      <c r="F1561" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="G1561" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1562">
-      <c r="A1562" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1562" t="inlineStr">
-        <is>
-          <t>Export Prices YoYAPR</t>
-        </is>
-      </c>
-      <c r="C1562" t="inlineStr"/>
-      <c r="D1562" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="E1562" t="inlineStr"/>
-      <c r="F1562" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
-      <c r="G1562" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1563">
-      <c r="A1563" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1563" t="inlineStr">
-        <is>
-          <t>Import Prices YoYAPR</t>
-        </is>
-      </c>
-      <c r="C1563" t="inlineStr"/>
-      <c r="D1563" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="E1563" t="inlineStr"/>
-      <c r="F1563" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
-      <c r="G1563" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1564">
-      <c r="A1564" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1564" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Sentiment PrelMAY</t>
-        </is>
-      </c>
-      <c r="C1564" t="inlineStr"/>
-      <c r="D1564" t="inlineStr">
-        <is>
-          <t>52.2</t>
-        </is>
-      </c>
-      <c r="E1564" t="inlineStr"/>
-      <c r="F1564" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="G1564" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1565">
-      <c r="A1565" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1565" t="inlineStr">
-        <is>
-          <t>Michigan 5 Year Inflation Expectations PrelMAY</t>
-        </is>
-      </c>
-      <c r="C1565" t="inlineStr"/>
-      <c r="D1565" t="inlineStr">
-        <is>
-          <t>4.4%</t>
-        </is>
-      </c>
-      <c r="E1565" t="inlineStr"/>
-      <c r="F1565" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="G1565" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1566">
-      <c r="A1566" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1566" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Expectations PrelMAY</t>
-        </is>
-      </c>
-      <c r="C1566" t="inlineStr"/>
-      <c r="D1566" t="inlineStr">
-        <is>
-          <t>47.3</t>
-        </is>
-      </c>
-      <c r="E1566" t="inlineStr"/>
-      <c r="F1566" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="G1566" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1567">
-      <c r="A1567" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1567" t="inlineStr">
-        <is>
-          <t>Michigan Current Conditions PrelMAY</t>
-        </is>
-      </c>
-      <c r="C1567" t="inlineStr"/>
-      <c r="D1567" t="inlineStr">
-        <is>
-          <t>59.8</t>
-        </is>
-      </c>
-      <c r="E1567" t="inlineStr"/>
-      <c r="F1567" t="inlineStr">
-        <is>
-          <t>59.5</t>
-        </is>
-      </c>
-      <c r="G1567" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1568">
-      <c r="A1568" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1568" t="inlineStr">
-        <is>
-          <t>Michigan Inflation Expectations PrelMAY</t>
-        </is>
-      </c>
-      <c r="C1568" t="inlineStr"/>
-      <c r="D1568" t="inlineStr">
-        <is>
-          <t>6.5%</t>
-        </is>
-      </c>
-      <c r="E1568" t="inlineStr"/>
-      <c r="F1568" t="inlineStr">
-        <is>
-          <t>6.6%</t>
-        </is>
-      </c>
-      <c r="G1568" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1569">
-      <c r="A1569" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1569" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountMAY/16</t>
-        </is>
-      </c>
-      <c r="C1569" t="inlineStr"/>
-      <c r="D1569" t="inlineStr"/>
-      <c r="E1569" t="inlineStr"/>
-      <c r="F1569" t="inlineStr"/>
-      <c r="G1569" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1570">
-      <c r="A1570" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1570" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountMAY/16</t>
-        </is>
-      </c>
-      <c r="C1570" t="inlineStr"/>
-      <c r="D1570" t="inlineStr"/>
-      <c r="E1570" t="inlineStr"/>
-      <c r="F1570" t="inlineStr"/>
-      <c r="G1570" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1571">
-      <c r="A1571" t="inlineStr">
-        <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
-      <c r="B1571" t="inlineStr">
-        <is>
-          <t>Net Long-term TIC FlowsMAR</t>
-        </is>
-      </c>
-      <c r="C1571" t="inlineStr"/>
-      <c r="D1571" t="inlineStr">
-        <is>
-          <t>$112B</t>
-        </is>
-      </c>
-      <c r="E1571" t="inlineStr"/>
-      <c r="F1571" t="inlineStr"/>
-      <c r="G1571" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1572">
-      <c r="A1572" t="inlineStr">
-        <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
-      <c r="B1572" t="inlineStr">
-        <is>
-          <t>Foreign Bond InvestmentMAR</t>
-        </is>
-      </c>
-      <c r="C1572" t="inlineStr"/>
-      <c r="D1572" t="inlineStr">
-        <is>
-          <t>$106.2B</t>
-        </is>
-      </c>
-      <c r="E1572" t="inlineStr"/>
-      <c r="F1572" t="inlineStr"/>
-      <c r="G1572" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1573">
-      <c r="A1573" t="inlineStr">
-        <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
-      <c r="B1573" t="inlineStr">
-        <is>
-          <t>Overall Net Capital FlowsMAR</t>
-        </is>
-      </c>
-      <c r="C1573" t="inlineStr"/>
-      <c r="D1573" t="inlineStr">
-        <is>
-          <t>$284.7B</t>
-        </is>
-      </c>
-      <c r="E1573" t="inlineStr"/>
-      <c r="F1573" t="inlineStr"/>
-      <c r="G1573" t="inlineStr">
         <is>
           <t>3</t>
         </is>
